--- a/Jogos_do_Dia/2024-03-15_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-03-15_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="175">
   <si>
     <t>League</t>
   </si>
@@ -172,48 +172,45 @@
     <t>Portugal LigaPro</t>
   </si>
   <si>
+    <t>Switzerland Challenge League</t>
+  </si>
+  <si>
     <t>Austria Bundesliga</t>
   </si>
   <si>
-    <t>Switzerland Challenge League</t>
+    <t>Netherlands Eredivisie</t>
   </si>
   <si>
     <t>Netherlands Eerste Divisie</t>
   </si>
   <si>
-    <t>Netherlands Eredivisie</t>
+    <t>Germany Bundesliga</t>
   </si>
   <si>
     <t>Italy Serie B</t>
   </si>
   <si>
+    <t>Egypt Egyptian Premier League</t>
+  </si>
+  <si>
     <t>Spain Segunda División</t>
   </si>
   <si>
-    <t>Egypt Egyptian Premier League</t>
-  </si>
-  <si>
-    <t>Germany Bundesliga</t>
-  </si>
-  <si>
     <t>Wales Welsh Premier League</t>
   </si>
   <si>
     <t>Italy Serie A</t>
   </si>
   <si>
+    <t>Spain La Liga</t>
+  </si>
+  <si>
     <t>France Ligue 1</t>
   </si>
   <si>
-    <t>Spain La Liga</t>
-  </si>
-  <si>
     <t>Portugal Liga NOS</t>
   </si>
   <si>
-    <t>Greece Super League</t>
-  </si>
-  <si>
     <t>England Premier League</t>
   </si>
   <si>
@@ -289,18 +286,18 @@
     <t>Horn</t>
   </si>
   <si>
+    <t>Ried</t>
+  </si>
+  <si>
     <t>Grazer AK</t>
   </si>
   <si>
+    <t>First Vienna</t>
+  </si>
+  <si>
     <t>Amstetten</t>
   </si>
   <si>
-    <t>First Vienna</t>
-  </si>
-  <si>
-    <t>Ried</t>
-  </si>
-  <si>
     <t>Fatih Karagümrük</t>
   </si>
   <si>
@@ -316,105 +313,96 @@
     <t>Torreense</t>
   </si>
   <si>
+    <t>FC Schaffhausen</t>
+  </si>
+  <si>
     <t>Rapid Wien</t>
   </si>
   <si>
     <t>Rapid Bucureşti</t>
   </si>
   <si>
-    <t>FC Schaffhausen</t>
+    <t>Heracles</t>
+  </si>
+  <si>
+    <t>Ajax II</t>
+  </si>
+  <si>
+    <t>Den Bosch</t>
+  </si>
+  <si>
+    <t>Dordrecht</t>
+  </si>
+  <si>
+    <t>AZ II</t>
+  </si>
+  <si>
+    <t>Oss</t>
+  </si>
+  <si>
+    <t>NAC Breda</t>
   </si>
   <si>
     <t>Groningen</t>
   </si>
   <si>
-    <t>Oss</t>
+    <t>Telstar</t>
   </si>
   <si>
     <t>Utrecht II</t>
   </si>
   <si>
-    <t>Telstar</t>
-  </si>
-  <si>
-    <t>NAC Breda</t>
-  </si>
-  <si>
-    <t>Dordrecht</t>
-  </si>
-  <si>
-    <t>Den Bosch</t>
-  </si>
-  <si>
-    <t>Heracles</t>
-  </si>
-  <si>
-    <t>AZ II</t>
-  </si>
-  <si>
-    <t>Ajax II</t>
-  </si>
-  <si>
     <t>Sion</t>
   </si>
   <si>
+    <t>Köln</t>
+  </si>
+  <si>
+    <t>Lech Poznań</t>
+  </si>
+  <si>
     <t>Floridsdorfer AC</t>
   </si>
   <si>
     <t>Palermo</t>
   </si>
   <si>
+    <t>Al Ahly</t>
+  </si>
+  <si>
     <t>CD Eldense</t>
   </si>
   <si>
-    <t>Al Ahly</t>
-  </si>
-  <si>
-    <t>Lech Poznań</t>
-  </si>
-  <si>
-    <t>Köln</t>
-  </si>
-  <si>
     <t>Haverfordwest County</t>
   </si>
   <si>
+    <t>Caernarfon Town</t>
+  </si>
+  <si>
     <t>Empoli</t>
   </si>
   <si>
-    <t>Caernarfon Town</t>
+    <t>Real Sociedad</t>
   </si>
   <si>
     <t>Toulouse</t>
   </si>
   <si>
-    <t>Real Sociedad</t>
-  </si>
-  <si>
     <t>GD Estoril Praia</t>
   </si>
   <si>
-    <t>Asteras Tripolis</t>
+    <t>Manchester United</t>
+  </si>
+  <si>
+    <t>Crystal Palace</t>
   </si>
   <si>
     <t>Wolverhampton Wanderers</t>
   </si>
   <si>
-    <t>Kifisia</t>
-  </si>
-  <si>
-    <t>Crystal Palace</t>
-  </si>
-  <si>
     <t>Arsenal</t>
   </si>
   <si>
-    <t>Manchester United</t>
-  </si>
-  <si>
-    <t>Panaitolikos</t>
-  </si>
-  <si>
     <t>Botev Vratsa</t>
   </si>
   <si>
@@ -436,18 +424,18 @@
     <t>SV Stripfing Weiden</t>
   </si>
   <si>
+    <t>Liefering</t>
+  </si>
+  <si>
     <t>Lafnitz</t>
   </si>
   <si>
+    <t>Leoben</t>
+  </si>
+  <si>
     <t>Admira</t>
   </si>
   <si>
-    <t>Leoben</t>
-  </si>
-  <si>
-    <t>Liefering</t>
-  </si>
-  <si>
     <t>Konyaspor</t>
   </si>
   <si>
@@ -463,103 +451,94 @@
     <t>CD Tondela</t>
   </si>
   <si>
+    <t>Bellinzona</t>
+  </si>
+  <si>
     <t>LASK Linz</t>
   </si>
   <si>
     <t>SSC Farul</t>
   </si>
   <si>
-    <t>Bellinzona</t>
+    <t>Go Ahead Eagles</t>
+  </si>
+  <si>
+    <t>PSV II</t>
+  </si>
+  <si>
+    <t>Willem II</t>
+  </si>
+  <si>
+    <t>Eindhoven</t>
+  </si>
+  <si>
+    <t>Cambuur</t>
+  </si>
+  <si>
+    <t>Helmond Sport</t>
+  </si>
+  <si>
+    <t>VVV</t>
   </si>
   <si>
     <t>De Graafschap</t>
   </si>
   <si>
-    <t>Helmond Sport</t>
+    <t>ADO Den Haag</t>
   </si>
   <si>
     <t>Emmen</t>
   </si>
   <si>
-    <t>ADO Den Haag</t>
-  </si>
-  <si>
-    <t>VVV</t>
-  </si>
-  <si>
-    <t>Eindhoven</t>
-  </si>
-  <si>
-    <t>Willem II</t>
-  </si>
-  <si>
-    <t>Go Ahead Eagles</t>
-  </si>
-  <si>
-    <t>Cambuur</t>
-  </si>
-  <si>
-    <t>PSV II</t>
-  </si>
-  <si>
     <t>Thun</t>
   </si>
   <si>
+    <t>RB Leipzig</t>
+  </si>
+  <si>
+    <t>Warta Poznań</t>
+  </si>
+  <si>
     <t>St. Pölten</t>
   </si>
   <si>
     <t>Venezia</t>
   </si>
   <si>
+    <t>ENPPI</t>
+  </si>
+  <si>
     <t>FC Cartagena</t>
   </si>
   <si>
-    <t>ENPPI</t>
-  </si>
-  <si>
-    <t>Warta Poznań</t>
-  </si>
-  <si>
-    <t>RB Leipzig</t>
-  </si>
-  <si>
     <t>Aberystwyth Town</t>
   </si>
   <si>
+    <t>Connah's Quay</t>
+  </si>
+  <si>
     <t>Bologna</t>
   </si>
   <si>
-    <t>Connah's Quay</t>
+    <t>Cádiz</t>
   </si>
   <si>
     <t>Olympique Lyonnais</t>
   </si>
   <si>
-    <t>Cádiz</t>
-  </si>
-  <si>
     <t>Portimonense</t>
   </si>
   <si>
-    <t>Volos NFC</t>
+    <t>Sheffield United</t>
+  </si>
+  <si>
+    <t>Newcastle United</t>
   </si>
   <si>
     <t>AFC Bournemouth</t>
   </si>
   <si>
-    <t>OFI</t>
-  </si>
-  <si>
-    <t>Newcastle United</t>
-  </si>
-  <si>
     <t>Chelsea</t>
-  </si>
-  <si>
-    <t>Sheffield United</t>
-  </si>
-  <si>
-    <t>Panserraikos</t>
   </si>
 </sst>
 </file>
@@ -921,7 +900,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ50"/>
+  <dimension ref="A1:AQ47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1066,16 +1045,16 @@
         <v>45366</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D2">
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G2">
         <v>2.55</v>
@@ -1090,10 +1069,10 @@
         <v>1.83</v>
       </c>
       <c r="K2">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="L2">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M2">
         <v>1.46</v>
@@ -1197,16 +1176,16 @@
         <v>45366</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G3">
         <v>2.2</v>
@@ -1218,13 +1197,13 @@
         <v>5.25</v>
       </c>
       <c r="J3">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="K3">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="L3">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="M3">
         <v>1.44</v>
@@ -1281,43 +1260,43 @@
         <v>2.76</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>2.93</v>
       </c>
       <c r="AJ3">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="AK3">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AM3">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AN3">
-        <v>0</v>
+        <v>2.67</v>
       </c>
       <c r="AO3">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="AP3">
-        <v>0</v>
+        <v>3.74</v>
       </c>
       <c r="AQ3">
-        <v>0</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -1328,16 +1307,16 @@
         <v>45366</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D4">
         <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G4">
         <v>2.1</v>
@@ -1412,43 +1391,43 @@
         <v>3.18</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>3.33</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AI4">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="AJ4">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="AK4">
-        <v>0</v>
+        <v>2.17</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>2.07</v>
       </c>
       <c r="AM4">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AN4">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="AO4">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AP4">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AQ4">
-        <v>0</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="5" spans="1:43">
@@ -1459,16 +1438,16 @@
         <v>45366</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F5" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G5">
         <v>2.62</v>
@@ -1480,13 +1459,13 @@
         <v>3.7</v>
       </c>
       <c r="J5">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="K5">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="L5">
-        <v>3.2</v>
+        <v>2.88</v>
       </c>
       <c r="M5">
         <v>1.36</v>
@@ -1507,10 +1486,10 @@
         <v>3.4</v>
       </c>
       <c r="S5">
-        <v>1.95</v>
+        <v>2.01</v>
       </c>
       <c r="T5">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="U5">
         <v>1.73</v>
@@ -1543,25 +1522,25 @@
         <v>2.52</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG5">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="AH5">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AI5">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="AJ5">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AK5">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="AL5">
         <v>1.8</v>
@@ -1570,16 +1549,16 @@
         <v>2</v>
       </c>
       <c r="AN5">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AO5">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AP5">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="AQ5">
-        <v>0</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="6" spans="1:43">
@@ -1590,16 +1569,16 @@
         <v>45366</v>
       </c>
       <c r="C6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D6">
         <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F6" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G6">
         <v>2.11</v>
@@ -1611,13 +1590,13 @@
         <v>6.8</v>
       </c>
       <c r="J6">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="K6">
         <v>3.6</v>
       </c>
       <c r="L6">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M6">
         <v>1.46</v>
@@ -1721,16 +1700,16 @@
         <v>45366</v>
       </c>
       <c r="C7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D7">
         <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G7">
         <v>2.28</v>
@@ -1742,13 +1721,13 @@
         <v>5</v>
       </c>
       <c r="J7">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="K7">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="L7">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="M7">
         <v>1.4</v>
@@ -1805,43 +1784,43 @@
         <v>2.78</v>
       </c>
       <c r="AE7">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AF7">
-        <v>0</v>
+        <v>10.25</v>
       </c>
       <c r="AG7">
-        <v>0</v>
+        <v>3.68</v>
       </c>
       <c r="AH7">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AI7">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="AJ7">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AK7">
-        <v>0</v>
+        <v>2.79</v>
       </c>
       <c r="AL7">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="AM7">
-        <v>0</v>
+        <v>2.09</v>
       </c>
       <c r="AN7">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="AO7">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AP7">
-        <v>0</v>
+        <v>2.67</v>
       </c>
       <c r="AQ7">
-        <v>0</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="8" spans="1:43">
@@ -1852,16 +1831,16 @@
         <v>45366</v>
       </c>
       <c r="C8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D8">
         <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F8" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G8">
         <v>2.6</v>
@@ -1873,13 +1852,13 @@
         <v>3.6</v>
       </c>
       <c r="J8">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="K8">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="L8">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M8">
         <v>1.31</v>
@@ -1983,127 +1962,127 @@
         <v>45366</v>
       </c>
       <c r="C9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D9">
         <v>20</v>
       </c>
       <c r="E9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F9" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G9">
-        <v>1.83</v>
+        <v>2.25</v>
       </c>
       <c r="H9">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="I9">
-        <v>6.5</v>
+        <v>4.33</v>
       </c>
       <c r="J9">
-        <v>1.4</v>
+        <v>1.59</v>
       </c>
       <c r="K9">
         <v>4.2</v>
       </c>
       <c r="L9">
-        <v>6</v>
+        <v>4.7</v>
       </c>
       <c r="M9">
-        <v>1.32</v>
+        <v>1.27</v>
       </c>
       <c r="N9">
-        <v>3.29</v>
+        <v>3.45</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Q9">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="R9">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="S9">
+        <v>1.6</v>
+      </c>
+      <c r="T9">
+        <v>2.2</v>
+      </c>
+      <c r="U9">
+        <v>1.62</v>
+      </c>
+      <c r="V9">
+        <v>2.2</v>
+      </c>
+      <c r="W9">
+        <v>1.2</v>
+      </c>
+      <c r="X9">
+        <v>1.22</v>
+      </c>
+      <c r="Y9">
+        <v>1.95</v>
+      </c>
+      <c r="Z9">
+        <v>2.22</v>
+      </c>
+      <c r="AA9">
+        <v>1.22</v>
+      </c>
+      <c r="AB9">
+        <v>1.7</v>
+      </c>
+      <c r="AC9">
         <v>1.65</v>
       </c>
-      <c r="T9">
-        <v>2.1</v>
-      </c>
-      <c r="U9">
-        <v>1.91</v>
-      </c>
-      <c r="V9">
+      <c r="AD9">
+        <v>3.35</v>
+      </c>
+      <c r="AE9">
+        <v>1.58</v>
+      </c>
+      <c r="AF9">
+        <v>9.1</v>
+      </c>
+      <c r="AG9">
+        <v>2.82</v>
+      </c>
+      <c r="AH9">
+        <v>1.23</v>
+      </c>
+      <c r="AI9">
+        <v>3.56</v>
+      </c>
+      <c r="AJ9">
+        <v>1.44</v>
+      </c>
+      <c r="AK9">
+        <v>2.5</v>
+      </c>
+      <c r="AL9">
         <v>1.8</v>
       </c>
-      <c r="W9">
-        <v>1.07</v>
-      </c>
-      <c r="X9">
-        <v>1.17</v>
-      </c>
-      <c r="Y9">
-        <v>2.91</v>
-      </c>
-      <c r="Z9">
-        <v>2.44</v>
-      </c>
-      <c r="AA9">
-        <v>1.11</v>
-      </c>
-      <c r="AB9">
-        <v>1.88</v>
-      </c>
-      <c r="AC9">
-        <v>1.22</v>
-      </c>
-      <c r="AD9">
-        <v>3.1</v>
-      </c>
-      <c r="AE9">
-        <v>0</v>
-      </c>
-      <c r="AF9">
-        <v>0</v>
-      </c>
-      <c r="AG9">
-        <v>0</v>
-      </c>
-      <c r="AH9">
-        <v>0</v>
-      </c>
-      <c r="AI9">
-        <v>0</v>
-      </c>
-      <c r="AJ9">
-        <v>0</v>
-      </c>
-      <c r="AK9">
-        <v>0</v>
-      </c>
-      <c r="AL9">
-        <v>0</v>
-      </c>
       <c r="AM9">
-        <v>0</v>
+        <v>2.09</v>
       </c>
       <c r="AN9">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="AO9">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AP9">
-        <v>0</v>
+        <v>3.04</v>
       </c>
       <c r="AQ9">
-        <v>0</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="10" spans="1:43">
@@ -2114,88 +2093,88 @@
         <v>45366</v>
       </c>
       <c r="C10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D10">
         <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F10" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G10">
-        <v>3.75</v>
+        <v>1.83</v>
       </c>
       <c r="H10">
+        <v>2.4</v>
+      </c>
+      <c r="I10">
+        <v>6.5</v>
+      </c>
+      <c r="J10">
+        <v>1.43</v>
+      </c>
+      <c r="K10">
+        <v>4.5</v>
+      </c>
+      <c r="L10">
+        <v>6.2</v>
+      </c>
+      <c r="M10">
+        <v>1.32</v>
+      </c>
+      <c r="N10">
+        <v>3.29</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>10</v>
+      </c>
+      <c r="Q10">
+        <v>1.18</v>
+      </c>
+      <c r="R10">
+        <v>4.1</v>
+      </c>
+      <c r="S10">
+        <v>1.65</v>
+      </c>
+      <c r="T10">
         <v>2.1</v>
       </c>
-      <c r="I10">
-        <v>2.75</v>
-      </c>
-      <c r="J10">
+      <c r="U10">
+        <v>1.91</v>
+      </c>
+      <c r="V10">
+        <v>1.8</v>
+      </c>
+      <c r="W10">
+        <v>1.07</v>
+      </c>
+      <c r="X10">
+        <v>1.17</v>
+      </c>
+      <c r="Y10">
+        <v>2.91</v>
+      </c>
+      <c r="Z10">
+        <v>2.44</v>
+      </c>
+      <c r="AA10">
+        <v>1.11</v>
+      </c>
+      <c r="AB10">
+        <v>1.88</v>
+      </c>
+      <c r="AC10">
+        <v>1.22</v>
+      </c>
+      <c r="AD10">
         <v>3.1</v>
-      </c>
-      <c r="K10">
-        <v>3.3</v>
-      </c>
-      <c r="L10">
-        <v>2.05</v>
-      </c>
-      <c r="M10">
-        <v>1.37</v>
-      </c>
-      <c r="N10">
-        <v>3.01</v>
-      </c>
-      <c r="O10">
-        <v>1.01</v>
-      </c>
-      <c r="P10">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="Q10">
-        <v>1.26</v>
-      </c>
-      <c r="R10">
-        <v>3.34</v>
-      </c>
-      <c r="S10">
-        <v>1.85</v>
-      </c>
-      <c r="T10">
-        <v>1.85</v>
-      </c>
-      <c r="U10">
-        <v>1.8</v>
-      </c>
-      <c r="V10">
-        <v>1.91</v>
-      </c>
-      <c r="W10">
-        <v>1.72</v>
-      </c>
-      <c r="X10">
-        <v>1.28</v>
-      </c>
-      <c r="Y10">
-        <v>1.3</v>
-      </c>
-      <c r="Z10">
-        <v>0.22</v>
-      </c>
-      <c r="AA10">
-        <v>0.67</v>
-      </c>
-      <c r="AB10">
-        <v>1.39</v>
-      </c>
-      <c r="AC10">
-        <v>1.44</v>
-      </c>
-      <c r="AD10">
-        <v>2.83</v>
       </c>
       <c r="AE10">
         <v>0</v>
@@ -2245,34 +2224,34 @@
         <v>45366</v>
       </c>
       <c r="C11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D11">
         <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F11" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G11">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H11">
         <v>2.1</v>
       </c>
       <c r="I11">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J11">
-        <v>2.62</v>
+        <v>2.75</v>
       </c>
       <c r="K11">
         <v>3.3</v>
       </c>
       <c r="L11">
-        <v>2.3</v>
+        <v>2.43</v>
       </c>
       <c r="M11">
         <v>1.38</v>
@@ -2293,10 +2272,10 @@
         <v>3.34</v>
       </c>
       <c r="S11">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="T11">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="U11">
         <v>1.73</v>
@@ -2376,88 +2355,88 @@
         <v>45366</v>
       </c>
       <c r="C12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D12">
         <v>20</v>
       </c>
       <c r="E12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F12" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G12">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="H12">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="I12">
-        <v>4.33</v>
+        <v>2.75</v>
       </c>
       <c r="J12">
-        <v>1.65</v>
+        <v>3.35</v>
       </c>
       <c r="K12">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="L12">
-        <v>4</v>
+        <v>1.97</v>
       </c>
       <c r="M12">
-        <v>1.27</v>
+        <v>1.37</v>
       </c>
       <c r="N12">
-        <v>3.45</v>
+        <v>3.01</v>
       </c>
       <c r="O12">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="P12">
-        <v>12</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Q12">
-        <v>1.15</v>
+        <v>1.26</v>
       </c>
       <c r="R12">
-        <v>4.6</v>
+        <v>3.34</v>
       </c>
       <c r="S12">
-        <v>1.6</v>
+        <v>1.87</v>
       </c>
       <c r="T12">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="U12">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="V12">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W12">
-        <v>1.2</v>
+        <v>1.72</v>
       </c>
       <c r="X12">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="Y12">
-        <v>1.95</v>
+        <v>1.3</v>
       </c>
       <c r="Z12">
-        <v>2.22</v>
+        <v>0.22</v>
       </c>
       <c r="AA12">
-        <v>1.22</v>
+        <v>0.67</v>
       </c>
       <c r="AB12">
-        <v>1.7</v>
+        <v>1.39</v>
       </c>
       <c r="AC12">
-        <v>1.65</v>
+        <v>1.44</v>
       </c>
       <c r="AD12">
-        <v>3.35</v>
+        <v>2.83</v>
       </c>
       <c r="AE12">
         <v>0</v>
@@ -2507,16 +2486,16 @@
         <v>45366</v>
       </c>
       <c r="C13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D13">
         <v>30</v>
       </c>
       <c r="E13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F13" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G13">
         <v>2.7</v>
@@ -2528,13 +2507,13 @@
         <v>4.33</v>
       </c>
       <c r="J13">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="K13">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="L13">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="M13">
         <v>1.5</v>
@@ -2591,43 +2570,43 @@
         <v>2.4</v>
       </c>
       <c r="AE13">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AF13">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG13">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="AH13">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AI13">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="AJ13">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="AK13">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="AL13">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AM13">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AN13">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="AO13">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="AP13">
-        <v>0</v>
+        <v>3.42</v>
       </c>
       <c r="AQ13">
-        <v>0</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="14" spans="1:43">
@@ -2638,16 +2617,16 @@
         <v>45366</v>
       </c>
       <c r="C14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D14">
         <v>30</v>
       </c>
       <c r="E14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F14" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="G14">
         <v>2.2</v>
@@ -2662,10 +2641,10 @@
         <v>1.6</v>
       </c>
       <c r="K14">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="L14">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="M14">
         <v>1.33</v>
@@ -2722,25 +2701,25 @@
         <v>2.28</v>
       </c>
       <c r="AE14">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AF14">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AG14">
-        <v>0</v>
+        <v>3.58</v>
       </c>
       <c r="AH14">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AI14">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="AJ14">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AK14">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="AL14">
         <v>1.9</v>
@@ -2749,16 +2728,16 @@
         <v>1.9</v>
       </c>
       <c r="AN14">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="AO14">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="AP14">
-        <v>0</v>
+        <v>2.93</v>
       </c>
       <c r="AQ14">
-        <v>0</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="15" spans="1:43">
@@ -2769,16 +2748,16 @@
         <v>45366</v>
       </c>
       <c r="C15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D15">
         <v>26</v>
       </c>
       <c r="E15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F15" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G15">
         <v>2.35</v>
@@ -2790,13 +2769,13 @@
         <v>3.9</v>
       </c>
       <c r="J15">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="K15">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L15">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M15">
         <v>1.29</v>
@@ -2853,43 +2832,43 @@
         <v>2.82</v>
       </c>
       <c r="AE15">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AF15">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG15">
-        <v>0</v>
+        <v>3.16</v>
       </c>
       <c r="AH15">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="AI15">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="AJ15">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AK15">
-        <v>0</v>
+        <v>3.18</v>
       </c>
       <c r="AL15">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AM15">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AN15">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="AO15">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AP15">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AQ15">
-        <v>0</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="16" spans="1:43">
@@ -2900,16 +2879,16 @@
         <v>45366</v>
       </c>
       <c r="C16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D16">
         <v>26</v>
       </c>
       <c r="E16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F16" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G16">
         <v>3.9</v>
@@ -2921,13 +2900,13 @@
         <v>2.35</v>
       </c>
       <c r="J16">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="K16">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="L16">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="M16">
         <v>1.27</v>
@@ -2948,10 +2927,10 @@
         <v>4.6</v>
       </c>
       <c r="S16">
-        <v>1.61</v>
+        <v>1.57</v>
       </c>
       <c r="T16">
-        <v>2.32</v>
+        <v>2.25</v>
       </c>
       <c r="U16">
         <v>1.5</v>
@@ -2984,31 +2963,31 @@
         <v>2.87</v>
       </c>
       <c r="AE16">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="AF16">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AG16">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AH16">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AI16">
-        <v>0</v>
+        <v>4.33</v>
       </c>
       <c r="AJ16">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AK16">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="AL16">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AM16">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AN16">
         <v>1.88</v>
@@ -3017,10 +2996,10 @@
         <v>1.92</v>
       </c>
       <c r="AP16">
-        <v>0</v>
+        <v>2.29</v>
       </c>
       <c r="AQ16">
-        <v>0</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="17" spans="1:43">
@@ -3031,16 +3010,16 @@
         <v>45366</v>
       </c>
       <c r="C17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D17">
         <v>26</v>
       </c>
       <c r="E17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F17" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G17">
         <v>3.26</v>
@@ -3055,7 +3034,7 @@
         <v>2.5</v>
       </c>
       <c r="K17">
-        <v>2.87</v>
+        <v>2.9</v>
       </c>
       <c r="L17">
         <v>2.75</v>
@@ -3115,43 +3094,43 @@
         <v>2.54</v>
       </c>
       <c r="AE17">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AF17">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG17">
-        <v>0</v>
+        <v>2.49</v>
       </c>
       <c r="AH17">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AI17">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="AJ17">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AK17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AL17">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AM17">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AN17">
-        <v>0</v>
+        <v>2.07</v>
       </c>
       <c r="AO17">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AP17">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AQ17">
-        <v>0</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="18" spans="1:43">
@@ -3162,320 +3141,320 @@
         <v>45366</v>
       </c>
       <c r="C18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="E18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F18" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G18">
         <v>2.88</v>
       </c>
       <c r="H18">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="I18">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="J18">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="K18">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="M18">
+        <v>1.4</v>
+      </c>
+      <c r="N18">
+        <v>2.75</v>
+      </c>
+      <c r="O18">
+        <v>1.06</v>
+      </c>
+      <c r="P18">
+        <v>8</v>
+      </c>
+      <c r="Q18">
+        <v>1.33</v>
+      </c>
+      <c r="R18">
+        <v>3.25</v>
+      </c>
+      <c r="S18">
+        <v>1.98</v>
+      </c>
+      <c r="T18">
+        <v>1.8</v>
+      </c>
+      <c r="U18">
+        <v>1.83</v>
+      </c>
+      <c r="V18">
+        <v>1.83</v>
+      </c>
+      <c r="W18">
         <v>1.36</v>
       </c>
-      <c r="N18">
-        <v>3</v>
-      </c>
-      <c r="O18">
-        <v>1.04</v>
-      </c>
-      <c r="P18">
-        <v>10.5</v>
-      </c>
-      <c r="Q18">
-        <v>1.27</v>
-      </c>
-      <c r="R18">
-        <v>3.86</v>
-      </c>
-      <c r="S18">
-        <v>1.7</v>
-      </c>
-      <c r="T18">
-        <v>2</v>
-      </c>
-      <c r="U18">
-        <v>1.67</v>
-      </c>
-      <c r="V18">
-        <v>2.1</v>
-      </c>
-      <c r="W18">
-        <v>1.35</v>
-      </c>
       <c r="X18">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="Y18">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="Z18">
-        <v>1.27</v>
+        <v>1.23</v>
       </c>
       <c r="AA18">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="AB18">
+        <v>1.34</v>
+      </c>
+      <c r="AC18">
+        <v>1.16</v>
+      </c>
+      <c r="AD18">
+        <v>2.5</v>
+      </c>
+      <c r="AE18">
+        <v>1.77</v>
+      </c>
+      <c r="AF18">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AG18">
+        <v>2.28</v>
+      </c>
+      <c r="AH18">
+        <v>1.19</v>
+      </c>
+      <c r="AI18">
+        <v>3.92</v>
+      </c>
+      <c r="AJ18">
+        <v>1.38</v>
+      </c>
+      <c r="AK18">
+        <v>2.71</v>
+      </c>
+      <c r="AL18">
         <v>1.72</v>
       </c>
-      <c r="AC18">
-        <v>1.37</v>
-      </c>
-      <c r="AD18">
-        <v>3.09</v>
-      </c>
-      <c r="AE18">
-        <v>1.69</v>
-      </c>
-      <c r="AF18">
-        <v>8</v>
-      </c>
-      <c r="AG18">
-        <v>2.54</v>
-      </c>
-      <c r="AH18">
-        <v>0</v>
-      </c>
-      <c r="AI18">
-        <v>0</v>
-      </c>
-      <c r="AJ18">
-        <v>0</v>
-      </c>
-      <c r="AK18">
-        <v>0</v>
-      </c>
-      <c r="AL18">
-        <v>0</v>
-      </c>
       <c r="AM18">
-        <v>0</v>
+        <v>2.09</v>
       </c>
       <c r="AN18">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="AO18">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AP18">
-        <v>0</v>
+        <v>2.79</v>
       </c>
       <c r="AQ18">
-        <v>0</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="19" spans="1:43">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B19" s="2">
         <v>45366</v>
       </c>
       <c r="C19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F19" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G19">
-        <v>2.3</v>
+        <v>2.88</v>
       </c>
       <c r="H19">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="I19">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="J19">
-        <v>1.73</v>
+        <v>2.25</v>
       </c>
       <c r="K19">
         <v>3.4</v>
       </c>
       <c r="L19">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="M19">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="N19">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="O19">
         <v>1.04</v>
       </c>
       <c r="P19">
-        <v>8.5</v>
+        <v>10.5</v>
       </c>
       <c r="Q19">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="R19">
-        <v>3.3</v>
+        <v>3.86</v>
       </c>
       <c r="S19">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="T19">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="U19">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="V19">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="W19">
-        <v>1.2</v>
+        <v>1.35</v>
       </c>
       <c r="X19">
         <v>1.29</v>
       </c>
       <c r="Y19">
-        <v>2.05</v>
+        <v>1.65</v>
       </c>
       <c r="Z19">
-        <v>2.13</v>
+        <v>1.27</v>
       </c>
       <c r="AA19">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AB19">
-        <v>1.83</v>
+        <v>1.72</v>
       </c>
       <c r="AC19">
-        <v>1.45</v>
+        <v>1.37</v>
       </c>
       <c r="AD19">
-        <v>3.28</v>
+        <v>3.09</v>
       </c>
       <c r="AE19">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="AF19">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AG19">
-        <v>0</v>
+        <v>2.54</v>
       </c>
       <c r="AH19">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AI19">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="AJ19">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AK19">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="AL19">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="AM19">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="AN19">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="AO19">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="AP19">
-        <v>0</v>
+        <v>2.69</v>
       </c>
       <c r="AQ19">
-        <v>0</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="20" spans="1:43">
       <c r="A20" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B20" s="2">
         <v>45366</v>
       </c>
       <c r="C20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D20">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F20" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="G20">
-        <v>2.88</v>
+        <v>2.3</v>
       </c>
       <c r="H20">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="I20">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="J20">
-        <v>2.3</v>
+        <v>1.67</v>
       </c>
       <c r="K20">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="L20">
-        <v>3.2</v>
+        <v>4.4</v>
       </c>
       <c r="M20">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="N20">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="O20">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="P20">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Q20">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="R20">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="S20">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="T20">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="U20">
         <v>1.8</v>
@@ -3484,67 +3463,67 @@
         <v>1.91</v>
       </c>
       <c r="W20">
-        <v>1.36</v>
+        <v>1.2</v>
       </c>
       <c r="X20">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="Y20">
-        <v>1.57</v>
+        <v>2.05</v>
       </c>
       <c r="Z20">
-        <v>1.23</v>
+        <v>2.13</v>
       </c>
       <c r="AA20">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="AB20">
-        <v>1.34</v>
+        <v>1.83</v>
       </c>
       <c r="AC20">
-        <v>1.16</v>
+        <v>1.45</v>
       </c>
       <c r="AD20">
-        <v>2.5</v>
+        <v>3.28</v>
       </c>
       <c r="AE20">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AF20">
-        <v>0</v>
+        <v>8.9</v>
       </c>
       <c r="AG20">
-        <v>0</v>
+        <v>2.66</v>
       </c>
       <c r="AH20">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AI20">
-        <v>0</v>
+        <v>3.28</v>
       </c>
       <c r="AJ20">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AK20">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="AL20">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AM20">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="AN20">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="AO20">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AP20">
-        <v>0</v>
+        <v>3.28</v>
       </c>
       <c r="AQ20">
-        <v>0</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="21" spans="1:43">
@@ -3555,58 +3534,58 @@
         <v>45366</v>
       </c>
       <c r="C21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D21">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F21" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G21">
+        <v>3.4</v>
+      </c>
+      <c r="H21">
         <v>2.25</v>
       </c>
-      <c r="H21">
-        <v>2.4</v>
-      </c>
       <c r="I21">
-        <v>4.33</v>
+        <v>3</v>
       </c>
       <c r="J21">
+        <v>3.2</v>
+      </c>
+      <c r="K21">
+        <v>3.3</v>
+      </c>
+      <c r="L21">
+        <v>2.2</v>
+      </c>
+      <c r="M21">
+        <v>1.36</v>
+      </c>
+      <c r="N21">
+        <v>3</v>
+      </c>
+      <c r="O21">
+        <v>1.04</v>
+      </c>
+      <c r="P21">
+        <v>13</v>
+      </c>
+      <c r="Q21">
+        <v>1.24</v>
+      </c>
+      <c r="R21">
+        <v>3.89</v>
+      </c>
+      <c r="S21">
         <v>1.7</v>
       </c>
-      <c r="K21">
-        <v>4.33</v>
-      </c>
-      <c r="L21">
-        <v>3.6</v>
-      </c>
-      <c r="M21">
-        <v>1.29</v>
-      </c>
-      <c r="N21">
-        <v>3.5</v>
-      </c>
-      <c r="O21">
-        <v>1.02</v>
-      </c>
-      <c r="P21">
-        <v>20</v>
-      </c>
-      <c r="Q21">
-        <v>1.17</v>
-      </c>
-      <c r="R21">
-        <v>4.5</v>
-      </c>
-      <c r="S21">
-        <v>1.57</v>
-      </c>
       <c r="T21">
-        <v>2.35</v>
+        <v>2.05</v>
       </c>
       <c r="U21">
         <v>1.62</v>
@@ -3615,168 +3594,168 @@
         <v>2.2</v>
       </c>
       <c r="W21">
-        <v>1.15</v>
+        <v>1.6</v>
       </c>
       <c r="X21">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="Y21">
+        <v>1.42</v>
+      </c>
+      <c r="Z21">
+        <v>1.25</v>
+      </c>
+      <c r="AA21">
+        <v>1.33</v>
+      </c>
+      <c r="AB21">
+        <v>1.44</v>
+      </c>
+      <c r="AC21">
+        <v>1.16</v>
+      </c>
+      <c r="AD21">
+        <v>2.6</v>
+      </c>
+      <c r="AE21">
         <v>2.15</v>
       </c>
-      <c r="Z21">
-        <v>2.07</v>
-      </c>
-      <c r="AA21">
-        <v>1.67</v>
-      </c>
-      <c r="AB21">
-        <v>2.05</v>
-      </c>
-      <c r="AC21">
+      <c r="AF21">
+        <v>7.5</v>
+      </c>
+      <c r="AG21">
+        <v>1.93</v>
+      </c>
+      <c r="AH21">
+        <v>1.29</v>
+      </c>
+      <c r="AI21">
+        <v>3.05</v>
+      </c>
+      <c r="AJ21">
         <v>1.53</v>
       </c>
-      <c r="AD21">
-        <v>3.58</v>
-      </c>
-      <c r="AE21">
-        <v>0</v>
-      </c>
-      <c r="AF21">
-        <v>0</v>
-      </c>
-      <c r="AG21">
-        <v>0</v>
-      </c>
-      <c r="AH21">
-        <v>0</v>
-      </c>
-      <c r="AI21">
-        <v>0</v>
-      </c>
-      <c r="AJ21">
-        <v>0</v>
-      </c>
       <c r="AK21">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="AL21">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AM21">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="AN21">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AO21">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="AP21">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="AQ21">
-        <v>0</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="22" spans="1:43">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B22" s="2">
         <v>45366</v>
       </c>
       <c r="C22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D22">
         <v>30</v>
       </c>
       <c r="E22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F22" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G22">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="H22">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="I22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J22">
-        <v>2.63</v>
+        <v>1.9</v>
       </c>
       <c r="K22">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L22">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="M22">
-        <v>1.36</v>
+        <v>1.22</v>
       </c>
       <c r="N22">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="O22">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="P22">
-        <v>7.8</v>
+        <v>10</v>
       </c>
       <c r="Q22">
-        <v>1.24</v>
+        <v>1.1</v>
       </c>
       <c r="R22">
-        <v>3.6</v>
+        <v>5.7</v>
       </c>
       <c r="S22">
-        <v>1.85</v>
+        <v>1.57</v>
       </c>
       <c r="T22">
-        <v>1.95</v>
+        <v>2.35</v>
       </c>
       <c r="U22">
-        <v>1.73</v>
+        <v>1.45</v>
       </c>
       <c r="V22">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="W22">
-        <v>1.53</v>
+        <v>1.27</v>
       </c>
       <c r="X22">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="Y22">
-        <v>1.44</v>
+        <v>1.72</v>
       </c>
       <c r="Z22">
-        <v>1.07</v>
+        <v>1.57</v>
       </c>
       <c r="AA22">
         <v>0.86</v>
       </c>
       <c r="AB22">
-        <v>1.21</v>
+        <v>1.58</v>
       </c>
       <c r="AC22">
-        <v>1.22</v>
+        <v>1.51</v>
       </c>
       <c r="AD22">
-        <v>2.43</v>
+        <v>3.09</v>
       </c>
       <c r="AE22">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AF22">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AG22">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AH22">
         <v>0</v>
@@ -3791,16 +3770,16 @@
         <v>0</v>
       </c>
       <c r="AL22">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AM22">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="AN22">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="AO22">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="AP22">
         <v>0</v>
@@ -3811,103 +3790,103 @@
     </row>
     <row r="23" spans="1:43">
       <c r="A23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B23" s="2">
         <v>45366</v>
       </c>
       <c r="C23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D23">
         <v>30</v>
       </c>
       <c r="E23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F23" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G23">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="H23">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="I23">
-        <v>2.63</v>
+        <v>2.1</v>
       </c>
       <c r="J23">
-        <v>3.5</v>
+        <v>5.64</v>
       </c>
       <c r="K23">
-        <v>3.3</v>
+        <v>4.29</v>
       </c>
       <c r="L23">
-        <v>1.95</v>
+        <v>1.56</v>
       </c>
       <c r="M23">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="N23">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="O23">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="P23">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q23">
         <v>1.2</v>
       </c>
       <c r="R23">
-        <v>3.88</v>
+        <v>4.33</v>
       </c>
       <c r="S23">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="T23">
         <v>2.1</v>
       </c>
       <c r="U23">
-        <v>1.62</v>
+        <v>1.72</v>
       </c>
       <c r="V23">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="W23">
-        <v>1.83</v>
+        <v>2.45</v>
       </c>
       <c r="X23">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="Y23">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="Z23">
-        <v>1.21</v>
+        <v>0.93</v>
       </c>
       <c r="AA23">
-        <v>1.07</v>
+        <v>1.79</v>
       </c>
       <c r="AB23">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="AC23">
-        <v>1.41</v>
+        <v>1.48</v>
       </c>
       <c r="AD23">
         <v>2.77</v>
       </c>
       <c r="AE23">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="AF23">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="AG23">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AH23">
         <v>0</v>
@@ -3922,16 +3901,16 @@
         <v>0</v>
       </c>
       <c r="AL23">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="AM23">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AN23">
-        <v>0</v>
+        <v>2.19</v>
       </c>
       <c r="AO23">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AP23">
         <v>0</v>
@@ -3942,127 +3921,127 @@
     </row>
     <row r="24" spans="1:43">
       <c r="A24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B24" s="2">
         <v>45366</v>
       </c>
       <c r="C24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D24">
         <v>30</v>
       </c>
       <c r="E24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F24" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="G24">
+        <v>2.38</v>
+      </c>
+      <c r="H24">
+        <v>2.5</v>
+      </c>
+      <c r="I24">
+        <v>4</v>
+      </c>
+      <c r="J24">
+        <v>1.8</v>
+      </c>
+      <c r="K24">
+        <v>3.4</v>
+      </c>
+      <c r="L24">
+        <v>4.33</v>
+      </c>
+      <c r="M24">
+        <v>1.25</v>
+      </c>
+      <c r="N24">
         <v>3.75</v>
       </c>
-      <c r="H24">
-        <v>2.3</v>
-      </c>
-      <c r="I24">
-        <v>2.6</v>
-      </c>
-      <c r="J24">
-        <v>3.6</v>
-      </c>
-      <c r="K24">
-        <v>3.3</v>
-      </c>
-      <c r="L24">
-        <v>1.95</v>
-      </c>
-      <c r="M24">
-        <v>1.33</v>
-      </c>
-      <c r="N24">
-        <v>3.25</v>
-      </c>
       <c r="O24">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="P24">
-        <v>12.5</v>
+        <v>10</v>
       </c>
       <c r="Q24">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="R24">
-        <v>4</v>
+        <v>5.3</v>
       </c>
       <c r="S24">
-        <v>1.73</v>
+        <v>1.53</v>
       </c>
       <c r="T24">
-        <v>2.08</v>
+        <v>2.4</v>
       </c>
       <c r="U24">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="V24">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="W24">
+        <v>1.16</v>
+      </c>
+      <c r="X24">
+        <v>1.22</v>
+      </c>
+      <c r="Y24">
+        <v>2.05</v>
+      </c>
+      <c r="Z24">
+        <v>2.13</v>
+      </c>
+      <c r="AA24">
+        <v>1.4</v>
+      </c>
+      <c r="AB24">
+        <v>1.81</v>
+      </c>
+      <c r="AC24">
+        <v>1.4</v>
+      </c>
+      <c r="AD24">
+        <v>3.21</v>
+      </c>
+      <c r="AE24">
+        <v>1.5</v>
+      </c>
+      <c r="AF24">
+        <v>9</v>
+      </c>
+      <c r="AG24">
+        <v>2.8</v>
+      </c>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
+      </c>
+      <c r="AJ24">
+        <v>0</v>
+      </c>
+      <c r="AK24">
+        <v>0</v>
+      </c>
+      <c r="AL24">
+        <v>1.63</v>
+      </c>
+      <c r="AM24">
+        <v>2.25</v>
+      </c>
+      <c r="AN24">
+        <v>2.02</v>
+      </c>
+      <c r="AO24">
         <v>1.78</v>
-      </c>
-      <c r="X24">
-        <v>1.3</v>
-      </c>
-      <c r="Y24">
-        <v>1.28</v>
-      </c>
-      <c r="Z24">
-        <v>1.14</v>
-      </c>
-      <c r="AA24">
-        <v>1.73</v>
-      </c>
-      <c r="AB24">
-        <v>1.64</v>
-      </c>
-      <c r="AC24">
-        <v>1.53</v>
-      </c>
-      <c r="AD24">
-        <v>3.17</v>
-      </c>
-      <c r="AE24">
-        <v>0</v>
-      </c>
-      <c r="AF24">
-        <v>0</v>
-      </c>
-      <c r="AG24">
-        <v>0</v>
-      </c>
-      <c r="AH24">
-        <v>0</v>
-      </c>
-      <c r="AI24">
-        <v>0</v>
-      </c>
-      <c r="AJ24">
-        <v>0</v>
-      </c>
-      <c r="AK24">
-        <v>0</v>
-      </c>
-      <c r="AL24">
-        <v>0</v>
-      </c>
-      <c r="AM24">
-        <v>0</v>
-      </c>
-      <c r="AN24">
-        <v>0</v>
-      </c>
-      <c r="AO24">
-        <v>0</v>
       </c>
       <c r="AP24">
         <v>0</v>
@@ -4073,103 +4052,103 @@
     </row>
     <row r="25" spans="1:43">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B25" s="2">
         <v>45366</v>
       </c>
       <c r="C25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25">
         <v>30</v>
       </c>
       <c r="E25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F25" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G25">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="H25">
+        <v>2.38</v>
+      </c>
+      <c r="I25">
+        <v>3.1</v>
+      </c>
+      <c r="J25">
         <v>2.4</v>
       </c>
-      <c r="I25">
-        <v>4.75</v>
-      </c>
-      <c r="J25">
-        <v>1.64</v>
-      </c>
       <c r="K25">
-        <v>4.18</v>
+        <v>3.6</v>
       </c>
       <c r="L25">
-        <v>5.02</v>
+        <v>2.5</v>
       </c>
       <c r="M25">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="N25">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="O25">
         <v>1.02</v>
       </c>
       <c r="P25">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="Q25">
-        <v>1.2</v>
+        <v>1.11</v>
       </c>
       <c r="R25">
-        <v>4.5</v>
+        <v>5.3</v>
       </c>
       <c r="S25">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="T25">
-        <v>2.15</v>
+        <v>2.35</v>
       </c>
       <c r="U25">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="V25">
-        <v>2.2</v>
+        <v>2.63</v>
       </c>
       <c r="W25">
-        <v>1.18</v>
+        <v>1.5</v>
       </c>
       <c r="X25">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="Y25">
-        <v>2.25</v>
+        <v>1.51</v>
       </c>
       <c r="Z25">
+        <v>1.93</v>
+      </c>
+      <c r="AA25">
+        <v>1.43</v>
+      </c>
+      <c r="AB25">
         <v>1.57</v>
       </c>
-      <c r="AA25">
-        <v>1.07</v>
-      </c>
-      <c r="AB25">
-        <v>1.73</v>
-      </c>
       <c r="AC25">
-        <v>1.42</v>
+        <v>1.64</v>
       </c>
       <c r="AD25">
-        <v>3.15</v>
+        <v>3.21</v>
       </c>
       <c r="AE25">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AF25">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AG25">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AH25">
         <v>0</v>
@@ -4184,16 +4163,16 @@
         <v>0</v>
       </c>
       <c r="AL25">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="AM25">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="AN25">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AO25">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="AP25">
         <v>0</v>
@@ -4204,234 +4183,234 @@
     </row>
     <row r="26" spans="1:43">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B26" s="2">
         <v>45366</v>
       </c>
       <c r="C26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D26">
         <v>30</v>
       </c>
       <c r="E26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F26" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="G26">
-        <v>2.38</v>
+        <v>3.4</v>
       </c>
       <c r="H26">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="I26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J26">
-        <v>1.8</v>
+        <v>2.63</v>
       </c>
       <c r="K26">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="L26">
-        <v>4.33</v>
+        <v>2.25</v>
       </c>
       <c r="M26">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="N26">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="O26">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="P26">
-        <v>10</v>
+        <v>7.8</v>
       </c>
       <c r="Q26">
-        <v>1.11</v>
+        <v>1.24</v>
       </c>
       <c r="R26">
-        <v>5.3</v>
+        <v>3.6</v>
       </c>
       <c r="S26">
+        <v>1.85</v>
+      </c>
+      <c r="T26">
+        <v>1.95</v>
+      </c>
+      <c r="U26">
+        <v>1.73</v>
+      </c>
+      <c r="V26">
+        <v>2</v>
+      </c>
+      <c r="W26">
         <v>1.53</v>
       </c>
-      <c r="T26">
-        <v>2.4</v>
-      </c>
-      <c r="U26">
-        <v>1.5</v>
-      </c>
-      <c r="V26">
-        <v>2.5</v>
-      </c>
-      <c r="W26">
-        <v>1.16</v>
-      </c>
       <c r="X26">
+        <v>1.3</v>
+      </c>
+      <c r="Y26">
+        <v>1.44</v>
+      </c>
+      <c r="Z26">
+        <v>1.07</v>
+      </c>
+      <c r="AA26">
+        <v>0.86</v>
+      </c>
+      <c r="AB26">
+        <v>1.21</v>
+      </c>
+      <c r="AC26">
         <v>1.22</v>
       </c>
-      <c r="Y26">
-        <v>2.05</v>
-      </c>
-      <c r="Z26">
-        <v>2.13</v>
-      </c>
-      <c r="AA26">
-        <v>1.4</v>
-      </c>
-      <c r="AB26">
-        <v>1.81</v>
-      </c>
-      <c r="AC26">
-        <v>1.4</v>
-      </c>
       <c r="AD26">
-        <v>3.21</v>
+        <v>2.43</v>
       </c>
       <c r="AE26">
-        <v>0</v>
+        <v>2.11</v>
       </c>
       <c r="AF26">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG26">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AH26">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AI26">
-        <v>0</v>
+        <v>3.74</v>
       </c>
       <c r="AJ26">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AK26">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="AL26">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="AM26">
-        <v>0</v>
+        <v>2.01</v>
       </c>
       <c r="AN26">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="AO26">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AP26">
-        <v>0</v>
+        <v>2.93</v>
       </c>
       <c r="AQ26">
-        <v>0</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="27" spans="1:43">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B27" s="2">
         <v>45366</v>
       </c>
       <c r="C27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D27">
         <v>30</v>
       </c>
       <c r="E27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F27" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G27">
-        <v>5.5</v>
+        <v>2.2</v>
       </c>
       <c r="H27">
         <v>2.4</v>
       </c>
       <c r="I27">
-        <v>2.1</v>
+        <v>4.75</v>
       </c>
       <c r="J27">
-        <v>5.64</v>
+        <v>1.64</v>
       </c>
       <c r="K27">
-        <v>4.29</v>
+        <v>4.18</v>
       </c>
       <c r="L27">
-        <v>1.56</v>
+        <v>5.02</v>
       </c>
       <c r="M27">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="N27">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="O27">
         <v>1.02</v>
       </c>
       <c r="P27">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Q27">
         <v>1.2</v>
       </c>
       <c r="R27">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="S27">
-        <v>1.68</v>
+        <v>1.62</v>
       </c>
       <c r="T27">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="U27">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="V27">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="W27">
-        <v>2.45</v>
+        <v>1.18</v>
       </c>
       <c r="X27">
         <v>1.18</v>
       </c>
       <c r="Y27">
-        <v>1.15</v>
+        <v>2.25</v>
       </c>
       <c r="Z27">
-        <v>0.93</v>
+        <v>1.57</v>
       </c>
       <c r="AA27">
-        <v>1.79</v>
+        <v>1.07</v>
       </c>
       <c r="AB27">
-        <v>1.29</v>
+        <v>1.73</v>
       </c>
       <c r="AC27">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="AD27">
-        <v>2.77</v>
+        <v>3.15</v>
       </c>
       <c r="AE27">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AF27">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="AG27">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="AH27">
         <v>0</v>
@@ -4446,16 +4425,16 @@
         <v>0</v>
       </c>
       <c r="AL27">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="AM27">
-        <v>0</v>
+        <v>2.19</v>
       </c>
       <c r="AN27">
-        <v>0</v>
+        <v>2.07</v>
       </c>
       <c r="AO27">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AP27">
         <v>0</v>
@@ -4472,58 +4451,58 @@
         <v>45366</v>
       </c>
       <c r="C28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D28">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F28" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G28">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
       <c r="H28">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="I28">
-        <v>3</v>
+        <v>4.33</v>
       </c>
       <c r="J28">
-        <v>3.1</v>
+        <v>1.7</v>
       </c>
       <c r="K28">
-        <v>3.3</v>
+        <v>4.33</v>
       </c>
       <c r="L28">
-        <v>2.25</v>
+        <v>3.6</v>
       </c>
       <c r="M28">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="N28">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="O28">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="P28">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="Q28">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="R28">
-        <v>3.89</v>
+        <v>4.5</v>
       </c>
       <c r="S28">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="T28">
-        <v>2.05</v>
+        <v>2.35</v>
       </c>
       <c r="U28">
         <v>1.62</v>
@@ -4532,168 +4511,168 @@
         <v>2.2</v>
       </c>
       <c r="W28">
-        <v>1.6</v>
+        <v>1.15</v>
       </c>
       <c r="X28">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="Y28">
-        <v>1.42</v>
+        <v>2.15</v>
       </c>
       <c r="Z28">
-        <v>1.25</v>
+        <v>2.07</v>
       </c>
       <c r="AA28">
-        <v>1.33</v>
+        <v>1.67</v>
       </c>
       <c r="AB28">
-        <v>1.44</v>
+        <v>2.05</v>
       </c>
       <c r="AC28">
-        <v>1.16</v>
+        <v>1.53</v>
       </c>
       <c r="AD28">
-        <v>2.6</v>
+        <v>3.58</v>
       </c>
       <c r="AE28">
-        <v>2.15</v>
+        <v>1.36</v>
       </c>
       <c r="AF28">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="AG28">
-        <v>1.93</v>
+        <v>3.4</v>
       </c>
       <c r="AH28">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="AI28">
-        <v>3.05</v>
+        <v>0</v>
       </c>
       <c r="AJ28">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="AK28">
-        <v>2.28</v>
+        <v>0</v>
       </c>
       <c r="AL28">
-        <v>1.9</v>
+        <v>1.62</v>
       </c>
       <c r="AM28">
+        <v>2.26</v>
+      </c>
+      <c r="AN28">
+        <v>2.01</v>
+      </c>
+      <c r="AO28">
         <v>1.79</v>
       </c>
-      <c r="AN28">
-        <v>2.4</v>
-      </c>
-      <c r="AO28">
-        <v>1.46</v>
-      </c>
       <c r="AP28">
-        <v>3.2</v>
+        <v>2.58</v>
       </c>
       <c r="AQ28">
-        <v>1.27</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="29" spans="1:43">
       <c r="A29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B29" s="2">
         <v>45366</v>
       </c>
       <c r="C29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D29">
         <v>30</v>
       </c>
       <c r="E29" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F29" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G29">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="H29">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="I29">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="J29">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="K29">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="L29">
-        <v>2.5</v>
+        <v>1.95</v>
       </c>
       <c r="M29">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="N29">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="O29">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="P29">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="Q29">
-        <v>1.11</v>
+        <v>1.18</v>
       </c>
       <c r="R29">
-        <v>5.3</v>
+        <v>4</v>
       </c>
       <c r="S29">
-        <v>1.57</v>
+        <v>1.73</v>
       </c>
       <c r="T29">
-        <v>2.35</v>
+        <v>2.08</v>
       </c>
       <c r="U29">
-        <v>1.44</v>
+        <v>1.62</v>
       </c>
       <c r="V29">
-        <v>2.63</v>
+        <v>2.2</v>
       </c>
       <c r="W29">
-        <v>1.5</v>
+        <v>1.78</v>
       </c>
       <c r="X29">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="Y29">
-        <v>1.51</v>
+        <v>1.28</v>
       </c>
       <c r="Z29">
-        <v>1.93</v>
+        <v>1.14</v>
       </c>
       <c r="AA29">
-        <v>1.43</v>
+        <v>1.73</v>
       </c>
       <c r="AB29">
-        <v>1.57</v>
+        <v>1.64</v>
       </c>
       <c r="AC29">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AD29">
-        <v>3.21</v>
+        <v>3.17</v>
       </c>
       <c r="AE29">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AF29">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AG29">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AH29">
         <v>0</v>
@@ -4708,16 +4687,16 @@
         <v>0</v>
       </c>
       <c r="AL29">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="AM29">
-        <v>0</v>
+        <v>2.11</v>
       </c>
       <c r="AN29">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="AO29">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AP29">
         <v>0</v>
@@ -4728,103 +4707,103 @@
     </row>
     <row r="30" spans="1:43">
       <c r="A30" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B30" s="2">
         <v>45366</v>
       </c>
       <c r="C30" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D30">
         <v>30</v>
       </c>
       <c r="E30" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F30" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G30">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="H30">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="I30">
-        <v>4</v>
+        <v>2.63</v>
       </c>
       <c r="J30">
-        <v>1.9</v>
+        <v>3.5</v>
       </c>
       <c r="K30">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="L30">
-        <v>3.5</v>
+        <v>1.95</v>
       </c>
       <c r="M30">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="N30">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="O30">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="P30">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="Q30">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="R30">
-        <v>5.7</v>
+        <v>3.88</v>
       </c>
       <c r="S30">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="T30">
-        <v>2.35</v>
+        <v>2.1</v>
       </c>
       <c r="U30">
-        <v>1.45</v>
+        <v>1.62</v>
       </c>
       <c r="V30">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="W30">
-        <v>1.27</v>
+        <v>1.83</v>
       </c>
       <c r="X30">
+        <v>1.3</v>
+      </c>
+      <c r="Y30">
         <v>1.25</v>
       </c>
-      <c r="Y30">
-        <v>1.72</v>
-      </c>
       <c r="Z30">
-        <v>1.57</v>
+        <v>1.21</v>
       </c>
       <c r="AA30">
-        <v>0.86</v>
+        <v>1.07</v>
       </c>
       <c r="AB30">
-        <v>1.58</v>
+        <v>1.36</v>
       </c>
       <c r="AC30">
-        <v>1.51</v>
+        <v>1.41</v>
       </c>
       <c r="AD30">
-        <v>3.09</v>
+        <v>2.77</v>
       </c>
       <c r="AE30">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="AF30">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AG30">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AH30">
         <v>0</v>
@@ -4839,16 +4818,16 @@
         <v>0</v>
       </c>
       <c r="AL30">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AM30">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="AN30">
-        <v>0</v>
+        <v>2.01</v>
       </c>
       <c r="AO30">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="AP30">
         <v>0</v>
@@ -4859,40 +4838,40 @@
     </row>
     <row r="31" spans="1:43">
       <c r="A31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B31" s="2">
         <v>45366</v>
       </c>
       <c r="C31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D31">
         <v>26</v>
       </c>
       <c r="E31" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F31" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G31">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H31">
         <v>2.25</v>
       </c>
       <c r="I31">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J31">
-        <v>1.73</v>
+        <v>1.65</v>
       </c>
       <c r="K31">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="L31">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="M31">
         <v>1.33</v>
@@ -4913,16 +4892,16 @@
         <v>4</v>
       </c>
       <c r="S31">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="T31">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="U31">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="V31">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W31">
         <v>1.18</v>
@@ -4949,659 +4928,659 @@
         <v>2.87</v>
       </c>
       <c r="AE31">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="AF31">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AG31">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="AH31">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AI31">
-        <v>0</v>
+        <v>4.05</v>
       </c>
       <c r="AJ31">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="AK31">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="AL31">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AM31">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AN31">
-        <v>0</v>
+        <v>2.07</v>
       </c>
       <c r="AO31">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AP31">
-        <v>0</v>
+        <v>2.71</v>
       </c>
       <c r="AQ31">
-        <v>0</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="32" spans="1:43">
       <c r="A32" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B32" s="2">
         <v>45366</v>
       </c>
       <c r="C32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D32">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E32" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F32" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G32">
+        <v>5.5</v>
+      </c>
+      <c r="H32">
+        <v>2.5</v>
+      </c>
+      <c r="I32">
+        <v>2.05</v>
+      </c>
+      <c r="J32">
+        <v>4.75</v>
+      </c>
+      <c r="K32">
+        <v>4.33</v>
+      </c>
+      <c r="L32">
+        <v>1.6</v>
+      </c>
+      <c r="M32">
+        <v>1.29</v>
+      </c>
+      <c r="N32">
         <v>3.5</v>
       </c>
-      <c r="H32">
+      <c r="O32">
+        <v>1.04</v>
+      </c>
+      <c r="P32">
+        <v>18.5</v>
+      </c>
+      <c r="Q32">
+        <v>1.17</v>
+      </c>
+      <c r="R32">
+        <v>4.7</v>
+      </c>
+      <c r="S32">
+        <v>1.53</v>
+      </c>
+      <c r="T32">
+        <v>2.3</v>
+      </c>
+      <c r="U32">
+        <v>1.7</v>
+      </c>
+      <c r="V32">
         <v>2.05</v>
       </c>
-      <c r="I32">
+      <c r="W32">
+        <v>2.37</v>
+      </c>
+      <c r="X32">
+        <v>1.18</v>
+      </c>
+      <c r="Y32">
+        <v>1.11</v>
+      </c>
+      <c r="Z32">
+        <v>0.75</v>
+      </c>
+      <c r="AA32">
+        <v>1.42</v>
+      </c>
+      <c r="AB32">
+        <v>1.46</v>
+      </c>
+      <c r="AC32">
+        <v>1.53</v>
+      </c>
+      <c r="AD32">
+        <v>2.99</v>
+      </c>
+      <c r="AE32">
+        <v>3.1</v>
+      </c>
+      <c r="AF32">
+        <v>8.5</v>
+      </c>
+      <c r="AG32">
+        <v>1.49</v>
+      </c>
+      <c r="AH32">
+        <v>1.26</v>
+      </c>
+      <c r="AI32">
+        <v>3.25</v>
+      </c>
+      <c r="AJ32">
+        <v>1.48</v>
+      </c>
+      <c r="AK32">
+        <v>2.35</v>
+      </c>
+      <c r="AL32">
+        <v>1.82</v>
+      </c>
+      <c r="AM32">
+        <v>1.87</v>
+      </c>
+      <c r="AN32">
+        <v>2.3</v>
+      </c>
+      <c r="AO32">
+        <v>1.52</v>
+      </c>
+      <c r="AP32">
         <v>3</v>
       </c>
-      <c r="J32">
-        <v>2.75</v>
-      </c>
-      <c r="K32">
-        <v>3.1</v>
-      </c>
-      <c r="L32">
-        <v>2.3</v>
-      </c>
-      <c r="M32">
-        <v>1.44</v>
-      </c>
-      <c r="N32">
-        <v>2.6</v>
-      </c>
-      <c r="O32">
-        <v>1.03</v>
-      </c>
-      <c r="P32">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="Q32">
-        <v>1.36</v>
-      </c>
-      <c r="R32">
-        <v>2.95</v>
-      </c>
-      <c r="S32">
-        <v>2</v>
-      </c>
-      <c r="T32">
-        <v>1.7</v>
-      </c>
-      <c r="U32">
-        <v>1.83</v>
-      </c>
-      <c r="V32">
-        <v>1.83</v>
-      </c>
-      <c r="W32">
-        <v>1.55</v>
-      </c>
-      <c r="X32">
-        <v>1.25</v>
-      </c>
-      <c r="Y32">
-        <v>1.4</v>
-      </c>
-      <c r="Z32">
-        <v>1.8</v>
-      </c>
-      <c r="AA32">
-        <v>1.89</v>
-      </c>
-      <c r="AB32">
-        <v>1.59</v>
-      </c>
-      <c r="AC32">
-        <v>1.61</v>
-      </c>
-      <c r="AD32">
-        <v>3.2</v>
-      </c>
-      <c r="AE32">
-        <v>0</v>
-      </c>
-      <c r="AF32">
-        <v>0</v>
-      </c>
-      <c r="AG32">
-        <v>0</v>
-      </c>
-      <c r="AH32">
-        <v>0</v>
-      </c>
-      <c r="AI32">
-        <v>0</v>
-      </c>
-      <c r="AJ32">
-        <v>0</v>
-      </c>
-      <c r="AK32">
-        <v>0</v>
-      </c>
-      <c r="AL32">
-        <v>0</v>
-      </c>
-      <c r="AM32">
-        <v>0</v>
-      </c>
-      <c r="AN32">
-        <v>0</v>
-      </c>
-      <c r="AO32">
-        <v>0</v>
-      </c>
-      <c r="AP32">
-        <v>0</v>
-      </c>
       <c r="AQ32">
-        <v>0</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="33" spans="1:43">
       <c r="A33" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B33" s="2">
         <v>45366</v>
       </c>
       <c r="C33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D33">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F33" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G33">
-        <v>2.88</v>
+        <v>2.1</v>
       </c>
       <c r="H33">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="I33">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="J33">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="K33">
+        <v>3.7</v>
+      </c>
+      <c r="L33">
+        <v>6</v>
+      </c>
+      <c r="M33">
+        <v>1.4</v>
+      </c>
+      <c r="N33">
+        <v>2.75</v>
+      </c>
+      <c r="O33">
+        <v>1.03</v>
+      </c>
+      <c r="P33">
+        <v>8</v>
+      </c>
+      <c r="Q33">
+        <v>1.36</v>
+      </c>
+      <c r="R33">
+        <v>3</v>
+      </c>
+      <c r="S33">
+        <v>1.73</v>
+      </c>
+      <c r="T33">
+        <v>2</v>
+      </c>
+      <c r="U33">
+        <v>2.1</v>
+      </c>
+      <c r="V33">
+        <v>1.67</v>
+      </c>
+      <c r="W33">
+        <v>1.11</v>
+      </c>
+      <c r="X33">
+        <v>1.24</v>
+      </c>
+      <c r="Y33">
+        <v>2.38</v>
+      </c>
+      <c r="Z33">
+        <v>2</v>
+      </c>
+      <c r="AA33">
+        <v>1.42</v>
+      </c>
+      <c r="AB33">
+        <v>1.66</v>
+      </c>
+      <c r="AC33">
+        <v>1.11</v>
+      </c>
+      <c r="AD33">
+        <v>2.77</v>
+      </c>
+      <c r="AE33">
+        <v>1.26</v>
+      </c>
+      <c r="AF33">
+        <v>10</v>
+      </c>
+      <c r="AG33">
+        <v>4.86</v>
+      </c>
+      <c r="AH33">
+        <v>1.3</v>
+      </c>
+      <c r="AI33">
         <v>3.2</v>
       </c>
-      <c r="L33">
-        <v>2.8</v>
-      </c>
-      <c r="M33">
-        <v>1.33</v>
-      </c>
-      <c r="N33">
-        <v>3.25</v>
-      </c>
-      <c r="O33">
-        <v>1.01</v>
-      </c>
-      <c r="P33">
-        <v>9.9</v>
-      </c>
-      <c r="Q33">
-        <v>1.21</v>
-      </c>
-      <c r="R33">
-        <v>3.75</v>
-      </c>
-      <c r="S33">
-        <v>1.67</v>
-      </c>
-      <c r="T33">
-        <v>2.1</v>
-      </c>
-      <c r="U33">
-        <v>1.62</v>
-      </c>
-      <c r="V33">
-        <v>2.2</v>
-      </c>
-      <c r="W33">
-        <v>1.36</v>
-      </c>
-      <c r="X33">
-        <v>1.29</v>
-      </c>
-      <c r="Y33">
-        <v>1.62</v>
-      </c>
-      <c r="Z33">
-        <v>1.79</v>
-      </c>
-      <c r="AA33">
-        <v>1.5</v>
-      </c>
-      <c r="AB33">
-        <v>1.65</v>
-      </c>
-      <c r="AC33">
-        <v>1.28</v>
-      </c>
-      <c r="AD33">
-        <v>2.93</v>
-      </c>
-      <c r="AE33">
-        <v>0</v>
-      </c>
-      <c r="AF33">
-        <v>0</v>
-      </c>
-      <c r="AG33">
-        <v>0</v>
-      </c>
-      <c r="AH33">
-        <v>1.22</v>
-      </c>
-      <c r="AI33">
-        <v>4</v>
-      </c>
       <c r="AJ33">
-        <v>1.42</v>
+        <v>1.53</v>
       </c>
       <c r="AK33">
-        <v>2.75</v>
+        <v>2.38</v>
       </c>
       <c r="AL33">
-        <v>1.74</v>
+        <v>2</v>
       </c>
       <c r="AM33">
-        <v>2.02</v>
+        <v>1.8</v>
       </c>
       <c r="AN33">
-        <v>2.23</v>
+        <v>2.3</v>
       </c>
       <c r="AO33">
-        <v>1.61</v>
+        <v>1.55</v>
       </c>
       <c r="AP33">
         <v>3</v>
       </c>
       <c r="AQ33">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="34" spans="1:43">
       <c r="A34" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B34" s="2">
         <v>45366</v>
       </c>
       <c r="C34" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D34">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F34" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G34">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="H34">
+        <v>2.05</v>
+      </c>
+      <c r="I34">
+        <v>3.1</v>
+      </c>
+      <c r="J34">
+        <v>2.85</v>
+      </c>
+      <c r="K34">
+        <v>3.3</v>
+      </c>
+      <c r="L34">
+        <v>2.35</v>
+      </c>
+      <c r="M34">
+        <v>1.44</v>
+      </c>
+      <c r="N34">
+        <v>2.6</v>
+      </c>
+      <c r="O34">
+        <v>1.03</v>
+      </c>
+      <c r="P34">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Q34">
+        <v>1.36</v>
+      </c>
+      <c r="R34">
+        <v>2.95</v>
+      </c>
+      <c r="S34">
         <v>2</v>
       </c>
-      <c r="I34">
-        <v>5.29</v>
-      </c>
-      <c r="J34">
-        <v>2.05</v>
-      </c>
-      <c r="K34">
-        <v>2.9</v>
-      </c>
-      <c r="L34">
-        <v>3.5</v>
-      </c>
-      <c r="M34">
+      <c r="T34">
+        <v>1.7</v>
+      </c>
+      <c r="U34">
+        <v>1.83</v>
+      </c>
+      <c r="V34">
+        <v>1.83</v>
+      </c>
+      <c r="W34">
+        <v>1.55</v>
+      </c>
+      <c r="X34">
+        <v>1.25</v>
+      </c>
+      <c r="Y34">
+        <v>1.4</v>
+      </c>
+      <c r="Z34">
+        <v>1.8</v>
+      </c>
+      <c r="AA34">
+        <v>1.89</v>
+      </c>
+      <c r="AB34">
+        <v>1.59</v>
+      </c>
+      <c r="AC34">
+        <v>1.61</v>
+      </c>
+      <c r="AD34">
+        <v>3.2</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
+      </c>
+      <c r="AF34">
+        <v>0</v>
+      </c>
+      <c r="AG34">
+        <v>0</v>
+      </c>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
+      </c>
+      <c r="AJ34">
+        <v>0</v>
+      </c>
+      <c r="AK34">
+        <v>0</v>
+      </c>
+      <c r="AL34">
         <v>1.6</v>
       </c>
-      <c r="N34">
-        <v>2.4</v>
-      </c>
-      <c r="O34">
-        <v>1.11</v>
-      </c>
-      <c r="P34">
-        <v>6.25</v>
-      </c>
-      <c r="Q34">
-        <v>1.49</v>
-      </c>
-      <c r="R34">
-        <v>2.43</v>
-      </c>
-      <c r="S34">
-        <v>2.3</v>
-      </c>
-      <c r="T34">
-        <v>1.55</v>
-      </c>
-      <c r="U34">
-        <v>2.2</v>
-      </c>
-      <c r="V34">
-        <v>1.6</v>
-      </c>
-      <c r="W34">
-        <v>1.24</v>
-      </c>
-      <c r="X34">
-        <v>1.36</v>
-      </c>
-      <c r="Y34">
-        <v>1.72</v>
-      </c>
-      <c r="Z34">
-        <v>1.6</v>
-      </c>
-      <c r="AA34">
-        <v>1.2</v>
-      </c>
-      <c r="AB34">
-        <v>1.3</v>
-      </c>
-      <c r="AC34">
-        <v>1.05</v>
-      </c>
-      <c r="AD34">
-        <v>2.35</v>
-      </c>
-      <c r="AE34">
-        <v>0</v>
-      </c>
-      <c r="AF34">
-        <v>0</v>
-      </c>
-      <c r="AG34">
-        <v>0</v>
-      </c>
-      <c r="AH34">
-        <v>0</v>
-      </c>
-      <c r="AI34">
-        <v>0</v>
-      </c>
-      <c r="AJ34">
-        <v>0</v>
-      </c>
-      <c r="AK34">
-        <v>0</v>
-      </c>
-      <c r="AL34">
-        <v>0</v>
-      </c>
       <c r="AM34">
-        <v>0</v>
+        <v>2.27</v>
       </c>
       <c r="AN34">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AO34">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="AP34">
-        <v>0</v>
+        <v>2.47</v>
       </c>
       <c r="AQ34">
-        <v>0</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="35" spans="1:43">
       <c r="A35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B35" s="2">
         <v>45366</v>
       </c>
       <c r="C35" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D35">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="E35" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F35" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="M35">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="N35">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="O35">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P35">
-        <v>0</v>
+        <v>9.9</v>
       </c>
       <c r="Q35">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="R35">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="S35">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="T35">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="U35">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="V35">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="W35">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="X35">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="Y35">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="Z35">
-        <v>2.33</v>
+        <v>1.79</v>
       </c>
       <c r="AA35">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AB35">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AC35">
-        <v>1.48</v>
+        <v>1.28</v>
       </c>
       <c r="AD35">
-        <v>3.17</v>
+        <v>2.93</v>
       </c>
       <c r="AE35">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AF35">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AG35">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AH35">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AI35">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AJ35">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AK35">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="AL35">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AM35">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="AN35">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="AO35">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="AP35">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AQ35">
-        <v>0</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="36" spans="1:43">
       <c r="A36" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="B36" s="2">
         <v>45366</v>
       </c>
       <c r="C36" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D36">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E36" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F36" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="G36">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="H36">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="I36">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J36">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="K36">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="L36">
-        <v>5.75</v>
+        <v>0</v>
       </c>
       <c r="M36">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="N36">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="O36">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="P36">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="R36">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S36">
-        <v>2.15</v>
+        <v>0</v>
       </c>
       <c r="T36">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="U36">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="V36">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="W36">
-        <v>1.11</v>
+        <v>0</v>
       </c>
       <c r="X36">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="Y36">
-        <v>2.38</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AA36">
-        <v>1.42</v>
+        <v>1.71</v>
       </c>
       <c r="AB36">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="AC36">
-        <v>1.11</v>
+        <v>1.48</v>
       </c>
       <c r="AD36">
-        <v>2.77</v>
+        <v>3.17</v>
       </c>
       <c r="AE36">
         <v>0</v>
@@ -5625,10 +5604,10 @@
         <v>0</v>
       </c>
       <c r="AL36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AM36">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="AN36">
         <v>0</v>
@@ -5651,127 +5630,127 @@
         <v>45366</v>
       </c>
       <c r="C37" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D37">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E37" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F37" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G37">
-        <v>5.5</v>
+        <v>2.8</v>
       </c>
       <c r="H37">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="I37">
-        <v>2.05</v>
+        <v>5.29</v>
       </c>
       <c r="J37">
-        <v>5</v>
+        <v>1.95</v>
       </c>
       <c r="K37">
-        <v>4.33</v>
+        <v>3</v>
       </c>
       <c r="L37">
-        <v>1.57</v>
+        <v>3.75</v>
       </c>
       <c r="M37">
-        <v>1.29</v>
+        <v>1.6</v>
       </c>
       <c r="N37">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="O37">
-        <v>1.04</v>
+        <v>1.11</v>
       </c>
       <c r="P37">
-        <v>18.5</v>
+        <v>6.25</v>
       </c>
       <c r="Q37">
-        <v>1.17</v>
+        <v>1.49</v>
       </c>
       <c r="R37">
-        <v>4.7</v>
+        <v>2.43</v>
       </c>
       <c r="S37">
-        <v>1.53</v>
+        <v>2.3</v>
       </c>
       <c r="T37">
-        <v>2.25</v>
+        <v>1.55</v>
       </c>
       <c r="U37">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="V37">
-        <v>2.05</v>
+        <v>1.6</v>
       </c>
       <c r="W37">
-        <v>2.37</v>
+        <v>1.24</v>
       </c>
       <c r="X37">
-        <v>1.18</v>
+        <v>1.36</v>
       </c>
       <c r="Y37">
-        <v>1.11</v>
+        <v>1.72</v>
       </c>
       <c r="Z37">
-        <v>0.75</v>
+        <v>1.6</v>
       </c>
       <c r="AA37">
-        <v>1.42</v>
+        <v>1.2</v>
       </c>
       <c r="AB37">
-        <v>1.46</v>
+        <v>1.3</v>
       </c>
       <c r="AC37">
-        <v>1.53</v>
+        <v>1.05</v>
       </c>
       <c r="AD37">
-        <v>2.99</v>
+        <v>2.35</v>
       </c>
       <c r="AE37">
-        <v>3.1</v>
+        <v>1.51</v>
       </c>
       <c r="AF37">
         <v>8.5</v>
       </c>
       <c r="AG37">
-        <v>1.49</v>
+        <v>3.16</v>
       </c>
       <c r="AH37">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="AI37">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="AJ37">
-        <v>1.48</v>
+        <v>1.6</v>
       </c>
       <c r="AK37">
-        <v>2.35</v>
+        <v>2.33</v>
       </c>
       <c r="AL37">
-        <v>1.82</v>
+        <v>1.97</v>
       </c>
       <c r="AM37">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="AN37">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="AO37">
         <v>1.52</v>
       </c>
       <c r="AP37">
-        <v>3</v>
+        <v>3.42</v>
       </c>
       <c r="AQ37">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="38" spans="1:43">
@@ -5782,73 +5761,73 @@
         <v>45366</v>
       </c>
       <c r="C38" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D38">
         <v>6</v>
       </c>
       <c r="E38" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F38" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J38">
-        <v>1.44</v>
+        <v>1.52</v>
       </c>
       <c r="K38">
-        <v>4.33</v>
+        <v>4.1</v>
       </c>
       <c r="L38">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="M38">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="N38">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="O38">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="P38">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q38">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="R38">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S38">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="T38">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="U38">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="V38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W38">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="X38">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="Y38">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="Z38">
         <v>1.23</v>
@@ -5907,264 +5886,264 @@
     </row>
     <row r="39" spans="1:43">
       <c r="A39" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B39" s="2">
         <v>45366</v>
       </c>
       <c r="C39" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D39">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="E39" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F39" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G39">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="I39">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="J39">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="K39">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="L39">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="M39">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="N39">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="O39">
-        <v>1.11</v>
+        <v>1.02</v>
       </c>
       <c r="P39">
-        <v>9.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="Q39">
-        <v>1.42</v>
+        <v>1.22</v>
       </c>
       <c r="R39">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="S39">
-        <v>2.03</v>
+        <v>1.67</v>
       </c>
       <c r="T39">
-        <v>1.79</v>
+        <v>2.1</v>
       </c>
       <c r="U39">
-        <v>2</v>
+        <v>1.62</v>
       </c>
       <c r="V39">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="W39">
-        <v>1.74</v>
+        <v>1.88</v>
       </c>
       <c r="X39">
-        <v>1.38</v>
+        <v>1.25</v>
       </c>
       <c r="Y39">
         <v>1.3</v>
       </c>
       <c r="Z39">
-        <v>0.71</v>
+        <v>1.46</v>
       </c>
       <c r="AA39">
-        <v>1.23</v>
+        <v>1.92</v>
       </c>
       <c r="AB39">
-        <v>1.26</v>
+        <v>1.45</v>
       </c>
       <c r="AC39">
-        <v>1.24</v>
+        <v>1.74</v>
       </c>
       <c r="AD39">
-        <v>2.5</v>
+        <v>3.19</v>
       </c>
       <c r="AE39">
-        <v>2.45</v>
+        <v>0</v>
       </c>
       <c r="AF39">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="AG39">
-        <v>1.74</v>
+        <v>0</v>
       </c>
       <c r="AH39">
-        <v>1.37</v>
+        <v>0</v>
       </c>
       <c r="AI39">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="AJ39">
-        <v>1.66</v>
+        <v>0</v>
       </c>
       <c r="AK39">
-        <v>2.05</v>
+        <v>0</v>
       </c>
       <c r="AL39">
-        <v>2.08</v>
+        <v>0</v>
       </c>
       <c r="AM39">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="AN39">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="AO39">
-        <v>1.37</v>
+        <v>0</v>
       </c>
       <c r="AP39">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="AQ39">
-        <v>1.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:43">
       <c r="A40" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B40" s="2">
         <v>45366</v>
       </c>
       <c r="C40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D40">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="E40" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F40" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>4.33</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="J40">
-        <v>3.35</v>
+        <v>3.9</v>
       </c>
       <c r="K40">
-        <v>3.26</v>
+        <v>3.4</v>
       </c>
       <c r="L40">
-        <v>1.77</v>
+        <v>1.91</v>
       </c>
       <c r="M40">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="N40">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="O40">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="P40">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Q40">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="R40">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="S40">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="T40">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="U40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V40">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="W40">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="X40">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="Y40">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="Z40">
-        <v>1.46</v>
+        <v>0.71</v>
       </c>
       <c r="AA40">
-        <v>1.92</v>
+        <v>1.23</v>
       </c>
       <c r="AB40">
-        <v>1.45</v>
+        <v>1.26</v>
       </c>
       <c r="AC40">
+        <v>1.24</v>
+      </c>
+      <c r="AD40">
+        <v>2.5</v>
+      </c>
+      <c r="AE40">
+        <v>2.45</v>
+      </c>
+      <c r="AF40">
+        <v>7.5</v>
+      </c>
+      <c r="AG40">
         <v>1.74</v>
       </c>
-      <c r="AD40">
-        <v>3.19</v>
-      </c>
-      <c r="AE40">
-        <v>0</v>
-      </c>
-      <c r="AF40">
-        <v>0</v>
-      </c>
-      <c r="AG40">
-        <v>0</v>
-      </c>
       <c r="AH40">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="AI40">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AJ40">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="AK40">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AL40">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="AM40">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AN40">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AO40">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="AP40">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="AQ40">
-        <v>0</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="41" spans="1:43">
@@ -6175,127 +6154,127 @@
         <v>45366</v>
       </c>
       <c r="C41" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D41">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E41" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F41" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G41">
-        <v>3.25</v>
+        <v>2.05</v>
       </c>
       <c r="H41">
         <v>2.1</v>
       </c>
       <c r="I41">
-        <v>3.25</v>
+        <v>8.5</v>
       </c>
       <c r="J41">
+        <v>1.4</v>
+      </c>
+      <c r="K41">
+        <v>4.1</v>
+      </c>
+      <c r="L41">
+        <v>8.5</v>
+      </c>
+      <c r="M41">
+        <v>1.5</v>
+      </c>
+      <c r="N41">
+        <v>2.5</v>
+      </c>
+      <c r="O41">
+        <v>1.08</v>
+      </c>
+      <c r="P41">
+        <v>8.5</v>
+      </c>
+      <c r="Q41">
+        <v>1.44</v>
+      </c>
+      <c r="R41">
+        <v>2.8</v>
+      </c>
+      <c r="S41">
+        <v>2.3</v>
+      </c>
+      <c r="T41">
+        <v>1.57</v>
+      </c>
+      <c r="U41">
+        <v>2.63</v>
+      </c>
+      <c r="V41">
+        <v>1.44</v>
+      </c>
+      <c r="W41">
+        <v>1.07</v>
+      </c>
+      <c r="X41">
+        <v>1.23</v>
+      </c>
+      <c r="Y41">
+        <v>2.7</v>
+      </c>
+      <c r="Z41">
+        <v>1.54</v>
+      </c>
+      <c r="AA41">
+        <v>0.43</v>
+      </c>
+      <c r="AB41">
+        <v>1.53</v>
+      </c>
+      <c r="AC41">
+        <v>0.98</v>
+      </c>
+      <c r="AD41">
+        <v>2.51</v>
+      </c>
+      <c r="AE41">
+        <v>1.3</v>
+      </c>
+      <c r="AF41">
+        <v>9</v>
+      </c>
+      <c r="AG41">
+        <v>4.6</v>
+      </c>
+      <c r="AH41">
+        <v>1.38</v>
+      </c>
+      <c r="AI41">
         <v>2.6</v>
       </c>
-      <c r="K41">
-        <v>3.3</v>
-      </c>
-      <c r="L41">
-        <v>2.6</v>
-      </c>
-      <c r="M41">
-        <v>1.4</v>
-      </c>
-      <c r="N41">
-        <v>2.75</v>
-      </c>
-      <c r="O41">
-        <v>1.05</v>
-      </c>
-      <c r="P41">
-        <v>11</v>
-      </c>
-      <c r="Q41">
-        <v>1.32</v>
-      </c>
-      <c r="R41">
-        <v>3.4</v>
-      </c>
-      <c r="S41">
-        <v>1.99</v>
-      </c>
-      <c r="T41">
-        <v>1.91</v>
-      </c>
-      <c r="U41">
-        <v>1.75</v>
-      </c>
-      <c r="V41">
+      <c r="AJ41">
+        <v>1.7</v>
+      </c>
+      <c r="AK41">
         <v>2</v>
       </c>
-      <c r="W41">
-        <v>1.47</v>
-      </c>
-      <c r="X41">
-        <v>1.3</v>
-      </c>
-      <c r="Y41">
-        <v>1.47</v>
-      </c>
-      <c r="Z41">
-        <v>1.17</v>
-      </c>
-      <c r="AA41">
-        <v>1.33</v>
-      </c>
-      <c r="AB41">
-        <v>1.45</v>
-      </c>
-      <c r="AC41">
-        <v>1.3</v>
-      </c>
-      <c r="AD41">
-        <v>2.75</v>
-      </c>
-      <c r="AE41">
-        <v>1.95</v>
-      </c>
-      <c r="AF41">
-        <v>7.5</v>
-      </c>
-      <c r="AG41">
-        <v>2.14</v>
-      </c>
-      <c r="AH41">
-        <v>1.32</v>
-      </c>
-      <c r="AI41">
-        <v>2.9</v>
-      </c>
-      <c r="AJ41">
-        <v>1.6</v>
-      </c>
-      <c r="AK41">
+      <c r="AL41">
         <v>2.15</v>
       </c>
-      <c r="AL41">
-        <v>2</v>
-      </c>
       <c r="AM41">
-        <v>1.7</v>
+        <v>1.58</v>
       </c>
       <c r="AN41">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="AO41">
-        <v>1.41</v>
+        <v>1.34</v>
       </c>
       <c r="AP41">
-        <v>3.45</v>
+        <v>3.8</v>
       </c>
       <c r="AQ41">
-        <v>1.23</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="42" spans="1:43">
@@ -6306,127 +6285,127 @@
         <v>45366</v>
       </c>
       <c r="C42" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D42">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E42" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F42" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G42">
-        <v>2.05</v>
+        <v>3.25</v>
       </c>
       <c r="H42">
         <v>2.1</v>
       </c>
       <c r="I42">
-        <v>8.5</v>
+        <v>3.25</v>
       </c>
       <c r="J42">
+        <v>2.63</v>
+      </c>
+      <c r="K42">
+        <v>3.25</v>
+      </c>
+      <c r="L42">
+        <v>2.63</v>
+      </c>
+      <c r="M42">
+        <v>1.4</v>
+      </c>
+      <c r="N42">
+        <v>2.75</v>
+      </c>
+      <c r="O42">
+        <v>1.05</v>
+      </c>
+      <c r="P42">
+        <v>11</v>
+      </c>
+      <c r="Q42">
+        <v>1.32</v>
+      </c>
+      <c r="R42">
+        <v>3.4</v>
+      </c>
+      <c r="S42">
+        <v>1.91</v>
+      </c>
+      <c r="T42">
+        <v>1.8</v>
+      </c>
+      <c r="U42">
+        <v>1.75</v>
+      </c>
+      <c r="V42">
+        <v>2</v>
+      </c>
+      <c r="W42">
+        <v>1.47</v>
+      </c>
+      <c r="X42">
+        <v>1.3</v>
+      </c>
+      <c r="Y42">
+        <v>1.47</v>
+      </c>
+      <c r="Z42">
+        <v>1.17</v>
+      </c>
+      <c r="AA42">
+        <v>1.33</v>
+      </c>
+      <c r="AB42">
         <v>1.45</v>
       </c>
-      <c r="K42">
-        <v>4.2</v>
-      </c>
-      <c r="L42">
+      <c r="AC42">
+        <v>1.3</v>
+      </c>
+      <c r="AD42">
+        <v>2.75</v>
+      </c>
+      <c r="AE42">
+        <v>1.95</v>
+      </c>
+      <c r="AF42">
         <v>7.5</v>
       </c>
-      <c r="M42">
-        <v>1.5</v>
-      </c>
-      <c r="N42">
-        <v>2.5</v>
-      </c>
-      <c r="O42">
-        <v>1.08</v>
-      </c>
-      <c r="P42">
-        <v>8.5</v>
-      </c>
-      <c r="Q42">
-        <v>1.44</v>
-      </c>
-      <c r="R42">
-        <v>2.8</v>
-      </c>
-      <c r="S42">
-        <v>2.3</v>
-      </c>
-      <c r="T42">
-        <v>1.57</v>
-      </c>
-      <c r="U42">
-        <v>2.63</v>
-      </c>
-      <c r="V42">
-        <v>1.44</v>
-      </c>
-      <c r="W42">
-        <v>1.07</v>
-      </c>
-      <c r="X42">
+      <c r="AG42">
+        <v>2.14</v>
+      </c>
+      <c r="AH42">
+        <v>1.32</v>
+      </c>
+      <c r="AI42">
+        <v>2.9</v>
+      </c>
+      <c r="AJ42">
+        <v>1.6</v>
+      </c>
+      <c r="AK42">
+        <v>2.15</v>
+      </c>
+      <c r="AL42">
+        <v>2</v>
+      </c>
+      <c r="AM42">
+        <v>1.7</v>
+      </c>
+      <c r="AN42">
+        <v>2.55</v>
+      </c>
+      <c r="AO42">
+        <v>1.41</v>
+      </c>
+      <c r="AP42">
+        <v>3.45</v>
+      </c>
+      <c r="AQ42">
         <v>1.23</v>
-      </c>
-      <c r="Y42">
-        <v>2.7</v>
-      </c>
-      <c r="Z42">
-        <v>1.54</v>
-      </c>
-      <c r="AA42">
-        <v>0.43</v>
-      </c>
-      <c r="AB42">
-        <v>1.53</v>
-      </c>
-      <c r="AC42">
-        <v>0.98</v>
-      </c>
-      <c r="AD42">
-        <v>2.51</v>
-      </c>
-      <c r="AE42">
-        <v>1.3</v>
-      </c>
-      <c r="AF42">
-        <v>9</v>
-      </c>
-      <c r="AG42">
-        <v>4.6</v>
-      </c>
-      <c r="AH42">
-        <v>1.38</v>
-      </c>
-      <c r="AI42">
-        <v>2.6</v>
-      </c>
-      <c r="AJ42">
-        <v>1.7</v>
-      </c>
-      <c r="AK42">
-        <v>2</v>
-      </c>
-      <c r="AL42">
-        <v>2.15</v>
-      </c>
-      <c r="AM42">
-        <v>1.58</v>
-      </c>
-      <c r="AN42">
-        <v>2.8</v>
-      </c>
-      <c r="AO42">
-        <v>1.34</v>
-      </c>
-      <c r="AP42">
-        <v>3.8</v>
-      </c>
-      <c r="AQ42">
-        <v>1.19</v>
       </c>
     </row>
     <row r="43" spans="1:43">
@@ -6437,16 +6416,16 @@
         <v>45366</v>
       </c>
       <c r="C43" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D43">
         <v>26</v>
       </c>
       <c r="E43" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F43" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -6458,7 +6437,7 @@
         <v>0</v>
       </c>
       <c r="J43">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="K43">
         <v>3.6</v>
@@ -6568,40 +6547,40 @@
         <v>45366</v>
       </c>
       <c r="C44" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="E44" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F44" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="J44">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="K44">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="L44">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M44">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="N44">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="O44">
         <v>0</v>
@@ -6616,16 +6595,16 @@
         <v>0</v>
       </c>
       <c r="S44">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="T44">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="U44">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="V44">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="W44">
         <v>0</v>
@@ -6637,19 +6616,19 @@
         <v>0</v>
       </c>
       <c r="Z44">
-        <v>1.38</v>
+        <v>1.79</v>
       </c>
       <c r="AA44">
-        <v>0.62</v>
+        <v>0.43</v>
       </c>
       <c r="AB44">
-        <v>1.35</v>
+        <v>1.7</v>
       </c>
       <c r="AC44">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AD44">
-        <v>2.27</v>
+        <v>2.63</v>
       </c>
       <c r="AE44">
         <v>0</v>
@@ -6693,70 +6672,70 @@
     </row>
     <row r="45" spans="1:43">
       <c r="A45" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B45" s="2">
         <v>45366</v>
       </c>
       <c r="C45" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D45">
         <v>29</v>
       </c>
       <c r="E45" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F45" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G45">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="H45">
+        <v>2.3</v>
+      </c>
+      <c r="I45">
+        <v>2.63</v>
+      </c>
+      <c r="J45">
+        <v>3.25</v>
+      </c>
+      <c r="K45">
+        <v>3.8</v>
+      </c>
+      <c r="L45">
+        <v>2.05</v>
+      </c>
+      <c r="M45">
+        <v>1.3</v>
+      </c>
+      <c r="N45">
+        <v>3.4</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="R45">
+        <v>0</v>
+      </c>
+      <c r="S45">
+        <v>1.65</v>
+      </c>
+      <c r="T45">
         <v>2.2</v>
       </c>
-      <c r="I45">
-        <v>3.25</v>
-      </c>
-      <c r="J45">
-        <v>2.5</v>
-      </c>
-      <c r="K45">
-        <v>3.4</v>
-      </c>
-      <c r="L45">
-        <v>2.75</v>
-      </c>
-      <c r="M45">
-        <v>1.36</v>
-      </c>
-      <c r="N45">
-        <v>3</v>
-      </c>
-      <c r="O45">
-        <v>0</v>
-      </c>
-      <c r="P45">
-        <v>0</v>
-      </c>
-      <c r="Q45">
-        <v>0</v>
-      </c>
-      <c r="R45">
-        <v>0</v>
-      </c>
-      <c r="S45">
-        <v>1.75</v>
-      </c>
-      <c r="T45">
-        <v>2.05</v>
-      </c>
       <c r="U45">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="V45">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W45">
         <v>0</v>
@@ -6768,19 +6747,19 @@
         <v>0</v>
       </c>
       <c r="Z45">
-        <v>1.71</v>
+        <v>1.14</v>
       </c>
       <c r="AA45">
-        <v>1.29</v>
+        <v>0.79</v>
       </c>
       <c r="AB45">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
       <c r="AC45">
-        <v>1.49</v>
+        <v>1.22</v>
       </c>
       <c r="AD45">
-        <v>2.81</v>
+        <v>2.59</v>
       </c>
       <c r="AE45">
         <v>0</v>
@@ -6830,40 +6809,40 @@
         <v>45366</v>
       </c>
       <c r="C46" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="E46" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F46" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="J46">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="K46">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="L46">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="M46">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="N46">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O46">
         <v>0</v>
@@ -6878,16 +6857,16 @@
         <v>0</v>
       </c>
       <c r="S46">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="T46">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="U46">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="V46">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="W46">
         <v>0</v>
@@ -6899,19 +6878,19 @@
         <v>0</v>
       </c>
       <c r="Z46">
-        <v>0.92</v>
+        <v>1.71</v>
       </c>
       <c r="AA46">
-        <v>0.38</v>
+        <v>1.29</v>
       </c>
       <c r="AB46">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="AC46">
-        <v>1.23</v>
+        <v>1.49</v>
       </c>
       <c r="AD46">
-        <v>2.53</v>
+        <v>2.81</v>
       </c>
       <c r="AE46">
         <v>0</v>
@@ -6955,46 +6934,46 @@
     </row>
     <row r="47" spans="1:43">
       <c r="A47" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B47" s="2">
         <v>45366</v>
       </c>
       <c r="C47" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D47">
         <v>29</v>
       </c>
       <c r="E47" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F47" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G47">
-        <v>3.75</v>
+        <v>2.1</v>
       </c>
       <c r="H47">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="I47">
-        <v>2.63</v>
+        <v>5</v>
       </c>
       <c r="J47">
-        <v>3.25</v>
+        <v>1.57</v>
       </c>
       <c r="K47">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="L47">
-        <v>2.05</v>
+        <v>5.5</v>
       </c>
       <c r="M47">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="N47">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O47">
         <v>0</v>
@@ -7009,17 +6988,17 @@
         <v>0</v>
       </c>
       <c r="S47">
-        <v>1.65</v>
+        <v>1.53</v>
       </c>
       <c r="T47">
+        <v>2.4</v>
+      </c>
+      <c r="U47">
+        <v>1.62</v>
+      </c>
+      <c r="V47">
         <v>2.2</v>
       </c>
-      <c r="U47">
-        <v>1.57</v>
-      </c>
-      <c r="V47">
-        <v>2.25</v>
-      </c>
       <c r="W47">
         <v>0</v>
       </c>
@@ -7030,19 +7009,19 @@
         <v>0</v>
       </c>
       <c r="Z47">
-        <v>1.14</v>
+        <v>2.5</v>
       </c>
       <c r="AA47">
-        <v>0.79</v>
+        <v>1.29</v>
       </c>
       <c r="AB47">
-        <v>1.37</v>
+        <v>2</v>
       </c>
       <c r="AC47">
-        <v>1.22</v>
+        <v>1.46</v>
       </c>
       <c r="AD47">
-        <v>2.59</v>
+        <v>3.46</v>
       </c>
       <c r="AE47">
         <v>0</v>
@@ -7081,399 +7060,6 @@
         <v>0</v>
       </c>
       <c r="AQ47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:43">
-      <c r="A48" t="s">
-        <v>66</v>
-      </c>
-      <c r="B48" s="2">
-        <v>45366</v>
-      </c>
-      <c r="C48" t="s">
-        <v>83</v>
-      </c>
-      <c r="D48">
-        <v>29</v>
-      </c>
-      <c r="E48" t="s">
-        <v>130</v>
-      </c>
-      <c r="F48" t="s">
-        <v>179</v>
-      </c>
-      <c r="G48">
-        <v>2.1</v>
-      </c>
-      <c r="H48">
-        <v>2.5</v>
-      </c>
-      <c r="I48">
-        <v>5</v>
-      </c>
-      <c r="J48">
-        <v>1.57</v>
-      </c>
-      <c r="K48">
-        <v>4</v>
-      </c>
-      <c r="L48">
-        <v>5.5</v>
-      </c>
-      <c r="M48">
-        <v>1.29</v>
-      </c>
-      <c r="N48">
-        <v>3.5</v>
-      </c>
-      <c r="O48">
-        <v>0</v>
-      </c>
-      <c r="P48">
-        <v>0</v>
-      </c>
-      <c r="Q48">
-        <v>0</v>
-      </c>
-      <c r="R48">
-        <v>0</v>
-      </c>
-      <c r="S48">
-        <v>1.53</v>
-      </c>
-      <c r="T48">
-        <v>2.4</v>
-      </c>
-      <c r="U48">
-        <v>1.62</v>
-      </c>
-      <c r="V48">
-        <v>2.2</v>
-      </c>
-      <c r="W48">
-        <v>0</v>
-      </c>
-      <c r="X48">
-        <v>0</v>
-      </c>
-      <c r="Y48">
-        <v>0</v>
-      </c>
-      <c r="Z48">
-        <v>2.5</v>
-      </c>
-      <c r="AA48">
-        <v>1.29</v>
-      </c>
-      <c r="AB48">
-        <v>2</v>
-      </c>
-      <c r="AC48">
-        <v>1.46</v>
-      </c>
-      <c r="AD48">
-        <v>3.46</v>
-      </c>
-      <c r="AE48">
-        <v>0</v>
-      </c>
-      <c r="AF48">
-        <v>0</v>
-      </c>
-      <c r="AG48">
-        <v>0</v>
-      </c>
-      <c r="AH48">
-        <v>0</v>
-      </c>
-      <c r="AI48">
-        <v>0</v>
-      </c>
-      <c r="AJ48">
-        <v>0</v>
-      </c>
-      <c r="AK48">
-        <v>0</v>
-      </c>
-      <c r="AL48">
-        <v>0</v>
-      </c>
-      <c r="AM48">
-        <v>0</v>
-      </c>
-      <c r="AN48">
-        <v>0</v>
-      </c>
-      <c r="AO48">
-        <v>0</v>
-      </c>
-      <c r="AP48">
-        <v>0</v>
-      </c>
-      <c r="AQ48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:43">
-      <c r="A49" t="s">
-        <v>66</v>
-      </c>
-      <c r="B49" s="2">
-        <v>45366</v>
-      </c>
-      <c r="C49" t="s">
-        <v>83</v>
-      </c>
-      <c r="D49">
-        <v>29</v>
-      </c>
-      <c r="E49" t="s">
-        <v>131</v>
-      </c>
-      <c r="F49" t="s">
-        <v>180</v>
-      </c>
-      <c r="G49">
-        <v>1.8</v>
-      </c>
-      <c r="H49">
-        <v>2.6</v>
-      </c>
-      <c r="I49">
-        <v>7.5</v>
-      </c>
-      <c r="J49">
-        <v>1.33</v>
-      </c>
-      <c r="K49">
-        <v>5.5</v>
-      </c>
-      <c r="L49">
-        <v>8</v>
-      </c>
-      <c r="M49">
-        <v>1.29</v>
-      </c>
-      <c r="N49">
-        <v>3.5</v>
-      </c>
-      <c r="O49">
-        <v>0</v>
-      </c>
-      <c r="P49">
-        <v>0</v>
-      </c>
-      <c r="Q49">
-        <v>0</v>
-      </c>
-      <c r="R49">
-        <v>0</v>
-      </c>
-      <c r="S49">
-        <v>1.6</v>
-      </c>
-      <c r="T49">
-        <v>2.3</v>
-      </c>
-      <c r="U49">
-        <v>1.95</v>
-      </c>
-      <c r="V49">
-        <v>1.8</v>
-      </c>
-      <c r="W49">
-        <v>0</v>
-      </c>
-      <c r="X49">
-        <v>0</v>
-      </c>
-      <c r="Y49">
-        <v>0</v>
-      </c>
-      <c r="Z49">
-        <v>1.79</v>
-      </c>
-      <c r="AA49">
-        <v>0.43</v>
-      </c>
-      <c r="AB49">
-        <v>1.7</v>
-      </c>
-      <c r="AC49">
-        <v>0.93</v>
-      </c>
-      <c r="AD49">
-        <v>2.63</v>
-      </c>
-      <c r="AE49">
-        <v>0</v>
-      </c>
-      <c r="AF49">
-        <v>0</v>
-      </c>
-      <c r="AG49">
-        <v>0</v>
-      </c>
-      <c r="AH49">
-        <v>0</v>
-      </c>
-      <c r="AI49">
-        <v>0</v>
-      </c>
-      <c r="AJ49">
-        <v>0</v>
-      </c>
-      <c r="AK49">
-        <v>0</v>
-      </c>
-      <c r="AL49">
-        <v>0</v>
-      </c>
-      <c r="AM49">
-        <v>0</v>
-      </c>
-      <c r="AN49">
-        <v>0</v>
-      </c>
-      <c r="AO49">
-        <v>0</v>
-      </c>
-      <c r="AP49">
-        <v>0</v>
-      </c>
-      <c r="AQ49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:43">
-      <c r="A50" t="s">
-        <v>65</v>
-      </c>
-      <c r="B50" s="2">
-        <v>45366</v>
-      </c>
-      <c r="C50" t="s">
-        <v>83</v>
-      </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
-      <c r="E50" t="s">
-        <v>132</v>
-      </c>
-      <c r="F50" t="s">
-        <v>181</v>
-      </c>
-      <c r="G50">
-        <v>0</v>
-      </c>
-      <c r="H50">
-        <v>0</v>
-      </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
-      <c r="J50">
-        <v>0</v>
-      </c>
-      <c r="K50">
-        <v>0</v>
-      </c>
-      <c r="L50">
-        <v>0</v>
-      </c>
-      <c r="M50">
-        <v>0</v>
-      </c>
-      <c r="N50">
-        <v>0</v>
-      </c>
-      <c r="O50">
-        <v>0</v>
-      </c>
-      <c r="P50">
-        <v>0</v>
-      </c>
-      <c r="Q50">
-        <v>0</v>
-      </c>
-      <c r="R50">
-        <v>0</v>
-      </c>
-      <c r="S50">
-        <v>0</v>
-      </c>
-      <c r="T50">
-        <v>0</v>
-      </c>
-      <c r="U50">
-        <v>0</v>
-      </c>
-      <c r="V50">
-        <v>0</v>
-      </c>
-      <c r="W50">
-        <v>0</v>
-      </c>
-      <c r="X50">
-        <v>0</v>
-      </c>
-      <c r="Y50">
-        <v>0</v>
-      </c>
-      <c r="Z50">
-        <v>1.15</v>
-      </c>
-      <c r="AA50">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="AB50">
-        <v>1.4</v>
-      </c>
-      <c r="AC50">
-        <v>1.03</v>
-      </c>
-      <c r="AD50">
-        <v>2.43</v>
-      </c>
-      <c r="AE50">
-        <v>0</v>
-      </c>
-      <c r="AF50">
-        <v>0</v>
-      </c>
-      <c r="AG50">
-        <v>0</v>
-      </c>
-      <c r="AH50">
-        <v>0</v>
-      </c>
-      <c r="AI50">
-        <v>0</v>
-      </c>
-      <c r="AJ50">
-        <v>0</v>
-      </c>
-      <c r="AK50">
-        <v>0</v>
-      </c>
-      <c r="AL50">
-        <v>0</v>
-      </c>
-      <c r="AM50">
-        <v>0</v>
-      </c>
-      <c r="AN50">
-        <v>0</v>
-      </c>
-      <c r="AO50">
-        <v>0</v>
-      </c>
-      <c r="AP50">
-        <v>0</v>
-      </c>
-      <c r="AQ50">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia/2024-03-15_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-03-15_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -163,12 +163,12 @@
     <t>Austria 2. Liga</t>
   </si>
   <si>
+    <t>Germany 2. Bundesliga</t>
+  </si>
+  <si>
     <t>Turkey Süper Lig</t>
   </si>
   <si>
-    <t>Germany 2. Bundesliga</t>
-  </si>
-  <si>
     <t>Portugal LigaPro</t>
   </si>
   <si>
@@ -178,10 +178,13 @@
     <t>Austria Bundesliga</t>
   </si>
   <si>
+    <t>Netherlands Eerste Divisie</t>
+  </si>
+  <si>
     <t>Netherlands Eredivisie</t>
   </si>
   <si>
-    <t>Netherlands Eerste Divisie</t>
+    <t>Spain Segunda División</t>
   </si>
   <si>
     <t>Germany Bundesliga</t>
@@ -193,9 +196,6 @@
     <t>Egypt Egyptian Premier League</t>
   </si>
   <si>
-    <t>Spain Segunda División</t>
-  </si>
-  <si>
     <t>Wales Welsh Premier League</t>
   </si>
   <si>
@@ -283,19 +283,25 @@
     <t>Zagłębie Lubin</t>
   </si>
   <si>
+    <t>First Vienna</t>
+  </si>
+  <si>
+    <t>Amstetten</t>
+  </si>
+  <si>
+    <t>Ried</t>
+  </si>
+  <si>
+    <t>Grazer AK</t>
+  </si>
+  <si>
     <t>Horn</t>
   </si>
   <si>
-    <t>Ried</t>
-  </si>
-  <si>
-    <t>Grazer AK</t>
-  </si>
-  <si>
-    <t>First Vienna</t>
-  </si>
-  <si>
-    <t>Amstetten</t>
+    <t>Osnabrück</t>
+  </si>
+  <si>
+    <t>Paderborn</t>
   </si>
   <si>
     <t>Fatih Karagümrük</t>
@@ -304,12 +310,6 @@
     <t>Pendikspor</t>
   </si>
   <si>
-    <t>Paderborn</t>
-  </si>
-  <si>
-    <t>Osnabrück</t>
-  </si>
-  <si>
     <t>Torreense</t>
   </si>
   <si>
@@ -322,63 +322,63 @@
     <t>Rapid Bucureşti</t>
   </si>
   <si>
+    <t>Dordrecht</t>
+  </si>
+  <si>
+    <t>Ajax II</t>
+  </si>
+  <si>
     <t>Heracles</t>
   </si>
   <si>
-    <t>Ajax II</t>
-  </si>
-  <si>
     <t>Den Bosch</t>
   </si>
   <si>
-    <t>Dordrecht</t>
-  </si>
-  <si>
     <t>AZ II</t>
   </si>
   <si>
+    <t>Groningen</t>
+  </si>
+  <si>
+    <t>Utrecht II</t>
+  </si>
+  <si>
     <t>Oss</t>
   </si>
   <si>
     <t>NAC Breda</t>
   </si>
   <si>
-    <t>Groningen</t>
-  </si>
-  <si>
     <t>Telstar</t>
   </si>
   <si>
-    <t>Utrecht II</t>
-  </si>
-  <si>
     <t>Sion</t>
   </si>
   <si>
+    <t>CD Eldense</t>
+  </si>
+  <si>
+    <t>Lech Poznań</t>
+  </si>
+  <si>
     <t>Köln</t>
   </si>
   <si>
-    <t>Lech Poznań</t>
+    <t>Palermo</t>
+  </si>
+  <si>
+    <t>Al Ahly</t>
   </si>
   <si>
     <t>Floridsdorfer AC</t>
   </si>
   <si>
-    <t>Palermo</t>
-  </si>
-  <si>
-    <t>Al Ahly</t>
-  </si>
-  <si>
-    <t>CD Eldense</t>
+    <t>Caernarfon Town</t>
   </si>
   <si>
     <t>Haverfordwest County</t>
   </si>
   <si>
-    <t>Caernarfon Town</t>
-  </si>
-  <si>
     <t>Empoli</t>
   </si>
   <si>
@@ -391,18 +391,18 @@
     <t>GD Estoril Praia</t>
   </si>
   <si>
+    <t>Wolverhampton Wanderers</t>
+  </si>
+  <si>
+    <t>Arsenal</t>
+  </si>
+  <si>
     <t>Manchester United</t>
   </si>
   <si>
     <t>Crystal Palace</t>
   </si>
   <si>
-    <t>Wolverhampton Wanderers</t>
-  </si>
-  <si>
-    <t>Arsenal</t>
-  </si>
-  <si>
     <t>Botev Vratsa</t>
   </si>
   <si>
@@ -421,19 +421,25 @@
     <t>Stal Mielec</t>
   </si>
   <si>
+    <t>Leoben</t>
+  </si>
+  <si>
+    <t>Admira</t>
+  </si>
+  <si>
+    <t>Liefering</t>
+  </si>
+  <si>
+    <t>Lafnitz</t>
+  </si>
+  <si>
     <t>SV Stripfing Weiden</t>
   </si>
   <si>
-    <t>Liefering</t>
-  </si>
-  <si>
-    <t>Lafnitz</t>
-  </si>
-  <si>
-    <t>Leoben</t>
-  </si>
-  <si>
-    <t>Admira</t>
+    <t>Fortuna Düsseldorf</t>
+  </si>
+  <si>
+    <t>Eintracht Braunschweig</t>
   </si>
   <si>
     <t>Konyaspor</t>
@@ -442,12 +448,6 @@
     <t>İstanbulspor</t>
   </si>
   <si>
-    <t>Eintracht Braunschweig</t>
-  </si>
-  <si>
-    <t>Fortuna Düsseldorf</t>
-  </si>
-  <si>
     <t>CD Tondela</t>
   </si>
   <si>
@@ -460,63 +460,63 @@
     <t>SSC Farul</t>
   </si>
   <si>
+    <t>Eindhoven</t>
+  </si>
+  <si>
+    <t>PSV II</t>
+  </si>
+  <si>
     <t>Go Ahead Eagles</t>
   </si>
   <si>
-    <t>PSV II</t>
-  </si>
-  <si>
     <t>Willem II</t>
   </si>
   <si>
-    <t>Eindhoven</t>
-  </si>
-  <si>
     <t>Cambuur</t>
   </si>
   <si>
+    <t>De Graafschap</t>
+  </si>
+  <si>
+    <t>Emmen</t>
+  </si>
+  <si>
     <t>Helmond Sport</t>
   </si>
   <si>
     <t>VVV</t>
   </si>
   <si>
-    <t>De Graafschap</t>
-  </si>
-  <si>
     <t>ADO Den Haag</t>
   </si>
   <si>
-    <t>Emmen</t>
-  </si>
-  <si>
     <t>Thun</t>
   </si>
   <si>
+    <t>FC Cartagena</t>
+  </si>
+  <si>
+    <t>Warta Poznań</t>
+  </si>
+  <si>
     <t>RB Leipzig</t>
   </si>
   <si>
-    <t>Warta Poznań</t>
+    <t>Venezia</t>
+  </si>
+  <si>
+    <t>ENPPI</t>
   </si>
   <si>
     <t>St. Pölten</t>
   </si>
   <si>
-    <t>Venezia</t>
-  </si>
-  <si>
-    <t>ENPPI</t>
-  </si>
-  <si>
-    <t>FC Cartagena</t>
+    <t>Connah's Quay</t>
   </si>
   <si>
     <t>Aberystwyth Town</t>
   </si>
   <si>
-    <t>Connah's Quay</t>
-  </si>
-  <si>
     <t>Bologna</t>
   </si>
   <si>
@@ -529,16 +529,16 @@
     <t>Portimonense</t>
   </si>
   <si>
+    <t>AFC Bournemouth</t>
+  </si>
+  <si>
+    <t>Chelsea</t>
+  </si>
+  <si>
     <t>Sheffield United</t>
   </si>
   <si>
     <t>Newcastle United</t>
-  </si>
-  <si>
-    <t>AFC Bournemouth</t>
-  </si>
-  <si>
-    <t>Chelsea</t>
   </si>
 </sst>
 </file>
@@ -1066,13 +1066,13 @@
         <v>4.9</v>
       </c>
       <c r="J2">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="K2">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="L2">
-        <v>3.8</v>
+        <v>4.33</v>
       </c>
       <c r="M2">
         <v>1.46</v>
@@ -1093,10 +1093,10 @@
         <v>2.9</v>
       </c>
       <c r="S2">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="T2">
-        <v>1.65</v>
+        <v>1.71</v>
       </c>
       <c r="U2">
         <v>1.95</v>
@@ -1114,10 +1114,10 @@
         <v>1.85</v>
       </c>
       <c r="Z2">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AA2">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AB2">
         <v>1.49</v>
@@ -1197,13 +1197,13 @@
         <v>5.25</v>
       </c>
       <c r="J3">
-        <v>1.57</v>
+        <v>2.13</v>
       </c>
       <c r="K3">
-        <v>3.7</v>
+        <v>1.93</v>
       </c>
       <c r="L3">
-        <v>5</v>
+        <v>8.07</v>
       </c>
       <c r="M3">
         <v>1.44</v>
@@ -1227,7 +1227,7 @@
         <v>2.1</v>
       </c>
       <c r="T3">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="U3">
         <v>2</v>
@@ -1245,10 +1245,10 @@
         <v>2.2</v>
       </c>
       <c r="Z3">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AA3">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AB3">
         <v>1.56</v>
@@ -1376,10 +1376,10 @@
         <v>2.35</v>
       </c>
       <c r="Z4">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AA4">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AB4">
         <v>1.84</v>
@@ -1459,13 +1459,13 @@
         <v>3.7</v>
       </c>
       <c r="J5">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="K5">
-        <v>3.25</v>
+        <v>1.97</v>
       </c>
       <c r="L5">
-        <v>2.88</v>
+        <v>8.5</v>
       </c>
       <c r="M5">
         <v>1.36</v>
@@ -1486,10 +1486,10 @@
         <v>3.4</v>
       </c>
       <c r="S5">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="T5">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="U5">
         <v>1.73</v>
@@ -1507,10 +1507,10 @@
         <v>1.7</v>
       </c>
       <c r="Z5">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AA5">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AB5">
         <v>1.27</v>
@@ -1590,13 +1590,13 @@
         <v>6.8</v>
       </c>
       <c r="J6">
-        <v>1.5</v>
+        <v>1.73</v>
       </c>
       <c r="K6">
-        <v>3.6</v>
+        <v>2.82</v>
       </c>
       <c r="L6">
-        <v>6</v>
+        <v>5.72</v>
       </c>
       <c r="M6">
         <v>1.46</v>
@@ -1617,10 +1617,10 @@
         <v>2.84</v>
       </c>
       <c r="S6">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T6">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="U6">
         <v>2.21</v>
@@ -1638,10 +1638,10 @@
         <v>2.41</v>
       </c>
       <c r="Z6">
-        <v>2.83</v>
+        <v>2.85</v>
       </c>
       <c r="AA6">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AB6">
         <v>1.76</v>
@@ -1721,13 +1721,13 @@
         <v>5</v>
       </c>
       <c r="J7">
-        <v>1.62</v>
+        <v>1.86</v>
       </c>
       <c r="K7">
-        <v>3.9</v>
+        <v>3.08</v>
       </c>
       <c r="L7">
-        <v>5</v>
+        <v>4.03</v>
       </c>
       <c r="M7">
         <v>1.4</v>
@@ -1748,7 +1748,7 @@
         <v>3.2</v>
       </c>
       <c r="S7">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="T7">
         <v>1.8</v>
@@ -1769,7 +1769,7 @@
         <v>2.04</v>
       </c>
       <c r="Z7">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AA7">
         <v>0.92</v>
@@ -1843,76 +1843,76 @@
         <v>135</v>
       </c>
       <c r="G8">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="H8">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="I8">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="J8">
-        <v>1.98</v>
+        <v>3.5</v>
       </c>
       <c r="K8">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="L8">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="M8">
-        <v>1.31</v>
+        <v>1.38</v>
       </c>
       <c r="N8">
-        <v>3.28</v>
+        <v>2.9</v>
       </c>
       <c r="O8">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="P8">
-        <v>9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="Q8">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="R8">
-        <v>4.1</v>
+        <v>3.34</v>
       </c>
       <c r="S8">
-        <v>1.67</v>
+        <v>2.05</v>
       </c>
       <c r="T8">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="U8">
-        <v>1.62</v>
+        <v>1.83</v>
       </c>
       <c r="V8">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="W8">
-        <v>1.32</v>
+        <v>1.54</v>
       </c>
       <c r="X8">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="Y8">
-        <v>1.73</v>
+        <v>1.42</v>
       </c>
       <c r="Z8">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AA8">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="AB8">
         <v>1.36</v>
       </c>
       <c r="AC8">
-        <v>1.28</v>
+        <v>1.35</v>
       </c>
       <c r="AD8">
-        <v>2.64</v>
+        <v>2.71</v>
       </c>
       <c r="AE8">
         <v>0</v>
@@ -1974,109 +1974,109 @@
         <v>136</v>
       </c>
       <c r="G9">
+        <v>3.6</v>
+      </c>
+      <c r="H9">
+        <v>2.05</v>
+      </c>
+      <c r="I9">
+        <v>2.88</v>
+      </c>
+      <c r="J9">
+        <v>3.2</v>
+      </c>
+      <c r="K9">
+        <v>1.76</v>
+      </c>
+      <c r="L9">
         <v>2.25</v>
       </c>
-      <c r="H9">
+      <c r="M9">
+        <v>1.37</v>
+      </c>
+      <c r="N9">
+        <v>3.01</v>
+      </c>
+      <c r="O9">
+        <v>1.01</v>
+      </c>
+      <c r="P9">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Q9">
+        <v>1.26</v>
+      </c>
+      <c r="R9">
+        <v>3.34</v>
+      </c>
+      <c r="S9">
+        <v>2.1</v>
+      </c>
+      <c r="T9">
+        <v>1.7</v>
+      </c>
+      <c r="U9">
+        <v>1.83</v>
+      </c>
+      <c r="V9">
+        <v>1.83</v>
+      </c>
+      <c r="W9">
+        <v>1.72</v>
+      </c>
+      <c r="X9">
+        <v>1.28</v>
+      </c>
+      <c r="Y9">
+        <v>1.3</v>
+      </c>
+      <c r="Z9">
+        <v>0.2</v>
+      </c>
+      <c r="AA9">
+        <v>0.9</v>
+      </c>
+      <c r="AB9">
+        <v>1.39</v>
+      </c>
+      <c r="AC9">
+        <v>1.44</v>
+      </c>
+      <c r="AD9">
+        <v>2.83</v>
+      </c>
+      <c r="AE9">
+        <v>2.15</v>
+      </c>
+      <c r="AF9">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AG9">
+        <v>1.9</v>
+      </c>
+      <c r="AH9">
+        <v>1.22</v>
+      </c>
+      <c r="AI9">
+        <v>3.64</v>
+      </c>
+      <c r="AJ9">
+        <v>1.43</v>
+      </c>
+      <c r="AK9">
+        <v>2.54</v>
+      </c>
+      <c r="AL9">
         <v>2.38</v>
       </c>
-      <c r="I9">
-        <v>4.33</v>
-      </c>
-      <c r="J9">
-        <v>1.59</v>
-      </c>
-      <c r="K9">
-        <v>4.2</v>
-      </c>
-      <c r="L9">
-        <v>4.7</v>
-      </c>
-      <c r="M9">
-        <v>1.27</v>
-      </c>
-      <c r="N9">
-        <v>3.45</v>
-      </c>
-      <c r="O9">
-        <v>1.03</v>
-      </c>
-      <c r="P9">
-        <v>12</v>
-      </c>
-      <c r="Q9">
-        <v>1.15</v>
-      </c>
-      <c r="R9">
-        <v>4.6</v>
-      </c>
-      <c r="S9">
-        <v>1.6</v>
-      </c>
-      <c r="T9">
-        <v>2.2</v>
-      </c>
-      <c r="U9">
-        <v>1.62</v>
-      </c>
-      <c r="V9">
-        <v>2.2</v>
-      </c>
-      <c r="W9">
-        <v>1.2</v>
-      </c>
-      <c r="X9">
-        <v>1.22</v>
-      </c>
-      <c r="Y9">
-        <v>1.95</v>
-      </c>
-      <c r="Z9">
-        <v>2.22</v>
-      </c>
-      <c r="AA9">
-        <v>1.22</v>
-      </c>
-      <c r="AB9">
-        <v>1.7</v>
-      </c>
-      <c r="AC9">
-        <v>1.65</v>
-      </c>
-      <c r="AD9">
-        <v>3.35</v>
-      </c>
-      <c r="AE9">
-        <v>1.58</v>
-      </c>
-      <c r="AF9">
-        <v>9.1</v>
-      </c>
-      <c r="AG9">
-        <v>2.82</v>
-      </c>
-      <c r="AH9">
-        <v>1.23</v>
-      </c>
-      <c r="AI9">
-        <v>3.56</v>
-      </c>
-      <c r="AJ9">
-        <v>1.44</v>
-      </c>
-      <c r="AK9">
-        <v>2.5</v>
-      </c>
-      <c r="AL9">
-        <v>1.8</v>
-      </c>
       <c r="AM9">
-        <v>2.09</v>
+        <v>1.94</v>
       </c>
       <c r="AN9">
-        <v>2.28</v>
+        <v>2.23</v>
       </c>
       <c r="AO9">
-        <v>1.68</v>
+        <v>1.55</v>
       </c>
       <c r="AP9">
         <v>3.04</v>
@@ -2105,115 +2105,115 @@
         <v>137</v>
       </c>
       <c r="G10">
-        <v>1.83</v>
+        <v>2.38</v>
       </c>
       <c r="H10">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="I10">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="J10">
-        <v>1.43</v>
+        <v>1.91</v>
       </c>
       <c r="K10">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="L10">
-        <v>6.2</v>
+        <v>4</v>
       </c>
       <c r="M10">
-        <v>1.32</v>
+        <v>1.27</v>
       </c>
       <c r="N10">
-        <v>3.29</v>
+        <v>3.45</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Q10">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="R10">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="S10">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="T10">
         <v>2.1</v>
       </c>
       <c r="U10">
-        <v>1.91</v>
+        <v>1.62</v>
       </c>
       <c r="V10">
+        <v>2.2</v>
+      </c>
+      <c r="W10">
+        <v>1.2</v>
+      </c>
+      <c r="X10">
+        <v>1.22</v>
+      </c>
+      <c r="Y10">
+        <v>1.95</v>
+      </c>
+      <c r="Z10">
+        <v>2.3</v>
+      </c>
+      <c r="AA10">
+        <v>1.1</v>
+      </c>
+      <c r="AB10">
+        <v>1.7</v>
+      </c>
+      <c r="AC10">
+        <v>1.65</v>
+      </c>
+      <c r="AD10">
+        <v>3.35</v>
+      </c>
+      <c r="AE10">
+        <v>1.58</v>
+      </c>
+      <c r="AF10">
+        <v>9.1</v>
+      </c>
+      <c r="AG10">
+        <v>2.82</v>
+      </c>
+      <c r="AH10">
+        <v>1.23</v>
+      </c>
+      <c r="AI10">
+        <v>3.56</v>
+      </c>
+      <c r="AJ10">
+        <v>1.44</v>
+      </c>
+      <c r="AK10">
+        <v>2.5</v>
+      </c>
+      <c r="AL10">
         <v>1.8</v>
       </c>
-      <c r="W10">
-        <v>1.07</v>
-      </c>
-      <c r="X10">
-        <v>1.17</v>
-      </c>
-      <c r="Y10">
-        <v>2.91</v>
-      </c>
-      <c r="Z10">
-        <v>2.44</v>
-      </c>
-      <c r="AA10">
-        <v>1.11</v>
-      </c>
-      <c r="AB10">
-        <v>1.88</v>
-      </c>
-      <c r="AC10">
-        <v>1.22</v>
-      </c>
-      <c r="AD10">
-        <v>3.1</v>
-      </c>
-      <c r="AE10">
-        <v>0</v>
-      </c>
-      <c r="AF10">
-        <v>0</v>
-      </c>
-      <c r="AG10">
-        <v>0</v>
-      </c>
-      <c r="AH10">
-        <v>0</v>
-      </c>
-      <c r="AI10">
-        <v>0</v>
-      </c>
-      <c r="AJ10">
-        <v>0</v>
-      </c>
-      <c r="AK10">
-        <v>0</v>
-      </c>
-      <c r="AL10">
-        <v>0</v>
-      </c>
       <c r="AM10">
-        <v>0</v>
+        <v>2.09</v>
       </c>
       <c r="AN10">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="AO10">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AP10">
-        <v>0</v>
+        <v>3.04</v>
       </c>
       <c r="AQ10">
-        <v>0</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="11" spans="1:43">
@@ -2236,115 +2236,115 @@
         <v>138</v>
       </c>
       <c r="G11">
-        <v>3.25</v>
+        <v>1.91</v>
       </c>
       <c r="H11">
+        <v>2.5</v>
+      </c>
+      <c r="I11">
+        <v>5.5</v>
+      </c>
+      <c r="J11">
+        <v>1.45</v>
+      </c>
+      <c r="K11">
+        <v>4.5</v>
+      </c>
+      <c r="L11">
+        <v>7</v>
+      </c>
+      <c r="M11">
+        <v>1.32</v>
+      </c>
+      <c r="N11">
+        <v>3.29</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>10</v>
+      </c>
+      <c r="Q11">
+        <v>1.18</v>
+      </c>
+      <c r="R11">
+        <v>4.1</v>
+      </c>
+      <c r="S11">
+        <v>1.6</v>
+      </c>
+      <c r="T11">
+        <v>2.3</v>
+      </c>
+      <c r="U11">
+        <v>1.8</v>
+      </c>
+      <c r="V11">
+        <v>1.91</v>
+      </c>
+      <c r="W11">
+        <v>1.07</v>
+      </c>
+      <c r="X11">
+        <v>1.17</v>
+      </c>
+      <c r="Y11">
+        <v>2.91</v>
+      </c>
+      <c r="Z11">
+        <v>2.3</v>
+      </c>
+      <c r="AA11">
+        <v>1.1</v>
+      </c>
+      <c r="AB11">
+        <v>1.88</v>
+      </c>
+      <c r="AC11">
+        <v>1.22</v>
+      </c>
+      <c r="AD11">
+        <v>3.1</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AJ11">
+        <v>1.3</v>
+      </c>
+      <c r="AK11">
+        <v>3.08</v>
+      </c>
+      <c r="AL11">
         <v>2.1</v>
       </c>
-      <c r="I11">
-        <v>3</v>
-      </c>
-      <c r="J11">
-        <v>2.75</v>
-      </c>
-      <c r="K11">
-        <v>3.3</v>
-      </c>
-      <c r="L11">
-        <v>2.43</v>
-      </c>
-      <c r="M11">
-        <v>1.38</v>
-      </c>
-      <c r="N11">
-        <v>2.9</v>
-      </c>
-      <c r="O11">
-        <v>1.01</v>
-      </c>
-      <c r="P11">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="Q11">
-        <v>1.26</v>
-      </c>
-      <c r="R11">
-        <v>3.34</v>
-      </c>
-      <c r="S11">
-        <v>1.89</v>
-      </c>
-      <c r="T11">
-        <v>1.88</v>
-      </c>
-      <c r="U11">
-        <v>1.73</v>
-      </c>
-      <c r="V11">
-        <v>2</v>
-      </c>
-      <c r="W11">
-        <v>1.54</v>
-      </c>
-      <c r="X11">
-        <v>1.29</v>
-      </c>
-      <c r="Y11">
-        <v>1.42</v>
-      </c>
-      <c r="Z11">
-        <v>1.33</v>
-      </c>
-      <c r="AA11">
-        <v>1.89</v>
-      </c>
-      <c r="AB11">
-        <v>1.36</v>
-      </c>
-      <c r="AC11">
-        <v>1.35</v>
-      </c>
-      <c r="AD11">
-        <v>2.71</v>
-      </c>
-      <c r="AE11">
-        <v>0</v>
-      </c>
-      <c r="AF11">
-        <v>0</v>
-      </c>
-      <c r="AG11">
-        <v>0</v>
-      </c>
-      <c r="AH11">
-        <v>0</v>
-      </c>
-      <c r="AI11">
-        <v>0</v>
-      </c>
-      <c r="AJ11">
-        <v>0</v>
-      </c>
-      <c r="AK11">
-        <v>0</v>
-      </c>
-      <c r="AL11">
-        <v>0</v>
-      </c>
       <c r="AM11">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AN11">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="AO11">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="AP11">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AQ11">
-        <v>0</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="12" spans="1:43">
@@ -2367,76 +2367,76 @@
         <v>139</v>
       </c>
       <c r="G12">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="H12">
+        <v>2.25</v>
+      </c>
+      <c r="I12">
+        <v>3.4</v>
+      </c>
+      <c r="J12">
+        <v>2.15</v>
+      </c>
+      <c r="K12">
+        <v>3.75</v>
+      </c>
+      <c r="L12">
+        <v>3.1</v>
+      </c>
+      <c r="M12">
+        <v>1.31</v>
+      </c>
+      <c r="N12">
+        <v>3.28</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>9</v>
+      </c>
+      <c r="Q12">
+        <v>1.18</v>
+      </c>
+      <c r="R12">
+        <v>4.1</v>
+      </c>
+      <c r="S12">
+        <v>1.73</v>
+      </c>
+      <c r="T12">
+        <v>2.08</v>
+      </c>
+      <c r="U12">
+        <v>1.62</v>
+      </c>
+      <c r="V12">
+        <v>2.2</v>
+      </c>
+      <c r="W12">
+        <v>1.32</v>
+      </c>
+      <c r="X12">
+        <v>1.26</v>
+      </c>
+      <c r="Y12">
+        <v>1.73</v>
+      </c>
+      <c r="Z12">
         <v>2.1</v>
       </c>
-      <c r="I12">
-        <v>2.75</v>
-      </c>
-      <c r="J12">
-        <v>3.35</v>
-      </c>
-      <c r="K12">
-        <v>3.6</v>
-      </c>
-      <c r="L12">
-        <v>1.97</v>
-      </c>
-      <c r="M12">
-        <v>1.37</v>
-      </c>
-      <c r="N12">
-        <v>3.01</v>
-      </c>
-      <c r="O12">
-        <v>1.01</v>
-      </c>
-      <c r="P12">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="Q12">
-        <v>1.26</v>
-      </c>
-      <c r="R12">
-        <v>3.34</v>
-      </c>
-      <c r="S12">
-        <v>1.87</v>
-      </c>
-      <c r="T12">
-        <v>1.9</v>
-      </c>
-      <c r="U12">
-        <v>1.73</v>
-      </c>
-      <c r="V12">
-        <v>2</v>
-      </c>
-      <c r="W12">
-        <v>1.72</v>
-      </c>
-      <c r="X12">
+      <c r="AA12">
+        <v>0.91</v>
+      </c>
+      <c r="AB12">
+        <v>1.36</v>
+      </c>
+      <c r="AC12">
         <v>1.28</v>
       </c>
-      <c r="Y12">
-        <v>1.3</v>
-      </c>
-      <c r="Z12">
-        <v>0.22</v>
-      </c>
-      <c r="AA12">
-        <v>0.67</v>
-      </c>
-      <c r="AB12">
-        <v>1.39</v>
-      </c>
-      <c r="AC12">
-        <v>1.44</v>
-      </c>
       <c r="AD12">
-        <v>2.83</v>
+        <v>2.64</v>
       </c>
       <c r="AE12">
         <v>0</v>
@@ -2448,34 +2448,34 @@
         <v>0</v>
       </c>
       <c r="AH12">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AI12">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="AJ12">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="AK12">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="AL12">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="AM12">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AN12">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AO12">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="AP12">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="AQ12">
-        <v>0</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="13" spans="1:43">
@@ -2489,7 +2489,7 @@
         <v>73</v>
       </c>
       <c r="D13">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E13" t="s">
         <v>94</v>
@@ -2498,115 +2498,115 @@
         <v>140</v>
       </c>
       <c r="G13">
-        <v>2.7</v>
+        <v>3.9</v>
       </c>
       <c r="H13">
+        <v>2.35</v>
+      </c>
+      <c r="I13">
+        <v>2.35</v>
+      </c>
+      <c r="J13">
+        <v>3.63</v>
+      </c>
+      <c r="K13">
+        <v>3.92</v>
+      </c>
+      <c r="L13">
+        <v>1.92</v>
+      </c>
+      <c r="M13">
+        <v>1.27</v>
+      </c>
+      <c r="N13">
+        <v>3.4</v>
+      </c>
+      <c r="O13">
+        <v>1.01</v>
+      </c>
+      <c r="P13">
+        <v>12</v>
+      </c>
+      <c r="Q13">
+        <v>1.16</v>
+      </c>
+      <c r="R13">
+        <v>4.6</v>
+      </c>
+      <c r="S13">
+        <v>1.67</v>
+      </c>
+      <c r="T13">
         <v>2.1</v>
       </c>
-      <c r="I13">
+      <c r="U13">
+        <v>1.5</v>
+      </c>
+      <c r="V13">
+        <v>2.4</v>
+      </c>
+      <c r="W13">
+        <v>1.83</v>
+      </c>
+      <c r="X13">
+        <v>1.27</v>
+      </c>
+      <c r="Y13">
+        <v>1.25</v>
+      </c>
+      <c r="Z13">
+        <v>0.92</v>
+      </c>
+      <c r="AA13">
+        <v>1.58</v>
+      </c>
+      <c r="AB13">
+        <v>1.49</v>
+      </c>
+      <c r="AC13">
+        <v>1.38</v>
+      </c>
+      <c r="AD13">
+        <v>2.87</v>
+      </c>
+      <c r="AE13">
+        <v>2.28</v>
+      </c>
+      <c r="AF13">
+        <v>9.4</v>
+      </c>
+      <c r="AG13">
+        <v>1.85</v>
+      </c>
+      <c r="AH13">
+        <v>1.18</v>
+      </c>
+      <c r="AI13">
         <v>4.33</v>
       </c>
-      <c r="J13">
-        <v>1.95</v>
-      </c>
-      <c r="K13">
-        <v>3.3</v>
-      </c>
-      <c r="L13">
-        <v>3.8</v>
-      </c>
-      <c r="M13">
-        <v>1.5</v>
-      </c>
-      <c r="N13">
-        <v>2.75</v>
-      </c>
-      <c r="O13">
-        <v>1.05</v>
-      </c>
-      <c r="P13">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="Q13">
-        <v>1.38</v>
-      </c>
-      <c r="R13">
-        <v>2.96</v>
-      </c>
-      <c r="S13">
-        <v>2</v>
-      </c>
-      <c r="T13">
-        <v>1.7</v>
-      </c>
-      <c r="U13">
-        <v>1.9</v>
-      </c>
-      <c r="V13">
-        <v>1.87</v>
-      </c>
-      <c r="W13">
-        <v>1.18</v>
-      </c>
-      <c r="X13">
-        <v>1.33</v>
-      </c>
-      <c r="Y13">
-        <v>1.83</v>
-      </c>
-      <c r="Z13">
-        <v>1.64</v>
-      </c>
-      <c r="AA13">
-        <v>0.87</v>
-      </c>
-      <c r="AB13">
-        <v>1.27</v>
-      </c>
-      <c r="AC13">
-        <v>1.13</v>
-      </c>
-      <c r="AD13">
-        <v>2.4</v>
-      </c>
-      <c r="AE13">
-        <v>1.51</v>
-      </c>
-      <c r="AF13">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AG13">
-        <v>3.1</v>
-      </c>
-      <c r="AH13">
-        <v>1.28</v>
-      </c>
-      <c r="AI13">
+      <c r="AJ13">
+        <v>1.3</v>
+      </c>
+      <c r="AK13">
         <v>3.2</v>
       </c>
-      <c r="AJ13">
-        <v>1.54</v>
-      </c>
-      <c r="AK13">
-        <v>2.32</v>
-      </c>
       <c r="AL13">
-        <v>1.95</v>
+        <v>1.53</v>
       </c>
       <c r="AM13">
-        <v>1.8</v>
+        <v>2.45</v>
       </c>
       <c r="AN13">
-        <v>2.52</v>
+        <v>1.88</v>
       </c>
       <c r="AO13">
-        <v>1.46</v>
+        <v>1.92</v>
       </c>
       <c r="AP13">
-        <v>3.42</v>
+        <v>2.29</v>
       </c>
       <c r="AQ13">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="14" spans="1:43">
@@ -2620,7 +2620,7 @@
         <v>73</v>
       </c>
       <c r="D14">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E14" t="s">
         <v>95</v>
@@ -2629,115 +2629,115 @@
         <v>141</v>
       </c>
       <c r="G14">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="H14">
-        <v>2.48</v>
+        <v>2.25</v>
       </c>
       <c r="I14">
-        <v>5.3</v>
+        <v>3.9</v>
       </c>
       <c r="J14">
-        <v>1.6</v>
+        <v>1.82</v>
       </c>
       <c r="K14">
-        <v>4</v>
+        <v>3.84</v>
       </c>
       <c r="L14">
-        <v>5</v>
+        <v>4.1</v>
       </c>
       <c r="M14">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="N14">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="O14">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="P14">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="Q14">
         <v>1.18</v>
       </c>
       <c r="R14">
-        <v>4.05</v>
+        <v>4.5</v>
       </c>
       <c r="S14">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="T14">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="U14">
-        <v>1.68</v>
+        <v>1.55</v>
       </c>
       <c r="V14">
-        <v>2.13</v>
+        <v>2.25</v>
       </c>
       <c r="W14">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="X14">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="Y14">
-        <v>2.15</v>
+        <v>1.9</v>
       </c>
       <c r="Z14">
-        <v>1.07</v>
+        <v>1.38</v>
       </c>
       <c r="AA14">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AB14">
-        <v>1.16</v>
+        <v>1.71</v>
       </c>
       <c r="AC14">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AD14">
-        <v>2.28</v>
+        <v>2.82</v>
       </c>
       <c r="AE14">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AF14">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG14">
-        <v>3.58</v>
+        <v>3.16</v>
       </c>
       <c r="AH14">
-        <v>1.22</v>
+        <v>1.14</v>
       </c>
       <c r="AI14">
-        <v>3.65</v>
+        <v>4.7</v>
       </c>
       <c r="AJ14">
-        <v>1.44</v>
+        <v>1.28</v>
       </c>
       <c r="AK14">
-        <v>2.58</v>
+        <v>3.18</v>
       </c>
       <c r="AL14">
-        <v>1.9</v>
+        <v>1.55</v>
       </c>
       <c r="AM14">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="AN14">
-        <v>2.23</v>
+        <v>1.87</v>
       </c>
       <c r="AO14">
-        <v>1.58</v>
+        <v>1.83</v>
       </c>
       <c r="AP14">
-        <v>2.93</v>
+        <v>2.3</v>
       </c>
       <c r="AQ14">
-        <v>1.33</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="15" spans="1:43">
@@ -2751,7 +2751,7 @@
         <v>73</v>
       </c>
       <c r="D15">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E15" t="s">
         <v>96</v>
@@ -2760,115 +2760,115 @@
         <v>142</v>
       </c>
       <c r="G15">
-        <v>2.35</v>
+        <v>2.7</v>
       </c>
       <c r="H15">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="I15">
-        <v>3.9</v>
+        <v>4.33</v>
       </c>
       <c r="J15">
+        <v>2.03</v>
+      </c>
+      <c r="K15">
+        <v>3.5</v>
+      </c>
+      <c r="L15">
+        <v>4.06</v>
+      </c>
+      <c r="M15">
+        <v>1.5</v>
+      </c>
+      <c r="N15">
+        <v>2.75</v>
+      </c>
+      <c r="O15">
+        <v>1.05</v>
+      </c>
+      <c r="P15">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="Q15">
+        <v>1.38</v>
+      </c>
+      <c r="R15">
+        <v>2.96</v>
+      </c>
+      <c r="S15">
+        <v>2.1</v>
+      </c>
+      <c r="T15">
+        <v>1.67</v>
+      </c>
+      <c r="U15">
         <v>1.9</v>
       </c>
-      <c r="K15">
-        <v>3.8</v>
-      </c>
-      <c r="L15">
-        <v>3.6</v>
-      </c>
-      <c r="M15">
-        <v>1.29</v>
-      </c>
-      <c r="N15">
-        <v>3.25</v>
-      </c>
-      <c r="O15">
-        <v>1.01</v>
-      </c>
-      <c r="P15">
-        <v>13</v>
-      </c>
-      <c r="Q15">
+      <c r="V15">
+        <v>1.87</v>
+      </c>
+      <c r="W15">
         <v>1.18</v>
       </c>
-      <c r="R15">
-        <v>4.5</v>
-      </c>
-      <c r="S15">
-        <v>1.57</v>
-      </c>
-      <c r="T15">
-        <v>2.25</v>
-      </c>
-      <c r="U15">
-        <v>1.55</v>
-      </c>
-      <c r="V15">
-        <v>2.25</v>
-      </c>
-      <c r="W15">
+      <c r="X15">
+        <v>1.33</v>
+      </c>
+      <c r="Y15">
+        <v>1.83</v>
+      </c>
+      <c r="Z15">
+        <v>1.6</v>
+      </c>
+      <c r="AA15">
+        <v>0.88</v>
+      </c>
+      <c r="AB15">
+        <v>1.27</v>
+      </c>
+      <c r="AC15">
+        <v>1.13</v>
+      </c>
+      <c r="AD15">
+        <v>2.4</v>
+      </c>
+      <c r="AE15">
+        <v>1.51</v>
+      </c>
+      <c r="AF15">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AG15">
+        <v>3.1</v>
+      </c>
+      <c r="AH15">
+        <v>1.28</v>
+      </c>
+      <c r="AI15">
+        <v>3.2</v>
+      </c>
+      <c r="AJ15">
+        <v>1.54</v>
+      </c>
+      <c r="AK15">
+        <v>2.32</v>
+      </c>
+      <c r="AL15">
+        <v>1.95</v>
+      </c>
+      <c r="AM15">
+        <v>1.8</v>
+      </c>
+      <c r="AN15">
+        <v>2.52</v>
+      </c>
+      <c r="AO15">
+        <v>1.46</v>
+      </c>
+      <c r="AP15">
+        <v>3.42</v>
+      </c>
+      <c r="AQ15">
         <v>1.25</v>
-      </c>
-      <c r="X15">
-        <v>1.25</v>
-      </c>
-      <c r="Y15">
-        <v>1.9</v>
-      </c>
-      <c r="Z15">
-        <v>1.5</v>
-      </c>
-      <c r="AA15">
-        <v>0.5</v>
-      </c>
-      <c r="AB15">
-        <v>1.71</v>
-      </c>
-      <c r="AC15">
-        <v>1.11</v>
-      </c>
-      <c r="AD15">
-        <v>2.82</v>
-      </c>
-      <c r="AE15">
-        <v>1.5</v>
-      </c>
-      <c r="AF15">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AG15">
-        <v>3.16</v>
-      </c>
-      <c r="AH15">
-        <v>1.14</v>
-      </c>
-      <c r="AI15">
-        <v>4.7</v>
-      </c>
-      <c r="AJ15">
-        <v>1.28</v>
-      </c>
-      <c r="AK15">
-        <v>3.18</v>
-      </c>
-      <c r="AL15">
-        <v>1.55</v>
-      </c>
-      <c r="AM15">
-        <v>2.3</v>
-      </c>
-      <c r="AN15">
-        <v>1.87</v>
-      </c>
-      <c r="AO15">
-        <v>1.83</v>
-      </c>
-      <c r="AP15">
-        <v>2.3</v>
-      </c>
-      <c r="AQ15">
-        <v>1.55</v>
       </c>
     </row>
     <row r="16" spans="1:43">
@@ -2882,7 +2882,7 @@
         <v>73</v>
       </c>
       <c r="D16">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E16" t="s">
         <v>97</v>
@@ -2891,115 +2891,115 @@
         <v>143</v>
       </c>
       <c r="G16">
-        <v>3.9</v>
+        <v>2.2</v>
       </c>
       <c r="H16">
-        <v>2.35</v>
+        <v>2.48</v>
       </c>
       <c r="I16">
-        <v>2.35</v>
+        <v>5.3</v>
       </c>
       <c r="J16">
-        <v>3.8</v>
+        <v>1.69</v>
       </c>
       <c r="K16">
-        <v>3.8</v>
+        <v>2.37</v>
       </c>
       <c r="L16">
-        <v>1.85</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="M16">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="N16">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="O16">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="P16">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Q16">
+        <v>1.18</v>
+      </c>
+      <c r="R16">
+        <v>4.05</v>
+      </c>
+      <c r="S16">
+        <v>1.65</v>
+      </c>
+      <c r="T16">
+        <v>2.1</v>
+      </c>
+      <c r="U16">
+        <v>1.68</v>
+      </c>
+      <c r="V16">
+        <v>2.13</v>
+      </c>
+      <c r="W16">
+        <v>1.17</v>
+      </c>
+      <c r="X16">
+        <v>1.2</v>
+      </c>
+      <c r="Y16">
+        <v>2.15</v>
+      </c>
+      <c r="Z16">
+        <v>1.2</v>
+      </c>
+      <c r="AA16">
+        <v>0.47</v>
+      </c>
+      <c r="AB16">
         <v>1.16</v>
       </c>
-      <c r="R16">
-        <v>4.6</v>
-      </c>
-      <c r="S16">
-        <v>1.57</v>
-      </c>
-      <c r="T16">
-        <v>2.25</v>
-      </c>
-      <c r="U16">
-        <v>1.5</v>
-      </c>
-      <c r="V16">
-        <v>2.4</v>
-      </c>
-      <c r="W16">
-        <v>1.83</v>
-      </c>
-      <c r="X16">
-        <v>1.27</v>
-      </c>
-      <c r="Y16">
-        <v>1.25</v>
-      </c>
-      <c r="Z16">
-        <v>0.92</v>
-      </c>
-      <c r="AA16">
+      <c r="AC16">
+        <v>1.12</v>
+      </c>
+      <c r="AD16">
+        <v>2.28</v>
+      </c>
+      <c r="AE16">
+        <v>1.4</v>
+      </c>
+      <c r="AF16">
+        <v>10</v>
+      </c>
+      <c r="AG16">
+        <v>3.58</v>
+      </c>
+      <c r="AH16">
+        <v>1.22</v>
+      </c>
+      <c r="AI16">
+        <v>3.65</v>
+      </c>
+      <c r="AJ16">
+        <v>1.44</v>
+      </c>
+      <c r="AK16">
+        <v>2.58</v>
+      </c>
+      <c r="AL16">
+        <v>1.9</v>
+      </c>
+      <c r="AM16">
+        <v>1.9</v>
+      </c>
+      <c r="AN16">
+        <v>2.23</v>
+      </c>
+      <c r="AO16">
         <v>1.58</v>
       </c>
-      <c r="AB16">
-        <v>1.49</v>
-      </c>
-      <c r="AC16">
-        <v>1.38</v>
-      </c>
-      <c r="AD16">
-        <v>2.87</v>
-      </c>
-      <c r="AE16">
-        <v>2.28</v>
-      </c>
-      <c r="AF16">
-        <v>9.4</v>
-      </c>
-      <c r="AG16">
-        <v>1.85</v>
-      </c>
-      <c r="AH16">
-        <v>1.18</v>
-      </c>
-      <c r="AI16">
-        <v>4.33</v>
-      </c>
-      <c r="AJ16">
-        <v>1.3</v>
-      </c>
-      <c r="AK16">
-        <v>3.2</v>
-      </c>
-      <c r="AL16">
-        <v>1.53</v>
-      </c>
-      <c r="AM16">
-        <v>2.45</v>
-      </c>
-      <c r="AN16">
-        <v>1.88</v>
-      </c>
-      <c r="AO16">
-        <v>1.92</v>
-      </c>
       <c r="AP16">
-        <v>2.29</v>
+        <v>2.93</v>
       </c>
       <c r="AQ16">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="17" spans="1:43">
@@ -3031,13 +3031,13 @@
         <v>3.84</v>
       </c>
       <c r="J17">
-        <v>2.5</v>
+        <v>3.28</v>
       </c>
       <c r="K17">
-        <v>2.9</v>
+        <v>2.02</v>
       </c>
       <c r="L17">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="M17">
         <v>1.51</v>
@@ -3058,10 +3058,10 @@
         <v>2.62</v>
       </c>
       <c r="S17">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="T17">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="U17">
         <v>2</v>
@@ -3153,22 +3153,22 @@
         <v>145</v>
       </c>
       <c r="G18">
-        <v>2.88</v>
+        <v>2.63</v>
       </c>
       <c r="H18">
         <v>2.05</v>
       </c>
       <c r="I18">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="J18">
-        <v>2.4</v>
+        <v>2.33</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>3.13</v>
       </c>
       <c r="L18">
-        <v>2.75</v>
+        <v>3.05</v>
       </c>
       <c r="M18">
         <v>1.4</v>
@@ -3189,16 +3189,16 @@
         <v>3.25</v>
       </c>
       <c r="S18">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="T18">
         <v>1.8</v>
       </c>
       <c r="U18">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V18">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W18">
         <v>1.36</v>
@@ -3246,7 +3246,7 @@
         <v>2.71</v>
       </c>
       <c r="AL18">
-        <v>1.72</v>
+        <v>2.1</v>
       </c>
       <c r="AM18">
         <v>2.09</v>
@@ -3293,13 +3293,13 @@
         <v>3.5</v>
       </c>
       <c r="J19">
-        <v>2.25</v>
+        <v>2.99</v>
       </c>
       <c r="K19">
-        <v>3.4</v>
+        <v>1.65</v>
       </c>
       <c r="L19">
-        <v>3</v>
+        <v>5.84</v>
       </c>
       <c r="M19">
         <v>1.36</v>
@@ -3424,13 +3424,13 @@
         <v>5</v>
       </c>
       <c r="J20">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="K20">
-        <v>3.7</v>
+        <v>2.91</v>
       </c>
       <c r="L20">
-        <v>4.4</v>
+        <v>5</v>
       </c>
       <c r="M20">
         <v>1.38</v>
@@ -3451,10 +3451,10 @@
         <v>3.3</v>
       </c>
       <c r="S20">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="T20">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="U20">
         <v>1.8</v>
@@ -3537,7 +3537,7 @@
         <v>76</v>
       </c>
       <c r="D21">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E21" t="s">
         <v>102</v>
@@ -3546,120 +3546,120 @@
         <v>148</v>
       </c>
       <c r="G21">
+        <v>2.38</v>
+      </c>
+      <c r="H21">
+        <v>2.5</v>
+      </c>
+      <c r="I21">
+        <v>4</v>
+      </c>
+      <c r="J21">
+        <v>1.8</v>
+      </c>
+      <c r="K21">
         <v>3.4</v>
       </c>
-      <c r="H21">
+      <c r="L21">
+        <v>4.33</v>
+      </c>
+      <c r="M21">
+        <v>1.25</v>
+      </c>
+      <c r="N21">
+        <v>3.75</v>
+      </c>
+      <c r="O21">
+        <v>1.02</v>
+      </c>
+      <c r="P21">
+        <v>10</v>
+      </c>
+      <c r="Q21">
+        <v>1.11</v>
+      </c>
+      <c r="R21">
+        <v>5.3</v>
+      </c>
+      <c r="S21">
+        <v>1.53</v>
+      </c>
+      <c r="T21">
+        <v>2.4</v>
+      </c>
+      <c r="U21">
+        <v>1.5</v>
+      </c>
+      <c r="V21">
+        <v>2.5</v>
+      </c>
+      <c r="W21">
+        <v>1.16</v>
+      </c>
+      <c r="X21">
+        <v>1.22</v>
+      </c>
+      <c r="Y21">
+        <v>2.05</v>
+      </c>
+      <c r="Z21">
+        <v>2.13</v>
+      </c>
+      <c r="AA21">
+        <v>1.4</v>
+      </c>
+      <c r="AB21">
+        <v>1.81</v>
+      </c>
+      <c r="AC21">
+        <v>1.4</v>
+      </c>
+      <c r="AD21">
+        <v>3.21</v>
+      </c>
+      <c r="AE21">
+        <v>1.5</v>
+      </c>
+      <c r="AF21">
+        <v>9</v>
+      </c>
+      <c r="AG21">
+        <v>2.8</v>
+      </c>
+      <c r="AH21">
+        <v>1.17</v>
+      </c>
+      <c r="AI21">
+        <v>4.7</v>
+      </c>
+      <c r="AJ21">
+        <v>1.32</v>
+      </c>
+      <c r="AK21">
+        <v>3.2</v>
+      </c>
+      <c r="AL21">
+        <v>1.63</v>
+      </c>
+      <c r="AM21">
         <v>2.25</v>
       </c>
-      <c r="I21">
-        <v>3</v>
-      </c>
-      <c r="J21">
-        <v>3.2</v>
-      </c>
-      <c r="K21">
-        <v>3.3</v>
-      </c>
-      <c r="L21">
-        <v>2.2</v>
-      </c>
-      <c r="M21">
-        <v>1.36</v>
-      </c>
-      <c r="N21">
-        <v>3</v>
-      </c>
-      <c r="O21">
-        <v>1.04</v>
-      </c>
-      <c r="P21">
-        <v>13</v>
-      </c>
-      <c r="Q21">
-        <v>1.24</v>
-      </c>
-      <c r="R21">
-        <v>3.89</v>
-      </c>
-      <c r="S21">
-        <v>1.7</v>
-      </c>
-      <c r="T21">
-        <v>2.05</v>
-      </c>
-      <c r="U21">
-        <v>1.62</v>
-      </c>
-      <c r="V21">
-        <v>2.2</v>
-      </c>
-      <c r="W21">
-        <v>1.6</v>
-      </c>
-      <c r="X21">
-        <v>1.26</v>
-      </c>
-      <c r="Y21">
-        <v>1.42</v>
-      </c>
-      <c r="Z21">
-        <v>1.25</v>
-      </c>
-      <c r="AA21">
-        <v>1.33</v>
-      </c>
-      <c r="AB21">
-        <v>1.44</v>
-      </c>
-      <c r="AC21">
-        <v>1.16</v>
-      </c>
-      <c r="AD21">
+      <c r="AN21">
+        <v>2.02</v>
+      </c>
+      <c r="AO21">
+        <v>1.78</v>
+      </c>
+      <c r="AP21">
         <v>2.6</v>
       </c>
-      <c r="AE21">
-        <v>2.15</v>
-      </c>
-      <c r="AF21">
-        <v>7.5</v>
-      </c>
-      <c r="AG21">
-        <v>1.93</v>
-      </c>
-      <c r="AH21">
-        <v>1.29</v>
-      </c>
-      <c r="AI21">
-        <v>3.05</v>
-      </c>
-      <c r="AJ21">
-        <v>1.53</v>
-      </c>
-      <c r="AK21">
-        <v>2.28</v>
-      </c>
-      <c r="AL21">
-        <v>1.9</v>
-      </c>
-      <c r="AM21">
-        <v>1.79</v>
-      </c>
-      <c r="AN21">
-        <v>2.4</v>
-      </c>
-      <c r="AO21">
+      <c r="AQ21">
         <v>1.46</v>
-      </c>
-      <c r="AP21">
-        <v>3.2</v>
-      </c>
-      <c r="AQ21">
-        <v>1.27</v>
       </c>
     </row>
     <row r="22" spans="1:43">
       <c r="A22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B22" s="2">
         <v>45366</v>
@@ -3758,16 +3758,16 @@
         <v>2.38</v>
       </c>
       <c r="AH22">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AI22">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="AJ22">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AK22">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="AL22">
         <v>1.64</v>
@@ -3782,10 +3782,10 @@
         <v>1.77</v>
       </c>
       <c r="AP22">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="AQ22">
-        <v>0</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="23" spans="1:43">
@@ -3799,7 +3799,7 @@
         <v>76</v>
       </c>
       <c r="D23">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E23" t="s">
         <v>104</v>
@@ -3808,120 +3808,120 @@
         <v>150</v>
       </c>
       <c r="G23">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="H23">
+        <v>2.25</v>
+      </c>
+      <c r="I23">
+        <v>3</v>
+      </c>
+      <c r="J23">
+        <v>3.14</v>
+      </c>
+      <c r="K23">
+        <v>2.82</v>
+      </c>
+      <c r="L23">
+        <v>2.3</v>
+      </c>
+      <c r="M23">
+        <v>1.36</v>
+      </c>
+      <c r="N23">
+        <v>3</v>
+      </c>
+      <c r="O23">
+        <v>1.04</v>
+      </c>
+      <c r="P23">
+        <v>13</v>
+      </c>
+      <c r="Q23">
+        <v>1.24</v>
+      </c>
+      <c r="R23">
+        <v>3.89</v>
+      </c>
+      <c r="S23">
+        <v>1.63</v>
+      </c>
+      <c r="T23">
+        <v>2.09</v>
+      </c>
+      <c r="U23">
+        <v>1.62</v>
+      </c>
+      <c r="V23">
+        <v>2.2</v>
+      </c>
+      <c r="W23">
+        <v>1.6</v>
+      </c>
+      <c r="X23">
+        <v>1.26</v>
+      </c>
+      <c r="Y23">
+        <v>1.42</v>
+      </c>
+      <c r="Z23">
+        <v>1.25</v>
+      </c>
+      <c r="AA23">
+        <v>1.33</v>
+      </c>
+      <c r="AB23">
+        <v>1.44</v>
+      </c>
+      <c r="AC23">
+        <v>1.16</v>
+      </c>
+      <c r="AD23">
+        <v>2.6</v>
+      </c>
+      <c r="AE23">
+        <v>2.15</v>
+      </c>
+      <c r="AF23">
+        <v>7.5</v>
+      </c>
+      <c r="AG23">
+        <v>1.93</v>
+      </c>
+      <c r="AH23">
+        <v>1.29</v>
+      </c>
+      <c r="AI23">
+        <v>3.05</v>
+      </c>
+      <c r="AJ23">
+        <v>1.53</v>
+      </c>
+      <c r="AK23">
+        <v>2.28</v>
+      </c>
+      <c r="AL23">
+        <v>1.9</v>
+      </c>
+      <c r="AM23">
+        <v>1.79</v>
+      </c>
+      <c r="AN23">
         <v>2.4</v>
       </c>
-      <c r="I23">
-        <v>2.1</v>
-      </c>
-      <c r="J23">
-        <v>5.64</v>
-      </c>
-      <c r="K23">
-        <v>4.29</v>
-      </c>
-      <c r="L23">
-        <v>1.56</v>
-      </c>
-      <c r="M23">
-        <v>1.29</v>
-      </c>
-      <c r="N23">
-        <v>3.35</v>
-      </c>
-      <c r="O23">
-        <v>1.02</v>
-      </c>
-      <c r="P23">
-        <v>15</v>
-      </c>
-      <c r="Q23">
-        <v>1.2</v>
-      </c>
-      <c r="R23">
-        <v>4.33</v>
-      </c>
-      <c r="S23">
-        <v>1.68</v>
-      </c>
-      <c r="T23">
-        <v>2.1</v>
-      </c>
-      <c r="U23">
-        <v>1.72</v>
-      </c>
-      <c r="V23">
-        <v>2.05</v>
-      </c>
-      <c r="W23">
-        <v>2.45</v>
-      </c>
-      <c r="X23">
-        <v>1.18</v>
-      </c>
-      <c r="Y23">
-        <v>1.15</v>
-      </c>
-      <c r="Z23">
-        <v>0.93</v>
-      </c>
-      <c r="AA23">
-        <v>1.79</v>
-      </c>
-      <c r="AB23">
-        <v>1.29</v>
-      </c>
-      <c r="AC23">
-        <v>1.48</v>
-      </c>
-      <c r="AD23">
-        <v>2.77</v>
-      </c>
-      <c r="AE23">
+      <c r="AO23">
+        <v>1.46</v>
+      </c>
+      <c r="AP23">
         <v>3.2</v>
       </c>
-      <c r="AF23">
-        <v>9.5</v>
-      </c>
-      <c r="AG23">
-        <v>1.4</v>
-      </c>
-      <c r="AH23">
-        <v>0</v>
-      </c>
-      <c r="AI23">
-        <v>0</v>
-      </c>
-      <c r="AJ23">
-        <v>0</v>
-      </c>
-      <c r="AK23">
-        <v>0</v>
-      </c>
-      <c r="AL23">
-        <v>1.76</v>
-      </c>
-      <c r="AM23">
-        <v>2.05</v>
-      </c>
-      <c r="AN23">
-        <v>2.19</v>
-      </c>
-      <c r="AO23">
-        <v>1.67</v>
-      </c>
-      <c r="AP23">
-        <v>0</v>
-      </c>
       <c r="AQ23">
-        <v>0</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="24" spans="1:43">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B24" s="2">
         <v>45366</v>
@@ -3939,120 +3939,120 @@
         <v>151</v>
       </c>
       <c r="G24">
-        <v>2.38</v>
+        <v>5.5</v>
       </c>
       <c r="H24">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="I24">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="J24">
-        <v>1.8</v>
+        <v>5.64</v>
       </c>
       <c r="K24">
-        <v>3.4</v>
+        <v>4.29</v>
       </c>
       <c r="L24">
-        <v>4.33</v>
+        <v>1.56</v>
       </c>
       <c r="M24">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="N24">
-        <v>3.75</v>
+        <v>3.35</v>
       </c>
       <c r="O24">
         <v>1.02</v>
       </c>
       <c r="P24">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="Q24">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="R24">
-        <v>5.3</v>
+        <v>4.33</v>
       </c>
       <c r="S24">
-        <v>1.53</v>
+        <v>1.68</v>
       </c>
       <c r="T24">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="U24">
-        <v>1.5</v>
+        <v>1.72</v>
       </c>
       <c r="V24">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="W24">
-        <v>1.16</v>
+        <v>2.45</v>
       </c>
       <c r="X24">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="Y24">
+        <v>1.15</v>
+      </c>
+      <c r="Z24">
+        <v>0.93</v>
+      </c>
+      <c r="AA24">
+        <v>1.79</v>
+      </c>
+      <c r="AB24">
+        <v>1.29</v>
+      </c>
+      <c r="AC24">
+        <v>1.48</v>
+      </c>
+      <c r="AD24">
+        <v>2.77</v>
+      </c>
+      <c r="AE24">
+        <v>3.2</v>
+      </c>
+      <c r="AF24">
+        <v>9.5</v>
+      </c>
+      <c r="AG24">
+        <v>1.4</v>
+      </c>
+      <c r="AH24">
+        <v>1.21</v>
+      </c>
+      <c r="AI24">
+        <v>4.2</v>
+      </c>
+      <c r="AJ24">
+        <v>1.38</v>
+      </c>
+      <c r="AK24">
+        <v>2.85</v>
+      </c>
+      <c r="AL24">
+        <v>1.76</v>
+      </c>
+      <c r="AM24">
         <v>2.05</v>
       </c>
-      <c r="Z24">
-        <v>2.13</v>
-      </c>
-      <c r="AA24">
-        <v>1.4</v>
-      </c>
-      <c r="AB24">
-        <v>1.81</v>
-      </c>
-      <c r="AC24">
-        <v>1.4</v>
-      </c>
-      <c r="AD24">
-        <v>3.21</v>
-      </c>
-      <c r="AE24">
-        <v>1.5</v>
-      </c>
-      <c r="AF24">
-        <v>9</v>
-      </c>
-      <c r="AG24">
-        <v>2.8</v>
-      </c>
-      <c r="AH24">
-        <v>0</v>
-      </c>
-      <c r="AI24">
-        <v>0</v>
-      </c>
-      <c r="AJ24">
-        <v>0</v>
-      </c>
-      <c r="AK24">
-        <v>0</v>
-      </c>
-      <c r="AL24">
-        <v>1.63</v>
-      </c>
-      <c r="AM24">
-        <v>2.25</v>
-      </c>
       <c r="AN24">
-        <v>2.02</v>
+        <v>2.19</v>
       </c>
       <c r="AO24">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="AP24">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="AQ24">
-        <v>0</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="25" spans="1:43">
       <c r="A25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B25" s="2">
         <v>45366</v>
@@ -4183,7 +4183,7 @@
     </row>
     <row r="26" spans="1:43">
       <c r="A26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B26" s="2">
         <v>45366</v>
@@ -4201,120 +4201,120 @@
         <v>153</v>
       </c>
       <c r="G26">
+        <v>2.25</v>
+      </c>
+      <c r="H26">
+        <v>2.4</v>
+      </c>
+      <c r="I26">
+        <v>4.33</v>
+      </c>
+      <c r="J26">
+        <v>1.7</v>
+      </c>
+      <c r="K26">
+        <v>4.33</v>
+      </c>
+      <c r="L26">
+        <v>3.6</v>
+      </c>
+      <c r="M26">
+        <v>1.29</v>
+      </c>
+      <c r="N26">
+        <v>3.5</v>
+      </c>
+      <c r="O26">
+        <v>1.02</v>
+      </c>
+      <c r="P26">
+        <v>20</v>
+      </c>
+      <c r="Q26">
+        <v>1.17</v>
+      </c>
+      <c r="R26">
+        <v>4.5</v>
+      </c>
+      <c r="S26">
+        <v>1.57</v>
+      </c>
+      <c r="T26">
+        <v>2.35</v>
+      </c>
+      <c r="U26">
+        <v>1.62</v>
+      </c>
+      <c r="V26">
+        <v>2.2</v>
+      </c>
+      <c r="W26">
+        <v>1.15</v>
+      </c>
+      <c r="X26">
+        <v>1.22</v>
+      </c>
+      <c r="Y26">
+        <v>2.15</v>
+      </c>
+      <c r="Z26">
+        <v>2.07</v>
+      </c>
+      <c r="AA26">
+        <v>1.67</v>
+      </c>
+      <c r="AB26">
+        <v>2.05</v>
+      </c>
+      <c r="AC26">
+        <v>1.53</v>
+      </c>
+      <c r="AD26">
+        <v>3.58</v>
+      </c>
+      <c r="AE26">
+        <v>1.36</v>
+      </c>
+      <c r="AF26">
+        <v>10</v>
+      </c>
+      <c r="AG26">
         <v>3.4</v>
       </c>
-      <c r="H26">
-        <v>2.2</v>
-      </c>
-      <c r="I26">
-        <v>3</v>
-      </c>
-      <c r="J26">
-        <v>2.63</v>
-      </c>
-      <c r="K26">
-        <v>3.6</v>
-      </c>
-      <c r="L26">
-        <v>2.25</v>
-      </c>
-      <c r="M26">
-        <v>1.36</v>
-      </c>
-      <c r="N26">
-        <v>3</v>
-      </c>
-      <c r="O26">
-        <v>1.05</v>
-      </c>
-      <c r="P26">
-        <v>7.8</v>
-      </c>
-      <c r="Q26">
-        <v>1.24</v>
-      </c>
-      <c r="R26">
-        <v>3.6</v>
-      </c>
-      <c r="S26">
-        <v>1.85</v>
-      </c>
-      <c r="T26">
-        <v>1.95</v>
-      </c>
-      <c r="U26">
-        <v>1.73</v>
-      </c>
-      <c r="V26">
-        <v>2</v>
-      </c>
-      <c r="W26">
-        <v>1.53</v>
-      </c>
-      <c r="X26">
-        <v>1.3</v>
-      </c>
-      <c r="Y26">
-        <v>1.44</v>
-      </c>
-      <c r="Z26">
-        <v>1.07</v>
-      </c>
-      <c r="AA26">
-        <v>0.86</v>
-      </c>
-      <c r="AB26">
-        <v>1.21</v>
-      </c>
-      <c r="AC26">
-        <v>1.22</v>
-      </c>
-      <c r="AD26">
-        <v>2.43</v>
-      </c>
-      <c r="AE26">
-        <v>2.11</v>
-      </c>
-      <c r="AF26">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AG26">
-        <v>1.93</v>
-      </c>
       <c r="AH26">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="AI26">
-        <v>3.74</v>
+        <v>4.7</v>
       </c>
       <c r="AJ26">
+        <v>1.33</v>
+      </c>
+      <c r="AK26">
+        <v>3.15</v>
+      </c>
+      <c r="AL26">
+        <v>1.62</v>
+      </c>
+      <c r="AM26">
+        <v>2.26</v>
+      </c>
+      <c r="AN26">
+        <v>2.01</v>
+      </c>
+      <c r="AO26">
+        <v>1.79</v>
+      </c>
+      <c r="AP26">
+        <v>2.58</v>
+      </c>
+      <c r="AQ26">
         <v>1.48</v>
-      </c>
-      <c r="AK26">
-        <v>2.6</v>
-      </c>
-      <c r="AL26">
-        <v>1.79</v>
-      </c>
-      <c r="AM26">
-        <v>2.01</v>
-      </c>
-      <c r="AN26">
-        <v>2.24</v>
-      </c>
-      <c r="AO26">
-        <v>1.62</v>
-      </c>
-      <c r="AP26">
-        <v>2.93</v>
-      </c>
-      <c r="AQ26">
-        <v>1.33</v>
       </c>
     </row>
     <row r="27" spans="1:43">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B27" s="2">
         <v>45366</v>
@@ -4332,85 +4332,85 @@
         <v>154</v>
       </c>
       <c r="G27">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="H27">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="I27">
-        <v>4.75</v>
+        <v>2.63</v>
       </c>
       <c r="J27">
-        <v>1.64</v>
+        <v>3.5</v>
       </c>
       <c r="K27">
-        <v>4.18</v>
+        <v>3.3</v>
       </c>
       <c r="L27">
-        <v>5.02</v>
+        <v>1.95</v>
       </c>
       <c r="M27">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="N27">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="O27">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="P27">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="Q27">
         <v>1.2</v>
       </c>
       <c r="R27">
-        <v>4.5</v>
+        <v>3.88</v>
       </c>
       <c r="S27">
+        <v>1.7</v>
+      </c>
+      <c r="T27">
+        <v>2.1</v>
+      </c>
+      <c r="U27">
         <v>1.62</v>
-      </c>
-      <c r="T27">
-        <v>2.15</v>
-      </c>
-      <c r="U27">
-        <v>1.63</v>
       </c>
       <c r="V27">
         <v>2.2</v>
       </c>
       <c r="W27">
-        <v>1.18</v>
+        <v>1.83</v>
       </c>
       <c r="X27">
-        <v>1.18</v>
+        <v>1.3</v>
       </c>
       <c r="Y27">
-        <v>2.25</v>
+        <v>1.25</v>
       </c>
       <c r="Z27">
-        <v>1.57</v>
+        <v>1.21</v>
       </c>
       <c r="AA27">
         <v>1.07</v>
       </c>
       <c r="AB27">
-        <v>1.73</v>
+        <v>1.36</v>
       </c>
       <c r="AC27">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="AD27">
-        <v>3.15</v>
+        <v>2.77</v>
       </c>
       <c r="AE27">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="AF27">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AG27">
-        <v>3.25</v>
+        <v>1.62</v>
       </c>
       <c r="AH27">
         <v>0</v>
@@ -4419,33 +4419,33 @@
         <v>0</v>
       </c>
       <c r="AJ27">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AK27">
-        <v>0</v>
+        <v>2.93</v>
       </c>
       <c r="AL27">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="AM27">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AN27">
-        <v>2.07</v>
+        <v>2.01</v>
       </c>
       <c r="AO27">
-        <v>1.74</v>
+        <v>1.79</v>
       </c>
       <c r="AP27">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="AQ27">
-        <v>0</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="28" spans="1:43">
       <c r="A28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B28" s="2">
         <v>45366</v>
@@ -4463,120 +4463,120 @@
         <v>155</v>
       </c>
       <c r="G28">
+        <v>3.4</v>
+      </c>
+      <c r="H28">
+        <v>2.2</v>
+      </c>
+      <c r="I28">
+        <v>3</v>
+      </c>
+      <c r="J28">
+        <v>2.63</v>
+      </c>
+      <c r="K28">
+        <v>3.6</v>
+      </c>
+      <c r="L28">
         <v>2.25</v>
       </c>
-      <c r="H28">
-        <v>2.4</v>
-      </c>
-      <c r="I28">
-        <v>4.33</v>
-      </c>
-      <c r="J28">
-        <v>1.7</v>
-      </c>
-      <c r="K28">
-        <v>4.33</v>
-      </c>
-      <c r="L28">
+      <c r="M28">
+        <v>1.36</v>
+      </c>
+      <c r="N28">
+        <v>3</v>
+      </c>
+      <c r="O28">
+        <v>1.05</v>
+      </c>
+      <c r="P28">
+        <v>7.8</v>
+      </c>
+      <c r="Q28">
+        <v>1.24</v>
+      </c>
+      <c r="R28">
         <v>3.6</v>
       </c>
-      <c r="M28">
-        <v>1.29</v>
-      </c>
-      <c r="N28">
-        <v>3.5</v>
-      </c>
-      <c r="O28">
-        <v>1.02</v>
-      </c>
-      <c r="P28">
-        <v>20</v>
-      </c>
-      <c r="Q28">
-        <v>1.17</v>
-      </c>
-      <c r="R28">
-        <v>4.5</v>
-      </c>
       <c r="S28">
-        <v>1.57</v>
+        <v>1.85</v>
       </c>
       <c r="T28">
-        <v>2.35</v>
+        <v>1.95</v>
       </c>
       <c r="U28">
+        <v>1.73</v>
+      </c>
+      <c r="V28">
+        <v>2</v>
+      </c>
+      <c r="W28">
+        <v>1.53</v>
+      </c>
+      <c r="X28">
+        <v>1.3</v>
+      </c>
+      <c r="Y28">
+        <v>1.44</v>
+      </c>
+      <c r="Z28">
+        <v>1.07</v>
+      </c>
+      <c r="AA28">
+        <v>0.86</v>
+      </c>
+      <c r="AB28">
+        <v>1.21</v>
+      </c>
+      <c r="AC28">
+        <v>1.22</v>
+      </c>
+      <c r="AD28">
+        <v>2.43</v>
+      </c>
+      <c r="AE28">
+        <v>2.11</v>
+      </c>
+      <c r="AF28">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AG28">
+        <v>1.93</v>
+      </c>
+      <c r="AH28">
+        <v>1.21</v>
+      </c>
+      <c r="AI28">
+        <v>3.74</v>
+      </c>
+      <c r="AJ28">
+        <v>1.48</v>
+      </c>
+      <c r="AK28">
+        <v>2.6</v>
+      </c>
+      <c r="AL28">
+        <v>1.79</v>
+      </c>
+      <c r="AM28">
+        <v>2.01</v>
+      </c>
+      <c r="AN28">
+        <v>2.24</v>
+      </c>
+      <c r="AO28">
         <v>1.62</v>
       </c>
-      <c r="V28">
-        <v>2.2</v>
-      </c>
-      <c r="W28">
-        <v>1.15</v>
-      </c>
-      <c r="X28">
-        <v>1.22</v>
-      </c>
-      <c r="Y28">
-        <v>2.15</v>
-      </c>
-      <c r="Z28">
-        <v>2.07</v>
-      </c>
-      <c r="AA28">
-        <v>1.67</v>
-      </c>
-      <c r="AB28">
-        <v>2.05</v>
-      </c>
-      <c r="AC28">
-        <v>1.53</v>
-      </c>
-      <c r="AD28">
-        <v>3.58</v>
-      </c>
-      <c r="AE28">
-        <v>1.36</v>
-      </c>
-      <c r="AF28">
-        <v>10</v>
-      </c>
-      <c r="AG28">
-        <v>3.4</v>
-      </c>
-      <c r="AH28">
-        <v>0</v>
-      </c>
-      <c r="AI28">
-        <v>0</v>
-      </c>
-      <c r="AJ28">
-        <v>0</v>
-      </c>
-      <c r="AK28">
-        <v>0</v>
-      </c>
-      <c r="AL28">
-        <v>1.62</v>
-      </c>
-      <c r="AM28">
-        <v>2.26</v>
-      </c>
-      <c r="AN28">
-        <v>2.01</v>
-      </c>
-      <c r="AO28">
-        <v>1.79</v>
-      </c>
       <c r="AP28">
-        <v>2.58</v>
+        <v>2.93</v>
       </c>
       <c r="AQ28">
-        <v>1.48</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="29" spans="1:43">
       <c r="A29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B29" s="2">
         <v>45366</v>
@@ -4594,85 +4594,85 @@
         <v>156</v>
       </c>
       <c r="G29">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="H29">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="I29">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="J29">
-        <v>3.6</v>
+        <v>1.64</v>
       </c>
       <c r="K29">
-        <v>3.3</v>
+        <v>4.18</v>
       </c>
       <c r="L29">
-        <v>1.95</v>
+        <v>5.02</v>
       </c>
       <c r="M29">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="N29">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="O29">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="P29">
-        <v>12.5</v>
+        <v>17</v>
       </c>
       <c r="Q29">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="R29">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="S29">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="T29">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="U29">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="V29">
         <v>2.2</v>
       </c>
       <c r="W29">
-        <v>1.78</v>
+        <v>1.18</v>
       </c>
       <c r="X29">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="Y29">
-        <v>1.28</v>
+        <v>2.25</v>
       </c>
       <c r="Z29">
-        <v>1.14</v>
+        <v>1.57</v>
       </c>
       <c r="AA29">
+        <v>1.07</v>
+      </c>
+      <c r="AB29">
         <v>1.73</v>
       </c>
-      <c r="AB29">
-        <v>1.64</v>
-      </c>
       <c r="AC29">
-        <v>1.53</v>
+        <v>1.42</v>
       </c>
       <c r="AD29">
-        <v>3.17</v>
+        <v>3.15</v>
       </c>
       <c r="AE29">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="AF29">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AG29">
-        <v>1.75</v>
+        <v>3.25</v>
       </c>
       <c r="AH29">
         <v>0</v>
@@ -4687,16 +4687,16 @@
         <v>0</v>
       </c>
       <c r="AL29">
-        <v>1.71</v>
+        <v>1.66</v>
       </c>
       <c r="AM29">
-        <v>2.11</v>
+        <v>2.19</v>
       </c>
       <c r="AN29">
-        <v>2.12</v>
+        <v>2.07</v>
       </c>
       <c r="AO29">
-        <v>1.7</v>
+        <v>1.74</v>
       </c>
       <c r="AP29">
         <v>0</v>
@@ -4707,7 +4707,7 @@
     </row>
     <row r="30" spans="1:43">
       <c r="A30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B30" s="2">
         <v>45366</v>
@@ -4731,10 +4731,10 @@
         <v>2.3</v>
       </c>
       <c r="I30">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="J30">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K30">
         <v>3.3</v>
@@ -4752,19 +4752,19 @@
         <v>1.03</v>
       </c>
       <c r="P30">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Q30">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="R30">
-        <v>3.88</v>
+        <v>4</v>
       </c>
       <c r="S30">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="T30">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="U30">
         <v>1.62</v>
@@ -4773,37 +4773,37 @@
         <v>2.2</v>
       </c>
       <c r="W30">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="X30">
         <v>1.3</v>
       </c>
       <c r="Y30">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="Z30">
-        <v>1.21</v>
+        <v>1.14</v>
       </c>
       <c r="AA30">
-        <v>1.07</v>
+        <v>1.73</v>
       </c>
       <c r="AB30">
-        <v>1.36</v>
+        <v>1.64</v>
       </c>
       <c r="AC30">
-        <v>1.41</v>
+        <v>1.53</v>
       </c>
       <c r="AD30">
-        <v>2.77</v>
+        <v>3.17</v>
       </c>
       <c r="AE30">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="AF30">
         <v>8.5</v>
       </c>
       <c r="AG30">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="AH30">
         <v>0</v>
@@ -4818,16 +4818,16 @@
         <v>0</v>
       </c>
       <c r="AL30">
-        <v>1.64</v>
+        <v>1.71</v>
       </c>
       <c r="AM30">
-        <v>2.24</v>
+        <v>2.11</v>
       </c>
       <c r="AN30">
-        <v>2.01</v>
+        <v>2.12</v>
       </c>
       <c r="AO30">
-        <v>1.79</v>
+        <v>1.7</v>
       </c>
       <c r="AP30">
         <v>0</v>
@@ -4856,22 +4856,22 @@
         <v>158</v>
       </c>
       <c r="G31">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="H31">
         <v>2.25</v>
       </c>
       <c r="I31">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="J31">
-        <v>1.65</v>
+        <v>2.71</v>
       </c>
       <c r="K31">
-        <v>3.7</v>
+        <v>1.62</v>
       </c>
       <c r="L31">
-        <v>4.2</v>
+        <v>7.87</v>
       </c>
       <c r="M31">
         <v>1.33</v>
@@ -4892,16 +4892,16 @@
         <v>4</v>
       </c>
       <c r="S31">
+        <v>1.75</v>
+      </c>
+      <c r="T31">
+        <v>1.95</v>
+      </c>
+      <c r="U31">
         <v>1.73</v>
       </c>
-      <c r="T31">
+      <c r="V31">
         <v>2</v>
-      </c>
-      <c r="U31">
-        <v>1.8</v>
-      </c>
-      <c r="V31">
-        <v>1.91</v>
       </c>
       <c r="W31">
         <v>1.18</v>
@@ -4928,13 +4928,13 @@
         <v>2.87</v>
       </c>
       <c r="AE31">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="AF31">
         <v>9</v>
       </c>
       <c r="AG31">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="AH31">
         <v>1.18</v>
@@ -4949,7 +4949,7 @@
         <v>2.75</v>
       </c>
       <c r="AL31">
-        <v>1.65</v>
+        <v>2.38</v>
       </c>
       <c r="AM31">
         <v>2.05</v>
@@ -4978,7 +4978,7 @@
         <v>78</v>
       </c>
       <c r="D32">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E32" t="s">
         <v>113</v>
@@ -4987,115 +4987,115 @@
         <v>159</v>
       </c>
       <c r="G32">
-        <v>5.5</v>
+        <v>2.8</v>
       </c>
       <c r="H32">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="I32">
-        <v>2.05</v>
+        <v>5.29</v>
       </c>
       <c r="J32">
-        <v>4.75</v>
+        <v>3.36</v>
       </c>
       <c r="K32">
-        <v>4.33</v>
+        <v>1.43</v>
       </c>
       <c r="L32">
+        <v>8.74</v>
+      </c>
+      <c r="M32">
         <v>1.6</v>
       </c>
-      <c r="M32">
-        <v>1.29</v>
-      </c>
       <c r="N32">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="O32">
-        <v>1.04</v>
+        <v>1.11</v>
       </c>
       <c r="P32">
-        <v>18.5</v>
+        <v>6.25</v>
       </c>
       <c r="Q32">
-        <v>1.17</v>
+        <v>1.53</v>
       </c>
       <c r="R32">
-        <v>4.7</v>
+        <v>2.38</v>
       </c>
       <c r="S32">
-        <v>1.53</v>
+        <v>2.25</v>
       </c>
       <c r="T32">
-        <v>2.3</v>
+        <v>1.57</v>
       </c>
       <c r="U32">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="V32">
-        <v>2.05</v>
+        <v>1.6</v>
       </c>
       <c r="W32">
-        <v>2.37</v>
+        <v>1.24</v>
       </c>
       <c r="X32">
-        <v>1.18</v>
+        <v>1.36</v>
       </c>
       <c r="Y32">
-        <v>1.11</v>
+        <v>1.72</v>
       </c>
       <c r="Z32">
-        <v>0.75</v>
+        <v>1.6</v>
       </c>
       <c r="AA32">
-        <v>1.42</v>
+        <v>1.2</v>
       </c>
       <c r="AB32">
-        <v>1.46</v>
+        <v>1.3</v>
       </c>
       <c r="AC32">
-        <v>1.53</v>
+        <v>1.05</v>
       </c>
       <c r="AD32">
-        <v>2.99</v>
+        <v>2.35</v>
       </c>
       <c r="AE32">
-        <v>3.1</v>
+        <v>1.51</v>
       </c>
       <c r="AF32">
         <v>8.5</v>
       </c>
       <c r="AG32">
-        <v>1.49</v>
+        <v>3.16</v>
       </c>
       <c r="AH32">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="AI32">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="AJ32">
-        <v>1.48</v>
+        <v>1.6</v>
       </c>
       <c r="AK32">
-        <v>2.35</v>
+        <v>2.33</v>
       </c>
       <c r="AL32">
-        <v>1.82</v>
+        <v>1.97</v>
       </c>
       <c r="AM32">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="AN32">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="AO32">
         <v>1.52</v>
       </c>
       <c r="AP32">
-        <v>3</v>
+        <v>3.42</v>
       </c>
       <c r="AQ32">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="33" spans="1:43">
@@ -5127,13 +5127,13 @@
         <v>6</v>
       </c>
       <c r="J33">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="K33">
-        <v>3.7</v>
+        <v>4.27</v>
       </c>
       <c r="L33">
-        <v>6</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="M33">
         <v>1.4</v>
@@ -5148,16 +5148,16 @@
         <v>8</v>
       </c>
       <c r="Q33">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="R33">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="S33">
-        <v>1.73</v>
+        <v>2.1</v>
       </c>
       <c r="T33">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="U33">
         <v>2.1</v>
@@ -5231,7 +5231,7 @@
     </row>
     <row r="34" spans="1:43">
       <c r="A34" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="B34" s="2">
         <v>45366</v>
@@ -5240,7 +5240,7 @@
         <v>78</v>
       </c>
       <c r="D34">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E34" t="s">
         <v>115</v>
@@ -5249,120 +5249,120 @@
         <v>161</v>
       </c>
       <c r="G34">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="H34">
+        <v>2.5</v>
+      </c>
+      <c r="I34">
         <v>2.05</v>
       </c>
-      <c r="I34">
+      <c r="J34">
+        <v>8.74</v>
+      </c>
+      <c r="K34">
+        <v>2.63</v>
+      </c>
+      <c r="L34">
+        <v>1.62</v>
+      </c>
+      <c r="M34">
+        <v>1.29</v>
+      </c>
+      <c r="N34">
+        <v>3.5</v>
+      </c>
+      <c r="O34">
+        <v>1.04</v>
+      </c>
+      <c r="P34">
+        <v>18.5</v>
+      </c>
+      <c r="Q34">
+        <v>1.17</v>
+      </c>
+      <c r="R34">
+        <v>4.7</v>
+      </c>
+      <c r="S34">
+        <v>1.7</v>
+      </c>
+      <c r="T34">
+        <v>2.15</v>
+      </c>
+      <c r="U34">
+        <v>1.7</v>
+      </c>
+      <c r="V34">
+        <v>2.05</v>
+      </c>
+      <c r="W34">
+        <v>2.37</v>
+      </c>
+      <c r="X34">
+        <v>1.18</v>
+      </c>
+      <c r="Y34">
+        <v>1.11</v>
+      </c>
+      <c r="Z34">
+        <v>0.75</v>
+      </c>
+      <c r="AA34">
+        <v>1.42</v>
+      </c>
+      <c r="AB34">
+        <v>1.46</v>
+      </c>
+      <c r="AC34">
+        <v>1.53</v>
+      </c>
+      <c r="AD34">
+        <v>2.99</v>
+      </c>
+      <c r="AE34">
         <v>3.1</v>
       </c>
-      <c r="J34">
-        <v>2.85</v>
-      </c>
-      <c r="K34">
-        <v>3.3</v>
-      </c>
-      <c r="L34">
+      <c r="AF34">
+        <v>8.5</v>
+      </c>
+      <c r="AG34">
+        <v>1.49</v>
+      </c>
+      <c r="AH34">
+        <v>1.26</v>
+      </c>
+      <c r="AI34">
+        <v>3.25</v>
+      </c>
+      <c r="AJ34">
+        <v>1.48</v>
+      </c>
+      <c r="AK34">
         <v>2.35</v>
       </c>
-      <c r="M34">
-        <v>1.44</v>
-      </c>
-      <c r="N34">
-        <v>2.6</v>
-      </c>
-      <c r="O34">
-        <v>1.03</v>
-      </c>
-      <c r="P34">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="Q34">
-        <v>1.36</v>
-      </c>
-      <c r="R34">
-        <v>2.95</v>
-      </c>
-      <c r="S34">
-        <v>2</v>
-      </c>
-      <c r="T34">
-        <v>1.7</v>
-      </c>
-      <c r="U34">
-        <v>1.83</v>
-      </c>
-      <c r="V34">
-        <v>1.83</v>
-      </c>
-      <c r="W34">
-        <v>1.55</v>
-      </c>
-      <c r="X34">
-        <v>1.25</v>
-      </c>
-      <c r="Y34">
-        <v>1.4</v>
-      </c>
-      <c r="Z34">
-        <v>1.8</v>
-      </c>
-      <c r="AA34">
-        <v>1.89</v>
-      </c>
-      <c r="AB34">
-        <v>1.59</v>
-      </c>
-      <c r="AC34">
-        <v>1.61</v>
-      </c>
-      <c r="AD34">
-        <v>3.2</v>
-      </c>
-      <c r="AE34">
-        <v>0</v>
-      </c>
-      <c r="AF34">
-        <v>0</v>
-      </c>
-      <c r="AG34">
-        <v>0</v>
-      </c>
-      <c r="AH34">
-        <v>0</v>
-      </c>
-      <c r="AI34">
-        <v>0</v>
-      </c>
-      <c r="AJ34">
-        <v>0</v>
-      </c>
-      <c r="AK34">
-        <v>0</v>
-      </c>
       <c r="AL34">
-        <v>1.6</v>
+        <v>1.82</v>
       </c>
       <c r="AM34">
-        <v>2.27</v>
+        <v>1.87</v>
       </c>
       <c r="AN34">
-        <v>1.98</v>
+        <v>2.3</v>
       </c>
       <c r="AO34">
-        <v>1.82</v>
+        <v>1.52</v>
       </c>
       <c r="AP34">
-        <v>2.47</v>
+        <v>3</v>
       </c>
       <c r="AQ34">
-        <v>1.51</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="35" spans="1:43">
       <c r="A35" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B35" s="2">
         <v>45366</v>
@@ -5389,13 +5389,13 @@
         <v>3.5</v>
       </c>
       <c r="J35">
-        <v>2.25</v>
+        <v>2.32</v>
       </c>
       <c r="K35">
-        <v>3.4</v>
+        <v>4.08</v>
       </c>
       <c r="L35">
-        <v>2.9</v>
+        <v>2.31</v>
       </c>
       <c r="M35">
         <v>1.33</v>
@@ -5416,10 +5416,10 @@
         <v>3.75</v>
       </c>
       <c r="S35">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="T35">
-        <v>2.1</v>
+        <v>2.09</v>
       </c>
       <c r="U35">
         <v>1.62</v>
@@ -5493,7 +5493,7 @@
     </row>
     <row r="36" spans="1:43">
       <c r="A36" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B36" s="2">
         <v>45366</v>
@@ -5624,7 +5624,7 @@
     </row>
     <row r="37" spans="1:43">
       <c r="A37" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="B37" s="2">
         <v>45366</v>
@@ -5633,7 +5633,7 @@
         <v>78</v>
       </c>
       <c r="D37">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E37" t="s">
         <v>118</v>
@@ -5642,115 +5642,115 @@
         <v>164</v>
       </c>
       <c r="G37">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="H37">
+        <v>1.95</v>
+      </c>
+      <c r="I37">
+        <v>3.1</v>
+      </c>
+      <c r="J37">
+        <v>3</v>
+      </c>
+      <c r="K37">
+        <v>3.1</v>
+      </c>
+      <c r="L37">
+        <v>2.5</v>
+      </c>
+      <c r="M37">
+        <v>1.44</v>
+      </c>
+      <c r="N37">
+        <v>2.6</v>
+      </c>
+      <c r="O37">
+        <v>1.03</v>
+      </c>
+      <c r="P37">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Q37">
+        <v>1.36</v>
+      </c>
+      <c r="R37">
+        <v>2.95</v>
+      </c>
+      <c r="S37">
+        <v>2.35</v>
+      </c>
+      <c r="T37">
+        <v>1.57</v>
+      </c>
+      <c r="U37">
         <v>2</v>
       </c>
-      <c r="I37">
-        <v>5.29</v>
-      </c>
-      <c r="J37">
-        <v>1.95</v>
-      </c>
-      <c r="K37">
-        <v>3</v>
-      </c>
-      <c r="L37">
-        <v>3.75</v>
-      </c>
-      <c r="M37">
+      <c r="V37">
+        <v>1.73</v>
+      </c>
+      <c r="W37">
+        <v>1.55</v>
+      </c>
+      <c r="X37">
+        <v>1.25</v>
+      </c>
+      <c r="Y37">
+        <v>1.4</v>
+      </c>
+      <c r="Z37">
+        <v>1.8</v>
+      </c>
+      <c r="AA37">
+        <v>1.89</v>
+      </c>
+      <c r="AB37">
+        <v>1.59</v>
+      </c>
+      <c r="AC37">
+        <v>1.61</v>
+      </c>
+      <c r="AD37">
+        <v>3.2</v>
+      </c>
+      <c r="AE37">
+        <v>0</v>
+      </c>
+      <c r="AF37">
+        <v>0</v>
+      </c>
+      <c r="AG37">
+        <v>0</v>
+      </c>
+      <c r="AH37">
+        <v>1.17</v>
+      </c>
+      <c r="AI37">
+        <v>4.8</v>
+      </c>
+      <c r="AJ37">
+        <v>1.32</v>
+      </c>
+      <c r="AK37">
+        <v>3.2</v>
+      </c>
+      <c r="AL37">
         <v>1.6</v>
       </c>
-      <c r="N37">
-        <v>2.4</v>
-      </c>
-      <c r="O37">
-        <v>1.11</v>
-      </c>
-      <c r="P37">
-        <v>6.25</v>
-      </c>
-      <c r="Q37">
-        <v>1.49</v>
-      </c>
-      <c r="R37">
-        <v>2.43</v>
-      </c>
-      <c r="S37">
-        <v>2.3</v>
-      </c>
-      <c r="T37">
-        <v>1.55</v>
-      </c>
-      <c r="U37">
-        <v>2.2</v>
-      </c>
-      <c r="V37">
-        <v>1.6</v>
-      </c>
-      <c r="W37">
-        <v>1.24</v>
-      </c>
-      <c r="X37">
-        <v>1.36</v>
-      </c>
-      <c r="Y37">
-        <v>1.72</v>
-      </c>
-      <c r="Z37">
-        <v>1.6</v>
-      </c>
-      <c r="AA37">
-        <v>1.2</v>
-      </c>
-      <c r="AB37">
-        <v>1.3</v>
-      </c>
-      <c r="AC37">
-        <v>1.05</v>
-      </c>
-      <c r="AD37">
-        <v>2.35</v>
-      </c>
-      <c r="AE37">
+      <c r="AM37">
+        <v>2.27</v>
+      </c>
+      <c r="AN37">
+        <v>1.98</v>
+      </c>
+      <c r="AO37">
+        <v>1.82</v>
+      </c>
+      <c r="AP37">
+        <v>2.47</v>
+      </c>
+      <c r="AQ37">
         <v>1.51</v>
-      </c>
-      <c r="AF37">
-        <v>8.5</v>
-      </c>
-      <c r="AG37">
-        <v>3.16</v>
-      </c>
-      <c r="AH37">
-        <v>1.28</v>
-      </c>
-      <c r="AI37">
-        <v>3.2</v>
-      </c>
-      <c r="AJ37">
-        <v>1.6</v>
-      </c>
-      <c r="AK37">
-        <v>2.33</v>
-      </c>
-      <c r="AL37">
-        <v>1.97</v>
-      </c>
-      <c r="AM37">
-        <v>1.83</v>
-      </c>
-      <c r="AN37">
-        <v>2.5</v>
-      </c>
-      <c r="AO37">
-        <v>1.52</v>
-      </c>
-      <c r="AP37">
-        <v>3.42</v>
-      </c>
-      <c r="AQ37">
-        <v>1.25</v>
       </c>
     </row>
     <row r="38" spans="1:43">
@@ -5773,31 +5773,31 @@
         <v>165</v>
       </c>
       <c r="G38">
-        <v>1.95</v>
+        <v>4</v>
       </c>
       <c r="H38">
+        <v>2.3</v>
+      </c>
+      <c r="I38">
         <v>2.4</v>
       </c>
-      <c r="I38">
-        <v>5</v>
-      </c>
       <c r="J38">
-        <v>1.52</v>
+        <v>3.57</v>
       </c>
       <c r="K38">
-        <v>4.1</v>
+        <v>3.48</v>
       </c>
       <c r="L38">
-        <v>5.6</v>
+        <v>1.84</v>
       </c>
       <c r="M38">
         <v>1.3</v>
       </c>
       <c r="N38">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="O38">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="P38">
         <v>10</v>
@@ -5806,82 +5806,82 @@
         <v>1.22</v>
       </c>
       <c r="R38">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="S38">
         <v>1.67</v>
       </c>
       <c r="T38">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="U38">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="V38">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="W38">
-        <v>1.12</v>
+        <v>1.88</v>
       </c>
       <c r="X38">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="Y38">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="Z38">
-        <v>1.23</v>
+        <v>1.46</v>
       </c>
       <c r="AA38">
-        <v>0.92</v>
+        <v>1.92</v>
       </c>
       <c r="AB38">
-        <v>1.38</v>
+        <v>1.45</v>
       </c>
       <c r="AC38">
-        <v>1.09</v>
+        <v>1.74</v>
       </c>
       <c r="AD38">
-        <v>2.47</v>
+        <v>3.19</v>
       </c>
       <c r="AE38">
-        <v>0</v>
+        <v>2.64</v>
       </c>
       <c r="AF38">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AG38">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="AH38">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AI38">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="AJ38">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AK38">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="AL38">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AM38">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AN38">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AO38">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="AP38">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="AQ38">
-        <v>0</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="39" spans="1:43">
@@ -5904,31 +5904,31 @@
         <v>166</v>
       </c>
       <c r="G39">
-        <v>4</v>
+        <v>1.95</v>
       </c>
       <c r="H39">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="I39">
-        <v>2.4</v>
+        <v>5</v>
       </c>
       <c r="J39">
-        <v>3.7</v>
+        <v>1.5</v>
       </c>
       <c r="K39">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="L39">
-        <v>1.88</v>
+        <v>5.77</v>
       </c>
       <c r="M39">
         <v>1.3</v>
       </c>
       <c r="N39">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="O39">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="P39">
         <v>10</v>
@@ -5937,43 +5937,43 @@
         <v>1.22</v>
       </c>
       <c r="R39">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="S39">
-        <v>1.67</v>
+        <v>1.97</v>
       </c>
       <c r="T39">
+        <v>1.79</v>
+      </c>
+      <c r="U39">
+        <v>1.73</v>
+      </c>
+      <c r="V39">
+        <v>2</v>
+      </c>
+      <c r="W39">
+        <v>1.12</v>
+      </c>
+      <c r="X39">
+        <v>1.18</v>
+      </c>
+      <c r="Y39">
         <v>2.1</v>
       </c>
-      <c r="U39">
-        <v>1.62</v>
-      </c>
-      <c r="V39">
-        <v>2.2</v>
-      </c>
-      <c r="W39">
-        <v>1.88</v>
-      </c>
-      <c r="X39">
-        <v>1.25</v>
-      </c>
-      <c r="Y39">
-        <v>1.3</v>
-      </c>
       <c r="Z39">
-        <v>1.46</v>
+        <v>1.23</v>
       </c>
       <c r="AA39">
-        <v>1.92</v>
+        <v>0.92</v>
       </c>
       <c r="AB39">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="AC39">
-        <v>1.74</v>
+        <v>1.09</v>
       </c>
       <c r="AD39">
-        <v>3.19</v>
+        <v>2.47</v>
       </c>
       <c r="AE39">
         <v>0</v>
@@ -6044,13 +6044,13 @@
         <v>2.75</v>
       </c>
       <c r="J40">
-        <v>3.9</v>
+        <v>3.31</v>
       </c>
       <c r="K40">
-        <v>3.4</v>
+        <v>2.92</v>
       </c>
       <c r="L40">
-        <v>1.91</v>
+        <v>2.16</v>
       </c>
       <c r="M40">
         <v>1.5</v>
@@ -6071,10 +6071,10 @@
         <v>2.9</v>
       </c>
       <c r="S40">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="T40">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="U40">
         <v>2</v>
@@ -6175,13 +6175,13 @@
         <v>8.5</v>
       </c>
       <c r="J41">
-        <v>1.4</v>
+        <v>2.62</v>
       </c>
       <c r="K41">
-        <v>4.1</v>
+        <v>1.88</v>
       </c>
       <c r="L41">
-        <v>8.5</v>
+        <v>5.13</v>
       </c>
       <c r="M41">
         <v>1.5</v>
@@ -6202,10 +6202,10 @@
         <v>2.8</v>
       </c>
       <c r="S41">
-        <v>2.3</v>
+        <v>2.29</v>
       </c>
       <c r="T41">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="U41">
         <v>2.63</v>
@@ -6306,13 +6306,13 @@
         <v>3.25</v>
       </c>
       <c r="J42">
-        <v>2.63</v>
+        <v>2.93</v>
       </c>
       <c r="K42">
-        <v>3.25</v>
+        <v>2.46</v>
       </c>
       <c r="L42">
-        <v>2.63</v>
+        <v>2.78</v>
       </c>
       <c r="M42">
         <v>1.4</v>
@@ -6333,10 +6333,10 @@
         <v>3.4</v>
       </c>
       <c r="S42">
-        <v>1.91</v>
+        <v>1.99</v>
       </c>
       <c r="T42">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="U42">
         <v>1.75</v>
@@ -6437,37 +6437,37 @@
         <v>0</v>
       </c>
       <c r="J43">
+        <v>2.3</v>
+      </c>
+      <c r="K43">
+        <v>1.83</v>
+      </c>
+      <c r="L43">
+        <v>7.57</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <v>0</v>
+      </c>
+      <c r="S43">
         <v>1.8</v>
       </c>
-      <c r="K43">
-        <v>3.6</v>
-      </c>
-      <c r="L43">
-        <v>4.2</v>
-      </c>
-      <c r="M43">
-        <v>0</v>
-      </c>
-      <c r="N43">
-        <v>0</v>
-      </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>0</v>
-      </c>
-      <c r="R43">
-        <v>0</v>
-      </c>
-      <c r="S43">
-        <v>1.75</v>
-      </c>
       <c r="T43">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="U43">
         <v>0</v>
@@ -6559,76 +6559,76 @@
         <v>171</v>
       </c>
       <c r="G44">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="H44">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="I44">
-        <v>7.5</v>
+        <v>3.25</v>
       </c>
       <c r="J44">
-        <v>1.33</v>
+        <v>2.5</v>
       </c>
       <c r="K44">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="L44">
-        <v>8</v>
+        <v>2.75</v>
       </c>
       <c r="M44">
+        <v>1.36</v>
+      </c>
+      <c r="N44">
+        <v>3</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+      <c r="R44">
+        <v>0</v>
+      </c>
+      <c r="S44">
+        <v>1.75</v>
+      </c>
+      <c r="T44">
+        <v>2.05</v>
+      </c>
+      <c r="U44">
+        <v>1.62</v>
+      </c>
+      <c r="V44">
+        <v>2.2</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>0</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>1.71</v>
+      </c>
+      <c r="AA44">
         <v>1.29</v>
       </c>
-      <c r="N44">
-        <v>3.5</v>
-      </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
-      <c r="P44">
-        <v>0</v>
-      </c>
-      <c r="Q44">
-        <v>0</v>
-      </c>
-      <c r="R44">
-        <v>0</v>
-      </c>
-      <c r="S44">
-        <v>1.6</v>
-      </c>
-      <c r="T44">
-        <v>2.3</v>
-      </c>
-      <c r="U44">
-        <v>1.95</v>
-      </c>
-      <c r="V44">
-        <v>1.8</v>
-      </c>
-      <c r="W44">
-        <v>0</v>
-      </c>
-      <c r="X44">
-        <v>0</v>
-      </c>
-      <c r="Y44">
-        <v>0</v>
-      </c>
-      <c r="Z44">
-        <v>1.79</v>
-      </c>
-      <c r="AA44">
-        <v>0.43</v>
-      </c>
       <c r="AB44">
-        <v>1.7</v>
+        <v>1.32</v>
       </c>
       <c r="AC44">
-        <v>0.93</v>
+        <v>1.49</v>
       </c>
       <c r="AD44">
-        <v>2.63</v>
+        <v>2.81</v>
       </c>
       <c r="AE44">
         <v>0</v>
@@ -6690,28 +6690,28 @@
         <v>172</v>
       </c>
       <c r="G45">
-        <v>3.75</v>
+        <v>2.1</v>
       </c>
       <c r="H45">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="I45">
-        <v>2.63</v>
+        <v>5</v>
       </c>
       <c r="J45">
-        <v>3.25</v>
+        <v>1.57</v>
       </c>
       <c r="K45">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="L45">
-        <v>2.05</v>
+        <v>5.5</v>
       </c>
       <c r="M45">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="N45">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O45">
         <v>0</v>
@@ -6726,17 +6726,17 @@
         <v>0</v>
       </c>
       <c r="S45">
-        <v>1.65</v>
+        <v>1.53</v>
       </c>
       <c r="T45">
+        <v>2.4</v>
+      </c>
+      <c r="U45">
+        <v>1.62</v>
+      </c>
+      <c r="V45">
         <v>2.2</v>
       </c>
-      <c r="U45">
-        <v>1.57</v>
-      </c>
-      <c r="V45">
-        <v>2.25</v>
-      </c>
       <c r="W45">
         <v>0</v>
       </c>
@@ -6747,19 +6747,19 @@
         <v>0</v>
       </c>
       <c r="Z45">
-        <v>1.14</v>
+        <v>2.5</v>
       </c>
       <c r="AA45">
-        <v>0.79</v>
+        <v>1.29</v>
       </c>
       <c r="AB45">
-        <v>1.37</v>
+        <v>2</v>
       </c>
       <c r="AC45">
-        <v>1.22</v>
+        <v>1.46</v>
       </c>
       <c r="AD45">
-        <v>2.59</v>
+        <v>3.46</v>
       </c>
       <c r="AE45">
         <v>0</v>
@@ -6821,28 +6821,28 @@
         <v>173</v>
       </c>
       <c r="G46">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="H46">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="I46">
-        <v>3.25</v>
+        <v>7.5</v>
       </c>
       <c r="J46">
-        <v>2.5</v>
+        <v>1.33</v>
       </c>
       <c r="K46">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="L46">
-        <v>2.75</v>
+        <v>8</v>
       </c>
       <c r="M46">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="N46">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="O46">
         <v>0</v>
@@ -6857,16 +6857,16 @@
         <v>0</v>
       </c>
       <c r="S46">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="T46">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="U46">
-        <v>1.62</v>
+        <v>1.95</v>
       </c>
       <c r="V46">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="W46">
         <v>0</v>
@@ -6878,19 +6878,19 @@
         <v>0</v>
       </c>
       <c r="Z46">
-        <v>1.71</v>
+        <v>1.79</v>
       </c>
       <c r="AA46">
-        <v>1.29</v>
+        <v>0.43</v>
       </c>
       <c r="AB46">
-        <v>1.32</v>
+        <v>1.7</v>
       </c>
       <c r="AC46">
-        <v>1.49</v>
+        <v>0.93</v>
       </c>
       <c r="AD46">
-        <v>2.81</v>
+        <v>2.63</v>
       </c>
       <c r="AE46">
         <v>0</v>
@@ -6952,52 +6952,52 @@
         <v>174</v>
       </c>
       <c r="G47">
-        <v>2.1</v>
+        <v>3.75</v>
       </c>
       <c r="H47">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="I47">
-        <v>5</v>
+        <v>2.63</v>
       </c>
       <c r="J47">
+        <v>3.25</v>
+      </c>
+      <c r="K47">
+        <v>3.8</v>
+      </c>
+      <c r="L47">
+        <v>2.05</v>
+      </c>
+      <c r="M47">
+        <v>1.3</v>
+      </c>
+      <c r="N47">
+        <v>3.4</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>0</v>
+      </c>
+      <c r="R47">
+        <v>0</v>
+      </c>
+      <c r="S47">
+        <v>1.65</v>
+      </c>
+      <c r="T47">
+        <v>2.2</v>
+      </c>
+      <c r="U47">
         <v>1.57</v>
       </c>
-      <c r="K47">
-        <v>4</v>
-      </c>
-      <c r="L47">
-        <v>5.5</v>
-      </c>
-      <c r="M47">
-        <v>1.29</v>
-      </c>
-      <c r="N47">
-        <v>3.5</v>
-      </c>
-      <c r="O47">
-        <v>0</v>
-      </c>
-      <c r="P47">
-        <v>0</v>
-      </c>
-      <c r="Q47">
-        <v>0</v>
-      </c>
-      <c r="R47">
-        <v>0</v>
-      </c>
-      <c r="S47">
-        <v>1.53</v>
-      </c>
-      <c r="T47">
-        <v>2.4</v>
-      </c>
-      <c r="U47">
-        <v>1.62</v>
-      </c>
       <c r="V47">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W47">
         <v>0</v>
@@ -7009,19 +7009,19 @@
         <v>0</v>
       </c>
       <c r="Z47">
-        <v>2.5</v>
+        <v>1.14</v>
       </c>
       <c r="AA47">
-        <v>1.29</v>
+        <v>0.79</v>
       </c>
       <c r="AB47">
-        <v>2</v>
+        <v>1.37</v>
       </c>
       <c r="AC47">
-        <v>1.46</v>
+        <v>1.22</v>
       </c>
       <c r="AD47">
-        <v>3.46</v>
+        <v>2.59</v>
       </c>
       <c r="AE47">
         <v>0</v>

--- a/Jogos_do_Dia/2024-03-15_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-03-15_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -2555,10 +2555,10 @@
         <v>1.25</v>
       </c>
       <c r="Z13">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AA13">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AB13">
         <v>1.49</v>
@@ -3079,10 +3079,10 @@
         <v>1.5</v>
       </c>
       <c r="Z17">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AA17">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AB17">
         <v>1.35</v>
@@ -3210,10 +3210,10 @@
         <v>1.57</v>
       </c>
       <c r="Z18">
+        <v>1.36</v>
+      </c>
+      <c r="AA18">
         <v>1.23</v>
-      </c>
-      <c r="AA18">
-        <v>1.33</v>
       </c>
       <c r="AB18">
         <v>1.34</v>
@@ -3341,10 +3341,10 @@
         <v>1.65</v>
       </c>
       <c r="Z19">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AA19">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AB19">
         <v>1.72</v>
@@ -3472,10 +3472,10 @@
         <v>2.05</v>
       </c>
       <c r="Z20">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AA20">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AB20">
         <v>1.83</v>
@@ -3603,10 +3603,10 @@
         <v>2.05</v>
       </c>
       <c r="Z21">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="AA21">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AB21">
         <v>1.81</v>
@@ -3734,10 +3734,10 @@
         <v>1.72</v>
       </c>
       <c r="Z22">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AA22">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AB22">
         <v>1.58</v>
@@ -3865,10 +3865,10 @@
         <v>1.42</v>
       </c>
       <c r="Z23">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AA23">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AB23">
         <v>1.44</v>
@@ -3996,10 +3996,10 @@
         <v>1.15</v>
       </c>
       <c r="Z24">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AA24">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AB24">
         <v>1.29</v>
@@ -4127,10 +4127,10 @@
         <v>1.51</v>
       </c>
       <c r="Z25">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AA25">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AB25">
         <v>1.57</v>
@@ -4151,16 +4151,16 @@
         <v>1.91</v>
       </c>
       <c r="AH25">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="AI25">
-        <v>0</v>
+        <v>4.56</v>
       </c>
       <c r="AJ25">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AK25">
-        <v>0</v>
+        <v>2.71</v>
       </c>
       <c r="AL25">
         <v>1.69</v>
@@ -4175,10 +4175,10 @@
         <v>1.72</v>
       </c>
       <c r="AP25">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="AQ25">
-        <v>0</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="26" spans="1:43">
@@ -4258,10 +4258,10 @@
         <v>2.15</v>
       </c>
       <c r="Z26">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AA26">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AB26">
         <v>2.05</v>
@@ -4389,10 +4389,10 @@
         <v>1.25</v>
       </c>
       <c r="Z27">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AA27">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AB27">
         <v>1.36</v>
@@ -4520,10 +4520,10 @@
         <v>1.44</v>
       </c>
       <c r="Z28">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AA28">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AB28">
         <v>1.21</v>
@@ -4651,10 +4651,10 @@
         <v>2.25</v>
       </c>
       <c r="Z29">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AA29">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AB29">
         <v>1.73</v>
@@ -4681,10 +4681,10 @@
         <v>0</v>
       </c>
       <c r="AJ29">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="AK29">
-        <v>0</v>
+        <v>2.68</v>
       </c>
       <c r="AL29">
         <v>1.66</v>
@@ -4782,10 +4782,10 @@
         <v>1.28</v>
       </c>
       <c r="Z30">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AA30">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AB30">
         <v>1.64</v>
@@ -4913,10 +4913,10 @@
         <v>2.05</v>
       </c>
       <c r="Z31">
-        <v>2.25</v>
+        <v>2.08</v>
       </c>
       <c r="AA31">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AB31">
         <v>1.45</v>
@@ -5044,10 +5044,10 @@
         <v>1.72</v>
       </c>
       <c r="Z32">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AA32">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AB32">
         <v>1.3</v>
@@ -5175,10 +5175,10 @@
         <v>2.38</v>
       </c>
       <c r="Z33">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AA33">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AB33">
         <v>1.66</v>
@@ -5306,10 +5306,10 @@
         <v>1.11</v>
       </c>
       <c r="Z34">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AA34">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AB34">
         <v>1.46</v>
@@ -5437,10 +5437,10 @@
         <v>1.62</v>
       </c>
       <c r="Z35">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AA35">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AB35">
         <v>1.65</v>
@@ -5699,10 +5699,10 @@
         <v>1.4</v>
       </c>
       <c r="Z37">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AA37">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AB37">
         <v>1.59</v>
@@ -5830,10 +5830,10 @@
         <v>1.3</v>
       </c>
       <c r="Z38">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AA38">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AB38">
         <v>1.45</v>
@@ -5961,10 +5961,10 @@
         <v>2.1</v>
       </c>
       <c r="Z39">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AA39">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AB39">
         <v>1.38</v>
@@ -6092,10 +6092,10 @@
         <v>1.3</v>
       </c>
       <c r="Z40">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AA40">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AB40">
         <v>1.26</v>
@@ -6223,10 +6223,10 @@
         <v>2.7</v>
       </c>
       <c r="Z41">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AA41">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AB41">
         <v>1.53</v>
@@ -6354,10 +6354,10 @@
         <v>1.47</v>
       </c>
       <c r="Z42">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AA42">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AB42">
         <v>1.45</v>
@@ -6485,10 +6485,10 @@
         <v>0</v>
       </c>
       <c r="Z43">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AA43">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AB43">
         <v>1.26</v>
